--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -14,9 +14,618 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>w</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+  <si>
+    <t>Programado</t>
+  </si>
+  <si>
+    <t>Verificado</t>
+  </si>
+  <si>
+    <t>Data do Relatório</t>
+  </si>
+  <si>
+    <t>Hidro</t>
+  </si>
+  <si>
+    <t>Itaipu</t>
+  </si>
+  <si>
+    <t>Termo Nuclear</t>
+  </si>
+  <si>
+    <t>Termo Conv</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>Total SIN</t>
+  </si>
+  <si>
+    <t>Intercâmbio Inter</t>
+  </si>
+  <si>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01 Maio de 2016</t>
+  </si>
+  <si>
+    <t>27.136</t>
+  </si>
+  <si>
+    <t>9.579</t>
+  </si>
+  <si>
+    <t>1.990</t>
+  </si>
+  <si>
+    <t>9.112</t>
+  </si>
+  <si>
+    <t>2.559</t>
+  </si>
+  <si>
+    <t>50.376</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>26.056</t>
+  </si>
+  <si>
+    <t>9.424</t>
+  </si>
+  <si>
+    <t>2.015</t>
+  </si>
+  <si>
+    <t>9.105</t>
+  </si>
+  <si>
+    <t>1.978</t>
+  </si>
+  <si>
+    <t>48.578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02 Maio de 2016</t>
+  </si>
+  <si>
+    <t>35.691</t>
+  </si>
+  <si>
+    <t>10.589</t>
+  </si>
+  <si>
+    <t>8.859</t>
+  </si>
+  <si>
+    <t>2.523</t>
+  </si>
+  <si>
+    <t>59.652</t>
+  </si>
+  <si>
+    <t>34.860</t>
+  </si>
+  <si>
+    <t>10.717</t>
+  </si>
+  <si>
+    <t>8.890</t>
+  </si>
+  <si>
+    <t>2.689</t>
+  </si>
+  <si>
+    <t>59.171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03 Maio de 2016</t>
+  </si>
+  <si>
+    <t>36.688</t>
+  </si>
+  <si>
+    <t>10.557</t>
+  </si>
+  <si>
+    <t>9.448</t>
+  </si>
+  <si>
+    <t>2.791</t>
+  </si>
+  <si>
+    <t>61.474</t>
+  </si>
+  <si>
+    <t>36.787</t>
+  </si>
+  <si>
+    <t>10.781</t>
+  </si>
+  <si>
+    <t>2.016</t>
+  </si>
+  <si>
+    <t>8.586</t>
+  </si>
+  <si>
+    <t>3.127</t>
+  </si>
+  <si>
+    <t>61.297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04 Maio de 2016</t>
+  </si>
+  <si>
+    <t>37.387</t>
+  </si>
+  <si>
+    <t>3.089</t>
+  </si>
+  <si>
+    <t>62.128</t>
+  </si>
+  <si>
+    <t>37.934</t>
+  </si>
+  <si>
+    <t>10.768</t>
+  </si>
+  <si>
+    <t>2.017</t>
+  </si>
+  <si>
+    <t>8.242</t>
+  </si>
+  <si>
+    <t>2.827</t>
+  </si>
+  <si>
+    <t>61.788</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05 Maio de 2016</t>
+  </si>
+  <si>
+    <t>36.983</t>
+  </si>
+  <si>
+    <t>11.168</t>
+  </si>
+  <si>
+    <t>9.101</t>
+  </si>
+  <si>
+    <t>2.931</t>
+  </si>
+  <si>
+    <t>62.173</t>
+  </si>
+  <si>
+    <t>38.698</t>
+  </si>
+  <si>
+    <t>11.227</t>
+  </si>
+  <si>
+    <t>8.591</t>
+  </si>
+  <si>
+    <t>2.466</t>
+  </si>
+  <si>
+    <t>62.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06 Maio de 2016</t>
+  </si>
+  <si>
+    <t>38.526</t>
+  </si>
+  <si>
+    <t>10.130</t>
+  </si>
+  <si>
+    <t>9.316</t>
+  </si>
+  <si>
+    <t>2.647</t>
+  </si>
+  <si>
+    <t>62.609</t>
+  </si>
+  <si>
+    <t>38.498</t>
+  </si>
+  <si>
+    <t>10.186</t>
+  </si>
+  <si>
+    <t>9.060</t>
+  </si>
+  <si>
+    <t>3.117</t>
+  </si>
+  <si>
+    <t>62.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07 Maio de 2016</t>
+  </si>
+  <si>
+    <t>35.244</t>
+  </si>
+  <si>
+    <t>9.312</t>
+  </si>
+  <si>
+    <t>7.931</t>
+  </si>
+  <si>
+    <t>3.149</t>
+  </si>
+  <si>
+    <t>57.626</t>
+  </si>
+  <si>
+    <t>34.835</t>
+  </si>
+  <si>
+    <t>9.393</t>
+  </si>
+  <si>
+    <t>7.504</t>
+  </si>
+  <si>
+    <t>3.636</t>
+  </si>
+  <si>
+    <t>57.384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08 Maio de 2016</t>
+  </si>
+  <si>
+    <t>28.037</t>
+  </si>
+  <si>
+    <t>9.876</t>
+  </si>
+  <si>
+    <t>8.201</t>
+  </si>
+  <si>
+    <t>3.392</t>
+  </si>
+  <si>
+    <t>51.496</t>
+  </si>
+  <si>
+    <t>27.603</t>
+  </si>
+  <si>
+    <t>9.917</t>
+  </si>
+  <si>
+    <t>7.895</t>
+  </si>
+  <si>
+    <t>3.542</t>
+  </si>
+  <si>
+    <t>50.972</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09 Maio de 2016</t>
+  </si>
+  <si>
+    <t>37.274</t>
+  </si>
+  <si>
+    <t>10.379</t>
+  </si>
+  <si>
+    <t>8.406</t>
+  </si>
+  <si>
+    <t>3.383</t>
+  </si>
+  <si>
+    <t>61.432</t>
+  </si>
+  <si>
+    <t>38.061</t>
+  </si>
+  <si>
+    <t>10.606</t>
+  </si>
+  <si>
+    <t>7.952</t>
+  </si>
+  <si>
+    <t>2.996</t>
+  </si>
+  <si>
+    <t>61.630</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 Maio de 2016</t>
+  </si>
+  <si>
+    <t>38.295</t>
+  </si>
+  <si>
+    <t>10.952</t>
+  </si>
+  <si>
+    <t>8.454</t>
+  </si>
+  <si>
+    <t>3.212</t>
+  </si>
+  <si>
+    <t>62.903</t>
+  </si>
+  <si>
+    <t>39.874</t>
+  </si>
+  <si>
+    <t>11.150</t>
+  </si>
+  <si>
+    <t>2.014</t>
+  </si>
+  <si>
+    <t>7.655</t>
+  </si>
+  <si>
+    <t>2.825</t>
+  </si>
+  <si>
+    <t>63.518</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 Maio de 2016</t>
+  </si>
+  <si>
+    <t>39.054</t>
+  </si>
+  <si>
+    <t>11.727</t>
+  </si>
+  <si>
+    <t>8.615</t>
+  </si>
+  <si>
+    <t>2.788</t>
+  </si>
+  <si>
+    <t>64.174</t>
+  </si>
+  <si>
+    <t>40.020</t>
+  </si>
+  <si>
+    <t>11.777</t>
+  </si>
+  <si>
+    <t>8.501</t>
+  </si>
+  <si>
+    <t>1.948</t>
+  </si>
+  <si>
+    <t>64.260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 Maio de 2016</t>
+  </si>
+  <si>
+    <t>39.745</t>
+  </si>
+  <si>
+    <t>11.478</t>
+  </si>
+  <si>
+    <t>8.931</t>
+  </si>
+  <si>
+    <t>2.033</t>
+  </si>
+  <si>
+    <t>64.177</t>
+  </si>
+  <si>
+    <t>39.953</t>
+  </si>
+  <si>
+    <t>11.505</t>
+  </si>
+  <si>
+    <t>2.013</t>
+  </si>
+  <si>
+    <t>8.248</t>
+  </si>
+  <si>
+    <t>2.176</t>
+  </si>
+  <si>
+    <t>63.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 Maio de 2016</t>
+  </si>
+  <si>
+    <t>41.200</t>
+  </si>
+  <si>
+    <t>9.346</t>
+  </si>
+  <si>
+    <t>9.001</t>
+  </si>
+  <si>
+    <t>1.827</t>
+  </si>
+  <si>
+    <t>63.364</t>
+  </si>
+  <si>
+    <t>40.371</t>
+  </si>
+  <si>
+    <t>9.706</t>
+  </si>
+  <si>
+    <t>8.526</t>
+  </si>
+  <si>
+    <t>1.957</t>
+  </si>
+  <si>
+    <t>62.574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 Maio de 2016</t>
+  </si>
+  <si>
+    <t>33.363</t>
+  </si>
+  <si>
+    <t>9.622</t>
+  </si>
+  <si>
+    <t>9.574</t>
+  </si>
+  <si>
+    <t>2.478</t>
+  </si>
+  <si>
+    <t>57.027</t>
+  </si>
+  <si>
+    <t>32.478</t>
+  </si>
+  <si>
+    <t>10.197</t>
+  </si>
+  <si>
+    <t>2.012</t>
+  </si>
+  <si>
+    <t>8.716</t>
+  </si>
+  <si>
+    <t>3.230</t>
+  </si>
+  <si>
+    <t>56.633</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 Maio de 2016</t>
+  </si>
+  <si>
+    <t>27.903</t>
+  </si>
+  <si>
+    <t>9.748</t>
+  </si>
+  <si>
+    <t>8.688</t>
+  </si>
+  <si>
+    <t>3.278</t>
+  </si>
+  <si>
+    <t>51.607</t>
+  </si>
+  <si>
+    <t>27.140</t>
+  </si>
+  <si>
+    <t>9.784</t>
+  </si>
+  <si>
+    <t>7.939</t>
+  </si>
+  <si>
+    <t>3.941</t>
+  </si>
+  <si>
+    <t>50.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 Maio de 2016</t>
+  </si>
+  <si>
+    <t>38.821</t>
+  </si>
+  <si>
+    <t>9.816</t>
+  </si>
+  <si>
+    <t>8.564</t>
+  </si>
+  <si>
+    <t>3.557</t>
+  </si>
+  <si>
+    <t>62.748</t>
+  </si>
+  <si>
+    <t>37.657</t>
+  </si>
+  <si>
+    <t>9.559</t>
+  </si>
+  <si>
+    <t>7.991</t>
+  </si>
+  <si>
+    <t>3.890</t>
+  </si>
+  <si>
+    <t>61.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 Maio de 2016</t>
+  </si>
+  <si>
+    <t>38.703</t>
+  </si>
+  <si>
+    <t>9.798</t>
+  </si>
+  <si>
+    <t>8.726</t>
+  </si>
+  <si>
+    <t>3.423</t>
+  </si>
+  <si>
+    <t>62.640</t>
+  </si>
+  <si>
+    <t>40.182</t>
+  </si>
+  <si>
+    <t>9.504</t>
+  </si>
+  <si>
+    <t>8.042</t>
+  </si>
+  <si>
+    <t>2.898</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 Maio de 2016</t>
   </si>
 </sst>
 </file>
@@ -24,7 +633,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,16 +641,36 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -49,12 +678,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -353,78 +1090,1488 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection activeCell="A5" sqref="A5:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="16.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="14.140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="16.5703125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" width="14.140625"/>
+    <col customWidth="1" max="13" min="13" width="12.140625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="n">
+    <row r="1" spans="1:18"/>
+    <row r="2" spans="1:18"/>
+    <row customHeight="1" ht="16.5" r="3" spans="1:18">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
+      <c r="J3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="10" t="n"/>
+      <c r="M3" s="10" t="n"/>
+      <c r="N3" s="10" t="n"/>
+      <c r="O3" s="10" t="n"/>
+      <c r="P3" s="10" t="n"/>
+      <c r="Q3" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" spans="1:18">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>32.227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="n">
-        <v>32.227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="n">
-        <v>9.734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="n">
-        <v>9.887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="n">
-        <v>2.505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="n">
-        <v>56.343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="n">
-        <v>56.343</v>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" t="s">
+        <v>133</v>
+      </c>
+      <c r="N24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27" t="s">
+        <v>169</v>
+      </c>
+      <c r="O27" t="s">
+        <v>170</v>
+      </c>
+      <c r="P27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" t="s">
+        <v>179</v>
+      </c>
+      <c r="N28" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" t="s">
+        <v>201</v>
+      </c>
+      <c r="N30" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\Documents\Python\ETL_PDF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="8115"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Tabela1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
   <si>
     <t>Programado</t>
   </si>
@@ -145,39 +140,1015 @@
   </si>
   <si>
     <t xml:space="preserve"> 31 Maio de 2016</t>
+  </si>
+  <si>
+    <t>27.136</t>
+  </si>
+  <si>
+    <t>9.579</t>
+  </si>
+  <si>
+    <t>1.990</t>
+  </si>
+  <si>
+    <t>9.112</t>
+  </si>
+  <si>
+    <t>2.559</t>
+  </si>
+  <si>
+    <t>50.376</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>26.056</t>
+  </si>
+  <si>
+    <t>9.424</t>
+  </si>
+  <si>
+    <t>2.015</t>
+  </si>
+  <si>
+    <t>9.105</t>
+  </si>
+  <si>
+    <t>1.978</t>
+  </si>
+  <si>
+    <t>48.578</t>
+  </si>
+  <si>
+    <t>35.691</t>
+  </si>
+  <si>
+    <t>10.589</t>
+  </si>
+  <si>
+    <t>8.859</t>
+  </si>
+  <si>
+    <t>2.523</t>
+  </si>
+  <si>
+    <t>59.652</t>
+  </si>
+  <si>
+    <t>34.860</t>
+  </si>
+  <si>
+    <t>10.717</t>
+  </si>
+  <si>
+    <t>8.890</t>
+  </si>
+  <si>
+    <t>2.689</t>
+  </si>
+  <si>
+    <t>59.171</t>
+  </si>
+  <si>
+    <t>36.688</t>
+  </si>
+  <si>
+    <t>10.557</t>
+  </si>
+  <si>
+    <t>9.448</t>
+  </si>
+  <si>
+    <t>2.791</t>
+  </si>
+  <si>
+    <t>61.474</t>
+  </si>
+  <si>
+    <t>36.787</t>
+  </si>
+  <si>
+    <t>10.781</t>
+  </si>
+  <si>
+    <t>2.016</t>
+  </si>
+  <si>
+    <t>8.586</t>
+  </si>
+  <si>
+    <t>3.127</t>
+  </si>
+  <si>
+    <t>61.297</t>
+  </si>
+  <si>
+    <t>37.387</t>
+  </si>
+  <si>
+    <t>3.089</t>
+  </si>
+  <si>
+    <t>62.128</t>
+  </si>
+  <si>
+    <t>37.934</t>
+  </si>
+  <si>
+    <t>10.768</t>
+  </si>
+  <si>
+    <t>2.017</t>
+  </si>
+  <si>
+    <t>8.242</t>
+  </si>
+  <si>
+    <t>2.827</t>
+  </si>
+  <si>
+    <t>61.788</t>
+  </si>
+  <si>
+    <t>36.983</t>
+  </si>
+  <si>
+    <t>11.168</t>
+  </si>
+  <si>
+    <t>9.101</t>
+  </si>
+  <si>
+    <t>2.931</t>
+  </si>
+  <si>
+    <t>62.173</t>
+  </si>
+  <si>
+    <t>38.698</t>
+  </si>
+  <si>
+    <t>11.227</t>
+  </si>
+  <si>
+    <t>8.591</t>
+  </si>
+  <si>
+    <t>2.466</t>
+  </si>
+  <si>
+    <t>62.999</t>
+  </si>
+  <si>
+    <t>38.526</t>
+  </si>
+  <si>
+    <t>10.130</t>
+  </si>
+  <si>
+    <t>9.316</t>
+  </si>
+  <si>
+    <t>2.647</t>
+  </si>
+  <si>
+    <t>62.609</t>
+  </si>
+  <si>
+    <t>38.498</t>
+  </si>
+  <si>
+    <t>10.186</t>
+  </si>
+  <si>
+    <t>9.060</t>
+  </si>
+  <si>
+    <t>3.117</t>
+  </si>
+  <si>
+    <t>62.877</t>
+  </si>
+  <si>
+    <t>35.244</t>
+  </si>
+  <si>
+    <t>9.312</t>
+  </si>
+  <si>
+    <t>7.931</t>
+  </si>
+  <si>
+    <t>3.149</t>
+  </si>
+  <si>
+    <t>57.626</t>
+  </si>
+  <si>
+    <t>34.835</t>
+  </si>
+  <si>
+    <t>9.393</t>
+  </si>
+  <si>
+    <t>7.504</t>
+  </si>
+  <si>
+    <t>3.636</t>
+  </si>
+  <si>
+    <t>57.384</t>
+  </si>
+  <si>
+    <t>28.037</t>
+  </si>
+  <si>
+    <t>9.876</t>
+  </si>
+  <si>
+    <t>8.201</t>
+  </si>
+  <si>
+    <t>3.392</t>
+  </si>
+  <si>
+    <t>51.496</t>
+  </si>
+  <si>
+    <t>27.603</t>
+  </si>
+  <si>
+    <t>9.917</t>
+  </si>
+  <si>
+    <t>7.895</t>
+  </si>
+  <si>
+    <t>3.542</t>
+  </si>
+  <si>
+    <t>50.972</t>
+  </si>
+  <si>
+    <t>37.274</t>
+  </si>
+  <si>
+    <t>10.379</t>
+  </si>
+  <si>
+    <t>8.406</t>
+  </si>
+  <si>
+    <t>3.383</t>
+  </si>
+  <si>
+    <t>61.432</t>
+  </si>
+  <si>
+    <t>38.061</t>
+  </si>
+  <si>
+    <t>10.606</t>
+  </si>
+  <si>
+    <t>7.952</t>
+  </si>
+  <si>
+    <t>2.996</t>
+  </si>
+  <si>
+    <t>61.630</t>
+  </si>
+  <si>
+    <t>38.295</t>
+  </si>
+  <si>
+    <t>10.952</t>
+  </si>
+  <si>
+    <t>8.454</t>
+  </si>
+  <si>
+    <t>3.212</t>
+  </si>
+  <si>
+    <t>62.903</t>
+  </si>
+  <si>
+    <t>39.874</t>
+  </si>
+  <si>
+    <t>11.150</t>
+  </si>
+  <si>
+    <t>2.014</t>
+  </si>
+  <si>
+    <t>7.655</t>
+  </si>
+  <si>
+    <t>2.825</t>
+  </si>
+  <si>
+    <t>63.518</t>
+  </si>
+  <si>
+    <t>39.054</t>
+  </si>
+  <si>
+    <t>11.727</t>
+  </si>
+  <si>
+    <t>8.615</t>
+  </si>
+  <si>
+    <t>2.788</t>
+  </si>
+  <si>
+    <t>64.174</t>
+  </si>
+  <si>
+    <t>40.020</t>
+  </si>
+  <si>
+    <t>11.777</t>
+  </si>
+  <si>
+    <t>8.501</t>
+  </si>
+  <si>
+    <t>1.948</t>
+  </si>
+  <si>
+    <t>64.260</t>
+  </si>
+  <si>
+    <t>39.745</t>
+  </si>
+  <si>
+    <t>11.478</t>
+  </si>
+  <si>
+    <t>8.931</t>
+  </si>
+  <si>
+    <t>2.033</t>
+  </si>
+  <si>
+    <t>64.177</t>
+  </si>
+  <si>
+    <t>39.953</t>
+  </si>
+  <si>
+    <t>11.505</t>
+  </si>
+  <si>
+    <t>2.013</t>
+  </si>
+  <si>
+    <t>8.248</t>
+  </si>
+  <si>
+    <t>2.176</t>
+  </si>
+  <si>
+    <t>63.895</t>
+  </si>
+  <si>
+    <t>41.200</t>
+  </si>
+  <si>
+    <t>9.346</t>
+  </si>
+  <si>
+    <t>9.001</t>
+  </si>
+  <si>
+    <t>1.827</t>
+  </si>
+  <si>
+    <t>63.364</t>
+  </si>
+  <si>
+    <t>40.371</t>
+  </si>
+  <si>
+    <t>9.706</t>
+  </si>
+  <si>
+    <t>8.526</t>
+  </si>
+  <si>
+    <t>1.957</t>
+  </si>
+  <si>
+    <t>62.574</t>
+  </si>
+  <si>
+    <t>33.363</t>
+  </si>
+  <si>
+    <t>9.622</t>
+  </si>
+  <si>
+    <t>9.574</t>
+  </si>
+  <si>
+    <t>2.478</t>
+  </si>
+  <si>
+    <t>57.027</t>
+  </si>
+  <si>
+    <t>32.478</t>
+  </si>
+  <si>
+    <t>10.197</t>
+  </si>
+  <si>
+    <t>2.012</t>
+  </si>
+  <si>
+    <t>8.716</t>
+  </si>
+  <si>
+    <t>3.230</t>
+  </si>
+  <si>
+    <t>56.633</t>
+  </si>
+  <si>
+    <t>27.903</t>
+  </si>
+  <si>
+    <t>9.748</t>
+  </si>
+  <si>
+    <t>8.688</t>
+  </si>
+  <si>
+    <t>3.278</t>
+  </si>
+  <si>
+    <t>51.607</t>
+  </si>
+  <si>
+    <t>27.140</t>
+  </si>
+  <si>
+    <t>9.784</t>
+  </si>
+  <si>
+    <t>7.939</t>
+  </si>
+  <si>
+    <t>3.941</t>
+  </si>
+  <si>
+    <t>50.817</t>
+  </si>
+  <si>
+    <t>38.821</t>
+  </si>
+  <si>
+    <t>9.816</t>
+  </si>
+  <si>
+    <t>8.564</t>
+  </si>
+  <si>
+    <t>3.557</t>
+  </si>
+  <si>
+    <t>62.748</t>
+  </si>
+  <si>
+    <t>37.657</t>
+  </si>
+  <si>
+    <t>9.559</t>
+  </si>
+  <si>
+    <t>7.991</t>
+  </si>
+  <si>
+    <t>3.890</t>
+  </si>
+  <si>
+    <t>61.112</t>
+  </si>
+  <si>
+    <t>38.703</t>
+  </si>
+  <si>
+    <t>9.798</t>
+  </si>
+  <si>
+    <t>8.726</t>
+  </si>
+  <si>
+    <t>3.423</t>
+  </si>
+  <si>
+    <t>62.640</t>
+  </si>
+  <si>
+    <t>40.182</t>
+  </si>
+  <si>
+    <t>9.504</t>
+  </si>
+  <si>
+    <t>8.042</t>
+  </si>
+  <si>
+    <t>2.898</t>
+  </si>
+  <si>
+    <t>37.605</t>
+  </si>
+  <si>
+    <t>10.800</t>
+  </si>
+  <si>
+    <t>8.601</t>
+  </si>
+  <si>
+    <t>2.887</t>
+  </si>
+  <si>
+    <t>61.883</t>
+  </si>
+  <si>
+    <t>38.268</t>
+  </si>
+  <si>
+    <t>10.936</t>
+  </si>
+  <si>
+    <t>8.148</t>
+  </si>
+  <si>
+    <t>3.054</t>
+  </si>
+  <si>
+    <t>62.421</t>
+  </si>
+  <si>
+    <t>37.931</t>
+  </si>
+  <si>
+    <t>11.516</t>
+  </si>
+  <si>
+    <t>8.241</t>
+  </si>
+  <si>
+    <t>3.048</t>
+  </si>
+  <si>
+    <t>62.726</t>
+  </si>
+  <si>
+    <t>37.711</t>
+  </si>
+  <si>
+    <t>11.679</t>
+  </si>
+  <si>
+    <t>7.350</t>
+  </si>
+  <si>
+    <t>3.919</t>
+  </si>
+  <si>
+    <t>62.673</t>
+  </si>
+  <si>
+    <t>36.999</t>
+  </si>
+  <si>
+    <t>11.816</t>
+  </si>
+  <si>
+    <t>8.070</t>
+  </si>
+  <si>
+    <t>3.730</t>
+  </si>
+  <si>
+    <t>62.605</t>
+  </si>
+  <si>
+    <t>37.552</t>
+  </si>
+  <si>
+    <t>11.869</t>
+  </si>
+  <si>
+    <t>7.552</t>
+  </si>
+  <si>
+    <t>3.946</t>
+  </si>
+  <si>
+    <t>62.932</t>
+  </si>
+  <si>
+    <t>32.860</t>
+  </si>
+  <si>
+    <t>10.265</t>
+  </si>
+  <si>
+    <t>8.943</t>
+  </si>
+  <si>
+    <t>3.546</t>
+  </si>
+  <si>
+    <t>57.604</t>
+  </si>
+  <si>
+    <t>33.585</t>
+  </si>
+  <si>
+    <t>10.612</t>
+  </si>
+  <si>
+    <t>8.445</t>
+  </si>
+  <si>
+    <t>3.243</t>
+  </si>
+  <si>
+    <t>57.898</t>
+  </si>
+  <si>
+    <t>29.037</t>
+  </si>
+  <si>
+    <t>9.653</t>
+  </si>
+  <si>
+    <t>8.234</t>
+  </si>
+  <si>
+    <t>3.556</t>
+  </si>
+  <si>
+    <t>52.470</t>
+  </si>
+  <si>
+    <t>29.472</t>
+  </si>
+  <si>
+    <t>9.636</t>
+  </si>
+  <si>
+    <t>7.888</t>
+  </si>
+  <si>
+    <t>3.313</t>
+  </si>
+  <si>
+    <t>52.324</t>
+  </si>
+  <si>
+    <t>35.470</t>
+  </si>
+  <si>
+    <t>11.050</t>
+  </si>
+  <si>
+    <t>8.841</t>
+  </si>
+  <si>
+    <t>2.949</t>
+  </si>
+  <si>
+    <t>60.300</t>
+  </si>
+  <si>
+    <t>37.405</t>
+  </si>
+  <si>
+    <t>11.283</t>
+  </si>
+  <si>
+    <t>2.006</t>
+  </si>
+  <si>
+    <t>8.428</t>
+  </si>
+  <si>
+    <t>2.489</t>
+  </si>
+  <si>
+    <t>61.611</t>
+  </si>
+  <si>
+    <t>37.925</t>
+  </si>
+  <si>
+    <t>11.132</t>
+  </si>
+  <si>
+    <t>1.859</t>
+  </si>
+  <si>
+    <t>9.005</t>
+  </si>
+  <si>
+    <t>2.353</t>
+  </si>
+  <si>
+    <t>62.274</t>
+  </si>
+  <si>
+    <t>37.528</t>
+  </si>
+  <si>
+    <t>1.876</t>
+  </si>
+  <si>
+    <t>8.748</t>
+  </si>
+  <si>
+    <t>2.118</t>
+  </si>
+  <si>
+    <t>61.775</t>
+  </si>
+  <si>
+    <t>36.876</t>
+  </si>
+  <si>
+    <t>11.174</t>
+  </si>
+  <si>
+    <t>8.832</t>
+  </si>
+  <si>
+    <t>3.002</t>
+  </si>
+  <si>
+    <t>61.874</t>
+  </si>
+  <si>
+    <t>35.603</t>
+  </si>
+  <si>
+    <t>11.236</t>
+  </si>
+  <si>
+    <t>7.968</t>
+  </si>
+  <si>
+    <t>3.917</t>
+  </si>
+  <si>
+    <t>60.737</t>
+  </si>
+  <si>
+    <t>30.655</t>
+  </si>
+  <si>
+    <t>9.408</t>
+  </si>
+  <si>
+    <t>8.144</t>
+  </si>
+  <si>
+    <t>3.226</t>
+  </si>
+  <si>
+    <t>53.423</t>
+  </si>
+  <si>
+    <t>31.710</t>
+  </si>
+  <si>
+    <t>10.367</t>
+  </si>
+  <si>
+    <t>6.787</t>
+  </si>
+  <si>
+    <t>3.476</t>
+  </si>
+  <si>
+    <t>54.355</t>
+  </si>
+  <si>
+    <t>33.841</t>
+  </si>
+  <si>
+    <t>11.497</t>
+  </si>
+  <si>
+    <t>8.619</t>
+  </si>
+  <si>
+    <t>3.344</t>
+  </si>
+  <si>
+    <t>59.291</t>
+  </si>
+  <si>
+    <t>34.178</t>
+  </si>
+  <si>
+    <t>11.490</t>
+  </si>
+  <si>
+    <t>7.542</t>
+  </si>
+  <si>
+    <t>2.830</t>
+  </si>
+  <si>
+    <t>58.054</t>
+  </si>
+  <si>
+    <t>33.230</t>
+  </si>
+  <si>
+    <t>10.461</t>
+  </si>
+  <si>
+    <t>7.074</t>
+  </si>
+  <si>
+    <t>3.148</t>
+  </si>
+  <si>
+    <t>55.903</t>
+  </si>
+  <si>
+    <t>31.547</t>
+  </si>
+  <si>
+    <t>10.585</t>
+  </si>
+  <si>
+    <t>6.810</t>
+  </si>
+  <si>
+    <t>3.778</t>
+  </si>
+  <si>
+    <t>54.734</t>
+  </si>
+  <si>
+    <t>28.067</t>
+  </si>
+  <si>
+    <t>8.467</t>
+  </si>
+  <si>
+    <t>7.362</t>
+  </si>
+  <si>
+    <t>3.522</t>
+  </si>
+  <si>
+    <t>49.408</t>
+  </si>
+  <si>
+    <t>30.039</t>
+  </si>
+  <si>
+    <t>8.052</t>
+  </si>
+  <si>
+    <t>6.809</t>
+  </si>
+  <si>
+    <t>3.576</t>
+  </si>
+  <si>
+    <t>50.490</t>
+  </si>
+  <si>
+    <t>36.541</t>
+  </si>
+  <si>
+    <t>11.318</t>
+  </si>
+  <si>
+    <t>8.632</t>
+  </si>
+  <si>
+    <t>3.200</t>
+  </si>
+  <si>
+    <t>61.681</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>61.044</t>
+  </si>
+  <si>
+    <t>37.979</t>
+  </si>
+  <si>
+    <t>11.361</t>
+  </si>
+  <si>
+    <t>7.914</t>
+  </si>
+  <si>
+    <t>2.493</t>
+  </si>
+  <si>
+    <t>61.762</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>61.119</t>
+  </si>
+  <si>
+    <t>37.959</t>
+  </si>
+  <si>
+    <t>11.573</t>
+  </si>
+  <si>
+    <t>9.127</t>
+  </si>
+  <si>
+    <t>2.923</t>
+  </si>
+  <si>
+    <t>63.572</t>
+  </si>
+  <si>
+    <t>1.046</t>
+  </si>
+  <si>
+    <t>62.526</t>
+  </si>
+  <si>
+    <t>38.194</t>
+  </si>
+  <si>
+    <t>11.620</t>
+  </si>
+  <si>
+    <t>8.872</t>
+  </si>
+  <si>
+    <t>3.083</t>
+  </si>
+  <si>
+    <t>63.785</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>62.823</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,51 +1251,43 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -612,46 +1575,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="11" width="16.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="14.140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="11" width="16.5703125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="11" width="14.140625"/>
+    <col customWidth="1" max="13" min="13" style="11" width="12.140625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18"/>
+    <row r="2" spans="1:18"/>
+    <row customHeight="1" ht="16.5" r="3" s="11" spans="1:18">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="10" t="n"/>
+      <c r="M3" s="10" t="n"/>
+      <c r="N3" s="10" t="n"/>
+      <c r="O3" s="10" t="n"/>
+      <c r="P3" s="10" t="n"/>
+      <c r="Q3" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="11" spans="1:18">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -704,1655 +1673,4730 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>27136</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>9579</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>9112</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="n">
         <v>2559</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>50376</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="n">
         <v>50376</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="1" t="n">
         <v>26056</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="n">
         <v>9424</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="1" t="n">
         <v>9105</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="1" t="n">
         <v>48578</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="1" t="n">
         <v>48578</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>35691</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="n">
         <v>10589</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="n">
         <v>8859</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="n">
         <v>2523</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="n">
         <v>59652</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="n">
         <v>59652</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1" t="n">
         <v>34860</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="1" t="n">
         <v>10717</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="1" t="n">
         <v>8890</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="1" t="n">
         <v>2689</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="1" t="n">
         <v>59171</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="1" t="n">
         <v>59171</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>36688</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>10557</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="n">
         <v>9448</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="n">
         <v>2791</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="n">
         <v>61474</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="n">
         <v>61474</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="1" t="n">
         <v>36787</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="n">
         <v>10781</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="n">
         <v>8586</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="1" t="n">
         <v>3127</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="1" t="n">
         <v>61297</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="1" t="n">
         <v>61297</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>37387</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>10557</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>9105</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="n">
         <v>3089</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="n">
         <v>62128</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="n">
         <v>62128</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="1" t="n">
         <v>37934</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="n">
         <v>10768</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="n">
         <v>8242</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="n">
         <v>2827</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="1" t="n">
         <v>61788</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="1" t="n">
         <v>61788</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="n">
         <v>36983</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>11168</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="n">
         <v>9101</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="n">
         <v>2931</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="n">
         <v>62173</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="n">
         <v>62173</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="1" t="n">
         <v>38698</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="n">
         <v>11227</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="1" t="n">
         <v>8591</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="n">
         <v>2466</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="1" t="n">
         <v>62999</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="1" t="n">
         <v>62999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>38526</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>10130</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="n">
         <v>9316</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="n">
         <v>2647</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="n">
         <v>62609</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="n">
         <v>62609</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="1" t="n">
         <v>38498</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="1" t="n">
         <v>10186</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="1" t="n">
         <v>9060</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="n">
         <v>3117</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="1" t="n">
         <v>62877</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="1" t="n">
         <v>62877</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>35244</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>9312</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="n">
         <v>7931</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="n">
         <v>3149</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="n">
         <v>57626</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="n">
         <v>57626</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="1" t="n">
         <v>34835</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="1" t="n">
         <v>9393</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="1" t="n">
         <v>7504</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="1" t="n">
         <v>3636</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="1" t="n">
         <v>57384</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="1" t="n">
         <v>57384</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>28037</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>9876</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="n">
         <v>8201</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="n">
         <v>3392</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="n">
         <v>51496</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="n">
         <v>51496</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="1" t="n">
         <v>27603</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="1" t="n">
         <v>9917</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="1" t="n">
         <v>7895</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="1" t="n">
         <v>3542</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="1" t="n">
         <v>50972</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="1" t="n">
         <v>50972</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>37274</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>10379</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="n">
         <v>8406</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="n">
         <v>3383</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="n">
         <v>61432</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="1" t="n">
         <v>61432</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="1" t="n">
         <v>38061</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="1" t="n">
         <v>10606</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="1" t="n">
         <v>7952</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="n">
         <v>2996</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="1" t="n">
         <v>61630</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="1" t="n">
         <v>61630</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="n">
         <v>38295</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="n">
         <v>10952</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1" t="n">
         <v>8454</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="n">
         <v>3212</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="n">
         <v>62903</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="n">
         <v>62903</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="1" t="n">
         <v>39874</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="1" t="n">
         <v>11150</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="1" t="n">
         <v>7655</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="n">
         <v>2825</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="1" t="n">
         <v>63518</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="1" t="n">
         <v>63518</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="n">
         <v>39054</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="n">
         <v>11727</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1" t="n">
         <v>8615</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="n">
         <v>2788</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="n">
         <v>64174</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="n">
         <v>64174</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="1" t="n">
         <v>40020</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="1" t="n">
         <v>11777</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="1" t="n">
         <v>8501</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="1" t="n">
         <v>64260</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="1" t="n">
         <v>64260</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="n">
         <v>39745</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="n">
         <v>11478</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1" t="n">
         <v>8931</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="n">
         <v>2033</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="n">
         <v>64177</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="n">
         <v>64177</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="1" t="n">
         <v>39953</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="1" t="n">
         <v>11505</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="1" t="n">
         <v>8248</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="n">
         <v>2176</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="1" t="n">
         <v>63895</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="1" t="n">
         <v>63895</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="n">
         <v>41200</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="n">
         <v>9346</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="1" t="n">
         <v>9001</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="n">
         <v>1827</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="n">
         <v>63364</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="1" t="n">
         <v>63364</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="1" t="n">
         <v>40371</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="1" t="n">
         <v>9706</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="1" t="n">
         <v>8526</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="1" t="n">
         <v>62574</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="1" t="n">
         <v>62574</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="n">
         <v>33363</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="n">
         <v>9622</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="1" t="n">
         <v>9574</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="n">
         <v>2478</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="n">
         <v>57027</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1" t="n">
         <v>57027</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="1" t="n">
         <v>32478</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="1" t="n">
         <v>10197</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="1" t="n">
         <v>8716</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="n">
         <v>3230</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="1" t="n">
         <v>56633</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="1" t="n">
         <v>56633</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="n">
         <v>27903</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="n">
         <v>9748</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="1" t="n">
         <v>8688</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="n">
         <v>3278</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="n">
         <v>51607</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="1" t="n">
         <v>51607</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="1" t="n">
         <v>27140</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="1" t="n">
         <v>9784</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="1" t="n">
         <v>7939</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="n">
         <v>3941</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="1" t="n">
         <v>50817</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="1" t="n">
         <v>50817</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="n">
         <v>38821</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="n">
         <v>9816</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="1" t="n">
         <v>8564</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="n">
         <v>3557</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="n">
         <v>62748</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="1" t="n">
         <v>62748</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="1" t="n">
         <v>37657</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="1" t="n">
         <v>9559</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="1" t="n">
         <v>7991</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="n">
         <v>3890</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="1" t="n">
         <v>61112</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="1" t="n">
         <v>61112</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>38703</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="n">
         <v>9798</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="1" t="n">
         <v>8726</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="n">
         <v>3423</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1" t="n">
         <v>62640</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="1" t="n">
         <v>62640</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="1" t="n">
         <v>40182</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="1" t="n">
         <v>9504</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="1" t="n">
         <v>8042</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="n">
         <v>2898</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="1" t="n">
         <v>62640</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="1" t="n">
         <v>62640</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="n">
         <v>37605</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="n">
         <v>10800</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="1" t="n">
         <v>8601</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="n">
         <v>2887</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="n">
         <v>61883</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="1" t="n">
         <v>61883</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="1" t="n">
         <v>38268</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="1" t="n">
         <v>10936</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="1" t="n">
         <v>8148</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="n">
         <v>3054</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="n">
         <v>62421</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="1" t="n">
         <v>62421</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="n">
         <v>37931</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="n">
         <v>11516</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="1" t="n">
         <v>8241</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="1" t="n">
         <v>3048</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="n">
         <v>62726</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="1" t="n">
         <v>62726</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="1" t="n">
         <v>37711</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="1" t="n">
         <v>11679</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="1" t="n">
         <v>7350</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="n">
         <v>3919</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="n">
         <v>62673</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="1" t="n">
         <v>62673</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>36999</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="n">
         <v>11816</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="1" t="n">
         <v>8070</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="1" t="n">
         <v>3730</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="1" t="n">
         <v>62605</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="1" t="n">
         <v>62605</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="1" t="n">
         <v>37552</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="1" t="n">
         <v>11869</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="1" t="n">
         <v>7552</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="n">
         <v>3946</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="1" t="n">
         <v>62932</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="1" t="n">
         <v>62932</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>32860</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="n">
         <v>10265</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="1" t="n">
         <v>8943</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="1" t="n">
         <v>3546</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="n">
         <v>57604</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="1" t="n">
         <v>57604</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="1" t="n">
         <v>33585</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="1" t="n">
         <v>10612</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="1" t="n">
         <v>8445</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="1" t="n">
         <v>3243</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="1" t="n">
         <v>57898</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="1" t="n">
         <v>57898</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="n">
         <v>29037</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="n">
         <v>9653</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="1" t="n">
         <v>8234</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="n">
         <v>3556</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="n">
         <v>52470</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="1" t="n">
         <v>52470</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="1" t="n">
         <v>29472</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="1" t="n">
         <v>9636</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="1" t="n">
         <v>7888</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="1" t="n">
         <v>3313</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="1" t="n">
         <v>52324</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="1" t="n">
         <v>52324</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="n">
         <v>35470</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="n">
         <v>11050</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="1" t="n">
         <v>8841</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="1" t="n">
         <v>2949</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="n">
         <v>60300</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="1" t="n">
         <v>60300</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="1" t="n">
         <v>37405</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="1" t="n">
         <v>11283</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="1" t="n">
         <v>8428</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="1" t="n">
         <v>2489</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="1" t="n">
         <v>61611</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="1" t="n">
         <v>61611</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>37925</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="n">
         <v>11132</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="n">
         <v>1859</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="n">
         <v>9005</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="1" t="n">
         <v>2353</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="1" t="n">
         <v>62274</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="1" t="n">
         <v>62274</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="1" t="n">
         <v>37528</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="1" t="n">
         <v>11505</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="1" t="n">
         <v>1876</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="1" t="n">
         <v>8748</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="n">
         <v>2118</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="1" t="n">
         <v>61775</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" t="n">
         <v>0</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="1" t="n">
         <v>61775</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
         <v>36876</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="n">
         <v>11174</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="n">
         <v>8832</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="n">
         <v>3002</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="n">
         <v>61874</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="1" t="n">
         <v>61874</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="1" t="n">
         <v>35603</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="1" t="n">
         <v>11236</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="1" t="n">
         <v>7968</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="1" t="n">
         <v>3917</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="1" t="n">
         <v>60737</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="1" t="n">
         <v>60737</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="n">
         <v>30655</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="n">
         <v>9408</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="1" t="n">
         <v>8144</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="1" t="n">
         <v>3226</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="1" t="n">
         <v>53423</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="1" t="n">
         <v>53423</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="1" t="n">
         <v>31710</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="1" t="n">
         <v>10367</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="1" t="n">
         <v>6787</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="1" t="n">
         <v>3476</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="1" t="n">
         <v>54355</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="1" t="n">
         <v>54355</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="n">
         <v>33841</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="n">
         <v>11497</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="n">
         <v>8619</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="n">
         <v>3344</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="1" t="n">
         <v>59291</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="1" t="n">
         <v>59291</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="1" t="n">
         <v>34178</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="1" t="n">
         <v>11490</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="1" t="n">
         <v>7542</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="1" t="n">
         <v>2830</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="1" t="n">
         <v>58054</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="1" t="n">
         <v>58054</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="n">
         <v>33230</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="n">
         <v>10461</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="1" t="n">
         <v>7074</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="1" t="n">
         <v>3148</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="1" t="n">
         <v>55903</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="1" t="n">
         <v>55903</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="1" t="n">
         <v>31547</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="1" t="n">
         <v>10585</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="1" t="n">
         <v>6810</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="1" t="n">
         <v>3778</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="1" t="n">
         <v>54734</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" t="n">
         <v>0</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="1" t="n">
         <v>54734</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="n">
         <v>28067</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="n">
         <v>8467</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="1" t="n">
         <v>7362</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="1" t="n">
         <v>3522</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="1" t="n">
         <v>49408</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="1" t="n">
         <v>49408</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="1" t="n">
         <v>30039</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="1" t="n">
         <v>8052</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="1" t="n">
         <v>6809</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="1" t="n">
         <v>3576</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="1" t="n">
         <v>50490</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="1" t="n">
         <v>50490</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="n">
         <v>36541</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="n">
         <v>11318</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="1" t="n">
         <v>8632</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="1" t="n">
         <v>3200</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="1" t="n">
         <v>61681</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" t="n">
         <v>638</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="1" t="n">
         <v>61044</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="1" t="n">
         <v>37979</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="1" t="n">
         <v>11361</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="1" t="n">
         <v>7914</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="1" t="n">
         <v>2493</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="1" t="n">
         <v>61762</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" t="n">
         <v>643</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="1" t="n">
         <v>61119</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="n">
         <v>37959</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="n">
         <v>11573</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="1" t="n">
         <v>9127</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="1" t="n">
         <v>2923</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="1" t="n">
         <v>63572</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="1" t="n">
         <v>1046</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="1" t="n">
         <v>62526</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="1" t="n">
         <v>38194</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="1" t="n">
         <v>11620</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="1" t="n">
         <v>8872</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="1" t="n">
         <v>3083</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="1" t="n">
         <v>63785</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" t="n">
         <v>962</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="1" t="n">
         <v>62823</v>
       </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" t="s">
+        <v>64</v>
+      </c>
+      <c r="P37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N39" t="s">
+        <v>83</v>
+      </c>
+      <c r="O39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" t="s">
+        <v>92</v>
+      </c>
+      <c r="N40" t="s">
+        <v>93</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" t="s">
+        <v>104</v>
+      </c>
+      <c r="P41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" t="s">
+        <v>112</v>
+      </c>
+      <c r="N42" t="s">
+        <v>113</v>
+      </c>
+      <c r="O42" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" t="s">
+        <v>123</v>
+      </c>
+      <c r="O43" t="s">
+        <v>124</v>
+      </c>
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" t="s">
+        <v>131</v>
+      </c>
+      <c r="L44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" t="s">
+        <v>140</v>
+      </c>
+      <c r="K45" t="s">
+        <v>141</v>
+      </c>
+      <c r="L45" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" t="s">
+        <v>143</v>
+      </c>
+      <c r="N45" t="s">
+        <v>144</v>
+      </c>
+      <c r="O45" t="s">
+        <v>145</v>
+      </c>
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K46" t="s">
+        <v>152</v>
+      </c>
+      <c r="L46" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" t="s">
+        <v>153</v>
+      </c>
+      <c r="N46" t="s">
+        <v>154</v>
+      </c>
+      <c r="O46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" t="s">
+        <v>162</v>
+      </c>
+      <c r="L47" t="s">
+        <v>163</v>
+      </c>
+      <c r="M47" t="s">
+        <v>164</v>
+      </c>
+      <c r="N47" t="s">
+        <v>165</v>
+      </c>
+      <c r="O47" t="s">
+        <v>166</v>
+      </c>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" t="s">
+        <v>171</v>
+      </c>
+      <c r="J48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" t="s">
+        <v>174</v>
+      </c>
+      <c r="N48" t="s">
+        <v>175</v>
+      </c>
+      <c r="O48" t="s">
+        <v>176</v>
+      </c>
+      <c r="P48" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" t="s">
+        <v>182</v>
+      </c>
+      <c r="K49" t="s">
+        <v>183</v>
+      </c>
+      <c r="L49" t="s">
+        <v>184</v>
+      </c>
+      <c r="M49" t="s">
+        <v>185</v>
+      </c>
+      <c r="N49" t="s">
+        <v>186</v>
+      </c>
+      <c r="O49" t="s">
+        <v>187</v>
+      </c>
+      <c r="P49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>192</v>
+      </c>
+      <c r="J50" t="s">
+        <v>193</v>
+      </c>
+      <c r="K50" t="s">
+        <v>194</v>
+      </c>
+      <c r="L50" t="s">
+        <v>163</v>
+      </c>
+      <c r="M50" t="s">
+        <v>195</v>
+      </c>
+      <c r="N50" t="s">
+        <v>196</v>
+      </c>
+      <c r="O50" t="s">
+        <v>197</v>
+      </c>
+      <c r="P50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" t="s">
+        <v>202</v>
+      </c>
+      <c r="J51" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" t="s">
+        <v>204</v>
+      </c>
+      <c r="L51" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" t="s">
+        <v>205</v>
+      </c>
+      <c r="N51" t="s">
+        <v>206</v>
+      </c>
+      <c r="O51" t="s">
+        <v>207</v>
+      </c>
+      <c r="P51" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" t="s">
+        <v>212</v>
+      </c>
+      <c r="H52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" t="s">
+        <v>212</v>
+      </c>
+      <c r="J52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
+      <c r="L52" t="s">
+        <v>142</v>
+      </c>
+      <c r="M52" t="s">
+        <v>215</v>
+      </c>
+      <c r="N52" t="s">
+        <v>216</v>
+      </c>
+      <c r="O52" t="s">
+        <v>212</v>
+      </c>
+      <c r="P52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" t="s">
+        <v>222</v>
+      </c>
+      <c r="K53" t="s">
+        <v>223</v>
+      </c>
+      <c r="L53" t="s">
+        <v>51</v>
+      </c>
+      <c r="M53" t="s">
+        <v>224</v>
+      </c>
+      <c r="N53" t="s">
+        <v>225</v>
+      </c>
+      <c r="O53" t="s">
+        <v>226</v>
+      </c>
+      <c r="P53" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" t="s">
+        <v>232</v>
+      </c>
+      <c r="K54" t="s">
+        <v>233</v>
+      </c>
+      <c r="L54" t="s">
+        <v>142</v>
+      </c>
+      <c r="M54" t="s">
+        <v>234</v>
+      </c>
+      <c r="N54" t="s">
+        <v>235</v>
+      </c>
+      <c r="O54" t="s">
+        <v>236</v>
+      </c>
+      <c r="P54" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s">
+        <v>241</v>
+      </c>
+      <c r="J55" t="s">
+        <v>242</v>
+      </c>
+      <c r="K55" t="s">
+        <v>243</v>
+      </c>
+      <c r="L55" t="s">
+        <v>163</v>
+      </c>
+      <c r="M55" t="s">
+        <v>244</v>
+      </c>
+      <c r="N55" t="s">
+        <v>245</v>
+      </c>
+      <c r="O55" t="s">
+        <v>246</v>
+      </c>
+      <c r="P55" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
+        <v>251</v>
+      </c>
+      <c r="J56" t="s">
+        <v>252</v>
+      </c>
+      <c r="K56" t="s">
+        <v>253</v>
+      </c>
+      <c r="L56" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" t="s">
+        <v>254</v>
+      </c>
+      <c r="N56" t="s">
+        <v>255</v>
+      </c>
+      <c r="O56" t="s">
+        <v>256</v>
+      </c>
+      <c r="P56" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G57" t="s">
+        <v>261</v>
+      </c>
+      <c r="H57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" t="s">
+        <v>261</v>
+      </c>
+      <c r="J57" t="s">
+        <v>262</v>
+      </c>
+      <c r="K57" t="s">
+        <v>263</v>
+      </c>
+      <c r="L57" t="s">
+        <v>51</v>
+      </c>
+      <c r="M57" t="s">
+        <v>264</v>
+      </c>
+      <c r="N57" t="s">
+        <v>265</v>
+      </c>
+      <c r="O57" t="s">
+        <v>266</v>
+      </c>
+      <c r="P57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>271</v>
+      </c>
+      <c r="J58" t="s">
+        <v>272</v>
+      </c>
+      <c r="K58" t="s">
+        <v>273</v>
+      </c>
+      <c r="L58" t="s">
+        <v>274</v>
+      </c>
+      <c r="M58" t="s">
+        <v>275</v>
+      </c>
+      <c r="N58" t="s">
+        <v>276</v>
+      </c>
+      <c r="O58" t="s">
+        <v>277</v>
+      </c>
+      <c r="P58" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59" t="s">
+        <v>282</v>
+      </c>
+      <c r="G59" t="s">
+        <v>283</v>
+      </c>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" t="s">
+        <v>283</v>
+      </c>
+      <c r="J59" t="s">
+        <v>284</v>
+      </c>
+      <c r="K59" t="s">
+        <v>162</v>
+      </c>
+      <c r="L59" t="s">
+        <v>285</v>
+      </c>
+      <c r="M59" t="s">
+        <v>286</v>
+      </c>
+      <c r="N59" t="s">
+        <v>287</v>
+      </c>
+      <c r="O59" t="s">
+        <v>288</v>
+      </c>
+      <c r="P59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G60" t="s">
+        <v>293</v>
+      </c>
+      <c r="H60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" t="s">
+        <v>293</v>
+      </c>
+      <c r="J60" t="s">
+        <v>294</v>
+      </c>
+      <c r="K60" t="s">
+        <v>295</v>
+      </c>
+      <c r="L60" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" t="s">
+        <v>296</v>
+      </c>
+      <c r="N60" t="s">
+        <v>297</v>
+      </c>
+      <c r="O60" t="s">
+        <v>298</v>
+      </c>
+      <c r="P60" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" t="s">
+        <v>51</v>
+      </c>
+      <c r="M61" t="s">
+        <v>52</v>
+      </c>
+      <c r="N61" t="s">
+        <v>53</v>
+      </c>
+      <c r="O61" t="s">
+        <v>54</v>
+      </c>
+      <c r="P61" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" t="s">
+        <v>51</v>
+      </c>
+      <c r="M62" t="s">
+        <v>62</v>
+      </c>
+      <c r="N62" t="s">
+        <v>63</v>
+      </c>
+      <c r="O62" t="s">
+        <v>64</v>
+      </c>
+      <c r="P62" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" t="s">
+        <v>51</v>
+      </c>
+      <c r="M63" t="s">
+        <v>52</v>
+      </c>
+      <c r="N63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O63" t="s">
+        <v>54</v>
+      </c>
+      <c r="P63" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" t="s">
+        <v>60</v>
+      </c>
+      <c r="K64" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" t="s">
+        <v>51</v>
+      </c>
+      <c r="M64" t="s">
+        <v>62</v>
+      </c>
+      <c r="N64" t="s">
+        <v>63</v>
+      </c>
+      <c r="O64" t="s">
+        <v>64</v>
+      </c>
+      <c r="P64" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s">
+        <v>69</v>
+      </c>
+      <c r="J65" t="s">
+        <v>70</v>
+      </c>
+      <c r="K65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" t="s">
+        <v>72</v>
+      </c>
+      <c r="M65" t="s">
+        <v>73</v>
+      </c>
+      <c r="N65" t="s">
+        <v>74</v>
+      </c>
+      <c r="O65" t="s">
+        <v>75</v>
+      </c>
+      <c r="P65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s">
+        <v>79</v>
+      </c>
+      <c r="K66" t="s">
+        <v>80</v>
+      </c>
+      <c r="L66" t="s">
+        <v>81</v>
+      </c>
+      <c r="M66" t="s">
+        <v>82</v>
+      </c>
+      <c r="N66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O66" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" t="s">
+        <v>48</v>
+      </c>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J67" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" t="s">
+        <v>81</v>
+      </c>
+      <c r="M67" t="s">
+        <v>92</v>
+      </c>
+      <c r="N67" t="s">
+        <v>93</v>
+      </c>
+      <c r="O67" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+      <c r="K68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L68" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" t="s">
+        <v>102</v>
+      </c>
+      <c r="N68" t="s">
+        <v>103</v>
+      </c>
+      <c r="O68" t="s">
+        <v>104</v>
+      </c>
+      <c r="P68" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s">
+        <v>109</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+      <c r="K69" t="s">
+        <v>111</v>
+      </c>
+      <c r="L69" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" t="s">
+        <v>112</v>
+      </c>
+      <c r="N69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O69" t="s">
+        <v>114</v>
+      </c>
+      <c r="P69" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L70" t="s">
+        <v>51</v>
+      </c>
+      <c r="M70" t="s">
+        <v>122</v>
+      </c>
+      <c r="N70" t="s">
+        <v>123</v>
+      </c>
+      <c r="O70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P70" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" t="s">
+        <v>129</v>
+      </c>
+      <c r="H71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" t="s">
+        <v>129</v>
+      </c>
+      <c r="J71" t="s">
+        <v>130</v>
+      </c>
+      <c r="K71" t="s">
+        <v>131</v>
+      </c>
+      <c r="L71" t="s">
+        <v>51</v>
+      </c>
+      <c r="M71" t="s">
+        <v>132</v>
+      </c>
+      <c r="N71" t="s">
+        <v>133</v>
+      </c>
+      <c r="O71" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" t="s">
+        <v>139</v>
+      </c>
+      <c r="J72" t="s">
+        <v>140</v>
+      </c>
+      <c r="K72" t="s">
+        <v>141</v>
+      </c>
+      <c r="L72" t="s">
+        <v>142</v>
+      </c>
+      <c r="M72" t="s">
+        <v>143</v>
+      </c>
+      <c r="N72" t="s">
+        <v>144</v>
+      </c>
+      <c r="O72" t="s">
+        <v>145</v>
+      </c>
+      <c r="P72" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s">
+        <v>150</v>
+      </c>
+      <c r="J73" t="s">
+        <v>151</v>
+      </c>
+      <c r="K73" t="s">
+        <v>152</v>
+      </c>
+      <c r="L73" t="s">
+        <v>142</v>
+      </c>
+      <c r="M73" t="s">
+        <v>153</v>
+      </c>
+      <c r="N73" t="s">
+        <v>154</v>
+      </c>
+      <c r="O73" t="s">
+        <v>155</v>
+      </c>
+      <c r="P73" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" t="s">
+        <v>159</v>
+      </c>
+      <c r="G74" t="s">
+        <v>160</v>
+      </c>
+      <c r="H74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" t="s">
+        <v>160</v>
+      </c>
+      <c r="J74" t="s">
+        <v>161</v>
+      </c>
+      <c r="K74" t="s">
+        <v>162</v>
+      </c>
+      <c r="L74" t="s">
+        <v>163</v>
+      </c>
+      <c r="M74" t="s">
+        <v>164</v>
+      </c>
+      <c r="N74" t="s">
+        <v>165</v>
+      </c>
+      <c r="O74" t="s">
+        <v>166</v>
+      </c>
+      <c r="P74" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75" t="s">
+        <v>171</v>
+      </c>
+      <c r="J75" t="s">
+        <v>172</v>
+      </c>
+      <c r="K75" t="s">
+        <v>173</v>
+      </c>
+      <c r="L75" t="s">
+        <v>142</v>
+      </c>
+      <c r="M75" t="s">
+        <v>174</v>
+      </c>
+      <c r="N75" t="s">
+        <v>175</v>
+      </c>
+      <c r="O75" t="s">
+        <v>176</v>
+      </c>
+      <c r="P75" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" t="s">
+        <v>180</v>
+      </c>
+      <c r="G76" t="s">
+        <v>181</v>
+      </c>
+      <c r="H76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J76" t="s">
+        <v>182</v>
+      </c>
+      <c r="K76" t="s">
+        <v>183</v>
+      </c>
+      <c r="L76" t="s">
+        <v>184</v>
+      </c>
+      <c r="M76" t="s">
+        <v>185</v>
+      </c>
+      <c r="N76" t="s">
+        <v>186</v>
+      </c>
+      <c r="O76" t="s">
+        <v>187</v>
+      </c>
+      <c r="P76" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" t="s">
+        <v>192</v>
+      </c>
+      <c r="J77" t="s">
+        <v>193</v>
+      </c>
+      <c r="K77" t="s">
+        <v>194</v>
+      </c>
+      <c r="L77" t="s">
+        <v>163</v>
+      </c>
+      <c r="M77" t="s">
+        <v>195</v>
+      </c>
+      <c r="N77" t="s">
+        <v>196</v>
+      </c>
+      <c r="O77" t="s">
+        <v>197</v>
+      </c>
+      <c r="P77" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" t="s">
+        <v>202</v>
+      </c>
+      <c r="J78" t="s">
+        <v>203</v>
+      </c>
+      <c r="K78" t="s">
+        <v>204</v>
+      </c>
+      <c r="L78" t="s">
+        <v>51</v>
+      </c>
+      <c r="M78" t="s">
+        <v>205</v>
+      </c>
+      <c r="N78" t="s">
+        <v>206</v>
+      </c>
+      <c r="O78" t="s">
+        <v>207</v>
+      </c>
+      <c r="P78" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" t="s">
+        <v>212</v>
+      </c>
+      <c r="J79" t="s">
+        <v>213</v>
+      </c>
+      <c r="K79" t="s">
+        <v>214</v>
+      </c>
+      <c r="L79" t="s">
+        <v>142</v>
+      </c>
+      <c r="M79" t="s">
+        <v>215</v>
+      </c>
+      <c r="N79" t="s">
+        <v>216</v>
+      </c>
+      <c r="O79" t="s">
+        <v>212</v>
+      </c>
+      <c r="P79" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" t="s">
+        <v>220</v>
+      </c>
+      <c r="G80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s">
+        <v>221</v>
+      </c>
+      <c r="J80" t="s">
+        <v>222</v>
+      </c>
+      <c r="K80" t="s">
+        <v>223</v>
+      </c>
+      <c r="L80" t="s">
+        <v>51</v>
+      </c>
+      <c r="M80" t="s">
+        <v>224</v>
+      </c>
+      <c r="N80" t="s">
+        <v>225</v>
+      </c>
+      <c r="O80" t="s">
+        <v>226</v>
+      </c>
+      <c r="P80" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" t="s">
+        <v>230</v>
+      </c>
+      <c r="G81" t="s">
+        <v>231</v>
+      </c>
+      <c r="H81" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" t="s">
+        <v>231</v>
+      </c>
+      <c r="J81" t="s">
+        <v>232</v>
+      </c>
+      <c r="K81" t="s">
+        <v>233</v>
+      </c>
+      <c r="L81" t="s">
+        <v>142</v>
+      </c>
+      <c r="M81" t="s">
+        <v>234</v>
+      </c>
+      <c r="N81" t="s">
+        <v>235</v>
+      </c>
+      <c r="O81" t="s">
+        <v>236</v>
+      </c>
+      <c r="P81" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>239</v>
+      </c>
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" t="s">
+        <v>241</v>
+      </c>
+      <c r="H82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" t="s">
+        <v>241</v>
+      </c>
+      <c r="J82" t="s">
+        <v>242</v>
+      </c>
+      <c r="K82" t="s">
+        <v>243</v>
+      </c>
+      <c r="L82" t="s">
+        <v>163</v>
+      </c>
+      <c r="M82" t="s">
+        <v>244</v>
+      </c>
+      <c r="N82" t="s">
+        <v>245</v>
+      </c>
+      <c r="O82" t="s">
+        <v>246</v>
+      </c>
+      <c r="P82" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>249</v>
+      </c>
+      <c r="F83" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" t="s">
+        <v>251</v>
+      </c>
+      <c r="H83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" t="s">
+        <v>251</v>
+      </c>
+      <c r="J83" t="s">
+        <v>252</v>
+      </c>
+      <c r="K83" t="s">
+        <v>253</v>
+      </c>
+      <c r="L83" t="s">
+        <v>163</v>
+      </c>
+      <c r="M83" t="s">
+        <v>254</v>
+      </c>
+      <c r="N83" t="s">
+        <v>255</v>
+      </c>
+      <c r="O83" t="s">
+        <v>256</v>
+      </c>
+      <c r="P83" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" t="s">
+        <v>261</v>
+      </c>
+      <c r="H84" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" t="s">
+        <v>261</v>
+      </c>
+      <c r="J84" t="s">
+        <v>262</v>
+      </c>
+      <c r="K84" t="s">
+        <v>263</v>
+      </c>
+      <c r="L84" t="s">
+        <v>51</v>
+      </c>
+      <c r="M84" t="s">
+        <v>264</v>
+      </c>
+      <c r="N84" t="s">
+        <v>265</v>
+      </c>
+      <c r="O84" t="s">
+        <v>266</v>
+      </c>
+      <c r="P84" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" t="s">
+        <v>269</v>
+      </c>
+      <c r="F85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G85" t="s">
+        <v>271</v>
+      </c>
+      <c r="H85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" t="s">
+        <v>271</v>
+      </c>
+      <c r="J85" t="s">
+        <v>272</v>
+      </c>
+      <c r="K85" t="s">
+        <v>273</v>
+      </c>
+      <c r="L85" t="s">
+        <v>274</v>
+      </c>
+      <c r="M85" t="s">
+        <v>275</v>
+      </c>
+      <c r="N85" t="s">
+        <v>276</v>
+      </c>
+      <c r="O85" t="s">
+        <v>277</v>
+      </c>
+      <c r="P85" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" t="s">
+        <v>281</v>
+      </c>
+      <c r="F86" t="s">
+        <v>282</v>
+      </c>
+      <c r="G86" t="s">
+        <v>283</v>
+      </c>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" t="s">
+        <v>283</v>
+      </c>
+      <c r="J86" t="s">
+        <v>284</v>
+      </c>
+      <c r="K86" t="s">
+        <v>162</v>
+      </c>
+      <c r="L86" t="s">
+        <v>285</v>
+      </c>
+      <c r="M86" t="s">
+        <v>286</v>
+      </c>
+      <c r="N86" t="s">
+        <v>287</v>
+      </c>
+      <c r="O86" t="s">
+        <v>288</v>
+      </c>
+      <c r="P86" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" t="s">
+        <v>290</v>
+      </c>
+      <c r="D87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H87" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" t="s">
+        <v>293</v>
+      </c>
+      <c r="J87" t="s">
+        <v>294</v>
+      </c>
+      <c r="K87" t="s">
+        <v>295</v>
+      </c>
+      <c r="L87" t="s">
+        <v>163</v>
+      </c>
+      <c r="M87" t="s">
+        <v>296</v>
+      </c>
+      <c r="N87" t="s">
+        <v>297</v>
+      </c>
+      <c r="O87" t="s">
+        <v>298</v>
+      </c>
+      <c r="P87" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" t="s">
+        <v>302</v>
+      </c>
+      <c r="G88" t="s">
+        <v>303</v>
+      </c>
+      <c r="H88" t="s">
+        <v>48</v>
+      </c>
+      <c r="I88" t="s">
+        <v>303</v>
+      </c>
+      <c r="J88" t="s">
+        <v>304</v>
+      </c>
+      <c r="K88" t="s">
+        <v>305</v>
+      </c>
+      <c r="L88" t="s">
+        <v>51</v>
+      </c>
+      <c r="M88" t="s">
+        <v>306</v>
+      </c>
+      <c r="N88" t="s">
+        <v>307</v>
+      </c>
+      <c r="O88" t="s">
+        <v>308</v>
+      </c>
+      <c r="P88" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" t="s">
+        <v>310</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s">
+        <v>311</v>
+      </c>
+      <c r="F89" t="s">
+        <v>312</v>
+      </c>
+      <c r="G89" t="s">
+        <v>313</v>
+      </c>
+      <c r="H89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" t="s">
+        <v>313</v>
+      </c>
+      <c r="J89" t="s">
+        <v>314</v>
+      </c>
+      <c r="K89" t="s">
+        <v>315</v>
+      </c>
+      <c r="L89" t="s">
+        <v>142</v>
+      </c>
+      <c r="M89" t="s">
+        <v>316</v>
+      </c>
+      <c r="N89" t="s">
+        <v>317</v>
+      </c>
+      <c r="O89" t="s">
+        <v>318</v>
+      </c>
+      <c r="P89" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" t="s">
+        <v>321</v>
+      </c>
+      <c r="F90" t="s">
+        <v>322</v>
+      </c>
+      <c r="G90" t="s">
+        <v>323</v>
+      </c>
+      <c r="H90" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" t="s">
+        <v>323</v>
+      </c>
+      <c r="J90" t="s">
+        <v>324</v>
+      </c>
+      <c r="K90" t="s">
+        <v>325</v>
+      </c>
+      <c r="L90" t="s">
+        <v>142</v>
+      </c>
+      <c r="M90" t="s">
+        <v>326</v>
+      </c>
+      <c r="N90" t="s">
+        <v>327</v>
+      </c>
+      <c r="O90" t="s">
+        <v>328</v>
+      </c>
+      <c r="P90" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" t="s">
+        <v>330</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
+        <v>331</v>
+      </c>
+      <c r="F91" t="s">
+        <v>332</v>
+      </c>
+      <c r="G91" t="s">
+        <v>333</v>
+      </c>
+      <c r="H91" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" t="s">
+        <v>333</v>
+      </c>
+      <c r="J91" t="s">
+        <v>334</v>
+      </c>
+      <c r="K91" t="s">
+        <v>335</v>
+      </c>
+      <c r="L91" t="s">
+        <v>142</v>
+      </c>
+      <c r="M91" t="s">
+        <v>336</v>
+      </c>
+      <c r="N91" t="s">
+        <v>337</v>
+      </c>
+      <c r="O91" t="s">
+        <v>338</v>
+      </c>
+      <c r="P91" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" t="s">
+        <v>341</v>
+      </c>
+      <c r="F92" t="s">
+        <v>342</v>
+      </c>
+      <c r="G92" t="s">
+        <v>343</v>
+      </c>
+      <c r="H92" t="s">
+        <v>344</v>
+      </c>
+      <c r="I92" t="s">
+        <v>345</v>
+      </c>
+      <c r="J92" t="s">
+        <v>346</v>
+      </c>
+      <c r="K92" t="s">
+        <v>347</v>
+      </c>
+      <c r="L92" t="s">
+        <v>51</v>
+      </c>
+      <c r="M92" t="s">
+        <v>348</v>
+      </c>
+      <c r="N92" t="s">
+        <v>349</v>
+      </c>
+      <c r="O92" t="s">
+        <v>350</v>
+      </c>
+      <c r="P92" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>353</v>
+      </c>
+      <c r="C93" t="s">
+        <v>354</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
+        <v>355</v>
+      </c>
+      <c r="F93" t="s">
+        <v>356</v>
+      </c>
+      <c r="G93" t="s">
+        <v>357</v>
+      </c>
+      <c r="H93" t="s">
+        <v>358</v>
+      </c>
+      <c r="I93" t="s">
+        <v>359</v>
+      </c>
+      <c r="J93" t="s">
+        <v>360</v>
+      </c>
+      <c r="K93" t="s">
+        <v>361</v>
+      </c>
+      <c r="L93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M93" t="s">
+        <v>362</v>
+      </c>
+      <c r="N93" t="s">
+        <v>363</v>
+      </c>
+      <c r="O93" t="s">
+        <v>364</v>
+      </c>
+      <c r="P93" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>366</v>
+      </c>
+      <c r="R93" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -3,10 +3,11 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="1"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="pag2" sheetId="2" r:id="rId2"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,7 +671,7 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1256,41 +1257,117 @@
       <c r="Q14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R14" t="s"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
-      <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
-      <c r="Q15" s="1" t="n"/>
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
-      <c r="G16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
-      <c r="J16" s="1" t="n"/>
-      <c r="K16" s="1" t="n"/>
-      <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
-      <c r="Q16" s="1" t="n"/>
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
@@ -1307,70 +1384,221 @@
       <c r="Q17" s="1" t="n"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
-      <c r="G18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
-      <c r="J18" s="1" t="n"/>
-      <c r="K18" s="1" t="n"/>
-      <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
-      <c r="Q18" s="1" t="n"/>
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
-      <c r="G19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
-      <c r="J19" s="1" t="n"/>
-      <c r="K19" s="1" t="n"/>
-      <c r="L19" s="1" t="n"/>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n"/>
-      <c r="O19" s="1" t="n"/>
-      <c r="Q19" s="1" t="n"/>
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
-      <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
-      <c r="N20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
-      <c r="Q20" s="1" t="n"/>
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
-      <c r="J21" s="1" t="n"/>
-      <c r="K21" s="1" t="n"/>
-      <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n"/>
-      <c r="N21" s="1" t="n"/>
-      <c r="O21" s="1" t="n"/>
-      <c r="Q21" s="1" t="n"/>
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="n"/>
@@ -1387,68 +1615,217 @@
       <c r="Q22" s="1" t="n"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
-      <c r="J23" s="1" t="n"/>
-      <c r="K23" s="1" t="n"/>
-      <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n"/>
-      <c r="N23" s="1" t="n"/>
-      <c r="O23" s="1" t="n"/>
-      <c r="Q23" s="1" t="n"/>
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
-      <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
-      <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n"/>
-      <c r="O24" s="1" t="n"/>
-      <c r="Q24" s="1" t="n"/>
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
-      <c r="G25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
-      <c r="J25" s="1" t="n"/>
-      <c r="K25" s="1" t="n"/>
-      <c r="L25" s="1" t="n"/>
-      <c r="M25" s="1" t="n"/>
-      <c r="N25" s="1" t="n"/>
-      <c r="O25" s="1" t="n"/>
-      <c r="Q25" s="1" t="n"/>
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="n"/>
-      <c r="F26" s="1" t="n"/>
-      <c r="G26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
-      <c r="J26" s="1" t="n"/>
-      <c r="K26" s="1" t="n"/>
-      <c r="L26" s="1" t="n"/>
-      <c r="M26" s="1" t="n"/>
-      <c r="N26" s="1" t="n"/>
-      <c r="O26" s="1" t="n"/>
-      <c r="Q26" s="1" t="n"/>
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s"/>
     </row>
     <row r="27" spans="1:18">
       <c r="B27" s="1" t="n"/>
@@ -1603,4 +1980,22 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
+</worksheet>
 </file>
--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Programado</t>
   </si>
@@ -204,6 +204,30 @@
   </si>
   <si>
     <t>62.823</t>
+  </si>
+  <si>
+    <t>Sudeste</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Ghidro</t>
+  </si>
+  <si>
+    <t>Gtermo</t>
+  </si>
+  <si>
+    <t>Geólica</t>
+  </si>
+  <si>
+    <t>Gsolar</t>
   </si>
 </sst>
 </file>
@@ -248,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -338,11 +362,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -369,6 +430,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -669,10 +745,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1825,57 +1901,170 @@
       <c r="Q26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R26" t="s"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="n"/>
-      <c r="G27" s="1" t="n"/>
-      <c r="I27" s="1" t="n"/>
-      <c r="J27" s="1" t="n"/>
-      <c r="K27" s="1" t="n"/>
-      <c r="L27" s="1" t="n"/>
-      <c r="M27" s="1" t="n"/>
-      <c r="N27" s="1" t="n"/>
-      <c r="O27" s="1" t="n"/>
-      <c r="Q27" s="1" t="n"/>
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
-      <c r="G28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
-      <c r="J28" s="1" t="n"/>
-      <c r="K28" s="1" t="n"/>
-      <c r="L28" s="1" t="n"/>
-      <c r="M28" s="1" t="n"/>
-      <c r="N28" s="1" t="n"/>
-      <c r="O28" s="1" t="n"/>
-      <c r="Q28" s="1" t="n"/>
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="n"/>
-      <c r="G29" s="1" t="n"/>
-      <c r="I29" s="1" t="n"/>
-      <c r="J29" s="1" t="n"/>
-      <c r="K29" s="1" t="n"/>
-      <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n"/>
-      <c r="N29" s="1" t="n"/>
-      <c r="O29" s="1" t="n"/>
-      <c r="Q29" s="1" t="n"/>
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
@@ -1892,85 +2081,641 @@
       <c r="Q30" s="1" t="n"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
-      <c r="F31" s="1" t="n"/>
-      <c r="G31" s="1" t="n"/>
-      <c r="I31" s="1" t="n"/>
-      <c r="J31" s="1" t="n"/>
-      <c r="K31" s="1" t="n"/>
-      <c r="L31" s="1" t="n"/>
-      <c r="M31" s="1" t="n"/>
-      <c r="N31" s="1" t="n"/>
-      <c r="O31" s="1" t="n"/>
-      <c r="Q31" s="1" t="n"/>
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
-      <c r="G32" s="1" t="n"/>
-      <c r="I32" s="1" t="n"/>
-      <c r="J32" s="1" t="n"/>
-      <c r="K32" s="1" t="n"/>
-      <c r="L32" s="1" t="n"/>
-      <c r="M32" s="1" t="n"/>
-      <c r="N32" s="1" t="n"/>
-      <c r="O32" s="1" t="n"/>
-      <c r="Q32" s="1" t="n"/>
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
-      <c r="I33" s="1" t="n"/>
-      <c r="J33" s="1" t="n"/>
-      <c r="K33" s="1" t="n"/>
-      <c r="L33" s="1" t="n"/>
-      <c r="M33" s="1" t="n"/>
-      <c r="N33" s="1" t="n"/>
-      <c r="O33" s="1" t="n"/>
-      <c r="Q33" s="1" t="n"/>
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
-      <c r="G34" s="1" t="n"/>
-      <c r="I34" s="1" t="n"/>
-      <c r="J34" s="1" t="n"/>
-      <c r="K34" s="1" t="n"/>
-      <c r="L34" s="1" t="n"/>
-      <c r="M34" s="1" t="n"/>
-      <c r="N34" s="1" t="n"/>
-      <c r="O34" s="1" t="n"/>
-      <c r="Q34" s="1" t="n"/>
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n"/>
-      <c r="E35" s="1" t="n"/>
-      <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="n"/>
-      <c r="H35" s="1" t="n"/>
-      <c r="I35" s="1" t="n"/>
-      <c r="J35" s="1" t="n"/>
-      <c r="K35" s="1" t="n"/>
-      <c r="L35" s="1" t="n"/>
-      <c r="M35" s="1" t="n"/>
-      <c r="N35" s="1" t="n"/>
-      <c r="O35" s="1" t="n"/>
-      <c r="Q35" s="1" t="n"/>
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1988,14 +2733,119 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A3:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="16.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:21">
+      <c r="B3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="15" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="15" t="n"/>
+      <c r="N3" s="15" t="n"/>
+      <c r="O3" s="15" t="n"/>
+      <c r="P3" s="16" t="n"/>
+      <c r="Q3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="13" t="n"/>
+      <c r="S3" s="13" t="n"/>
+      <c r="T3" s="13" t="n"/>
+      <c r="U3" s="13" t="n"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+  </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
 </worksheet>
 </file>
--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -2715,7 +2715,325 @@
       <c r="Q42" t="s">
         <v>24</v>
       </c>
-      <c r="R42" t="s"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="1"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Programado</t>
   </si>
@@ -204,6 +204,75 @@
   </si>
   <si>
     <t>62.823</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 Maio de 2016</t>
+  </si>
+  <si>
+    <t>36.999</t>
+  </si>
+  <si>
+    <t>11.816</t>
+  </si>
+  <si>
+    <t>8.070</t>
+  </si>
+  <si>
+    <t>3.730</t>
+  </si>
+  <si>
+    <t>62.605</t>
+  </si>
+  <si>
+    <t>37.552</t>
+  </si>
+  <si>
+    <t>11.869</t>
+  </si>
+  <si>
+    <t>2.013</t>
+  </si>
+  <si>
+    <t>7.552</t>
+  </si>
+  <si>
+    <t>3.946</t>
+  </si>
+  <si>
+    <t>62.932</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 Maio de 2016</t>
+  </si>
+  <si>
+    <t>32.860</t>
+  </si>
+  <si>
+    <t>10.265</t>
+  </si>
+  <si>
+    <t>8.943</t>
+  </si>
+  <si>
+    <t>3.546</t>
+  </si>
+  <si>
+    <t>57.604</t>
+  </si>
+  <si>
+    <t>33.585</t>
+  </si>
+  <si>
+    <t>10.612</t>
+  </si>
+  <si>
+    <t>8.445</t>
+  </si>
+  <si>
+    <t>3.243</t>
+  </si>
+  <si>
+    <t>57.898</t>
   </si>
   <si>
     <t>Sudeste</t>
@@ -420,6 +489,9 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -430,9 +502,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -745,10 +814,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -764,26 +833,26 @@
     <row r="1" spans="1:18"/>
     <row r="2" spans="1:18"/>
     <row customHeight="1" ht="16.5" r="3" s="7" spans="1:18">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="n"/>
-      <c r="D3" s="9" t="n"/>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="9" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="10" t="s">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="10" t="n"/>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3" s="10" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="10" t="n"/>
+      <c r="J3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="11" t="n"/>
-      <c r="L3" s="11" t="n"/>
-      <c r="M3" s="11" t="n"/>
-      <c r="N3" s="11" t="n"/>
-      <c r="O3" s="11" t="n"/>
-      <c r="P3" s="11" t="n"/>
-      <c r="Q3" s="11" t="n"/>
+      <c r="K3" s="12" t="n"/>
+      <c r="L3" s="12" t="n"/>
+      <c r="M3" s="12" t="n"/>
+      <c r="N3" s="12" t="n"/>
+      <c r="O3" s="12" t="n"/>
+      <c r="P3" s="12" t="n"/>
+      <c r="Q3" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" s="7" spans="1:18">
       <c r="A4" s="6" t="s">
@@ -3033,7 +3102,653 @@
       <c r="Q48" t="s">
         <v>24</v>
       </c>
-      <c r="R48" t="s"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" t="s">
+        <v>35</v>
+      </c>
+      <c r="P56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" t="s">
+        <v>69</v>
+      </c>
+      <c r="K57" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" t="s">
+        <v>71</v>
+      </c>
+      <c r="M57" t="s">
+        <v>72</v>
+      </c>
+      <c r="N57" t="s">
+        <v>73</v>
+      </c>
+      <c r="O57" t="s">
+        <v>74</v>
+      </c>
+      <c r="P57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L58" t="s">
+        <v>71</v>
+      </c>
+      <c r="M58" t="s">
+        <v>83</v>
+      </c>
+      <c r="N58" t="s">
+        <v>84</v>
+      </c>
+      <c r="O58" t="s">
+        <v>85</v>
+      </c>
+      <c r="P58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" t="s">
+        <v>71</v>
+      </c>
+      <c r="M59" t="s">
+        <v>72</v>
+      </c>
+      <c r="N59" t="s">
+        <v>73</v>
+      </c>
+      <c r="O59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s">
+        <v>82</v>
+      </c>
+      <c r="L60" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" t="s">
+        <v>83</v>
+      </c>
+      <c r="N60" t="s">
+        <v>84</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" t="s">
+        <v>70</v>
+      </c>
+      <c r="L61" t="s">
+        <v>71</v>
+      </c>
+      <c r="M61" t="s">
+        <v>72</v>
+      </c>
+      <c r="N61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O61" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L62" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" t="s">
+        <v>83</v>
+      </c>
+      <c r="N62" t="s">
+        <v>84</v>
+      </c>
+      <c r="O62" t="s">
+        <v>85</v>
+      </c>
+      <c r="P62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>85</v>
+      </c>
+      <c r="R62" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3053,7 +3768,7 @@
   </sheetPr>
   <dimension ref="A3:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:U3"/>
     </sheetView>
   </sheetViews>
@@ -3064,28 +3779,28 @@
   <sheetData>
     <row r="3" spans="1:21">
       <c r="B3" s="14" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C3" s="15" t="n"/>
       <c r="D3" s="15" t="n"/>
       <c r="E3" s="15" t="n"/>
       <c r="F3" s="16" t="n"/>
       <c r="G3" s="14" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H3" s="15" t="n"/>
       <c r="I3" s="15" t="n"/>
       <c r="J3" s="15" t="n"/>
       <c r="K3" s="16" t="n"/>
       <c r="L3" s="14" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="M3" s="15" t="n"/>
       <c r="N3" s="15" t="n"/>
       <c r="O3" s="15" t="n"/>
       <c r="P3" s="16" t="n"/>
       <c r="Q3" s="13" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="R3" s="13" t="n"/>
       <c r="S3" s="13" t="n"/>
@@ -3097,61 +3812,61 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>10</v>

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>Programado</t>
   </si>
@@ -273,6 +273,39 @@
   </si>
   <si>
     <t>57.898</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 Maio de 2016</t>
+  </si>
+  <si>
+    <t>29.037</t>
+  </si>
+  <si>
+    <t>9.653</t>
+  </si>
+  <si>
+    <t>8.234</t>
+  </si>
+  <si>
+    <t>3.556</t>
+  </si>
+  <si>
+    <t>52.470</t>
+  </si>
+  <si>
+    <t>29.472</t>
+  </si>
+  <si>
+    <t>9.636</t>
+  </si>
+  <si>
+    <t>7.888</t>
+  </si>
+  <si>
+    <t>3.313</t>
+  </si>
+  <si>
+    <t>52.324</t>
   </si>
   <si>
     <t>Sudeste</t>
@@ -814,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:XFD54"/>
@@ -3748,7 +3781,60 @@
       <c r="Q62" t="s">
         <v>85</v>
       </c>
-      <c r="R62" t="s"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" t="s">
+        <v>94</v>
+      </c>
+      <c r="N63" t="s">
+        <v>95</v>
+      </c>
+      <c r="O63" t="s">
+        <v>96</v>
+      </c>
+      <c r="P63" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>96</v>
+      </c>
+      <c r="R63" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3779,28 +3865,28 @@
   <sheetData>
     <row r="3" spans="1:21">
       <c r="B3" s="14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C3" s="15" t="n"/>
       <c r="D3" s="15" t="n"/>
       <c r="E3" s="15" t="n"/>
       <c r="F3" s="16" t="n"/>
       <c r="G3" s="14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H3" s="15" t="n"/>
       <c r="I3" s="15" t="n"/>
       <c r="J3" s="15" t="n"/>
       <c r="K3" s="16" t="n"/>
       <c r="L3" s="14" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M3" s="15" t="n"/>
       <c r="N3" s="15" t="n"/>
       <c r="O3" s="15" t="n"/>
       <c r="P3" s="16" t="n"/>
       <c r="Q3" s="13" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R3" s="13" t="n"/>
       <c r="S3" s="13" t="n"/>
@@ -3812,61 +3898,61 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>10</v>

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -7,7 +7,7 @@
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
-    <s:sheet name="pag2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="BalançoEnergéticoDetalhado" sheetId="2" r:id="rId2"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>Programado</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>52.324</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>Sudeste</t>
@@ -847,10 +850,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3834,7 +3837,287 @@
       <c r="Q63" t="s">
         <v>96</v>
       </c>
-      <c r="R63" t="s"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64" t="s">
+        <v>93</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" t="s">
+        <v>94</v>
+      </c>
+      <c r="N64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O64" t="s">
+        <v>96</v>
+      </c>
+      <c r="P64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" t="s">
+        <v>93</v>
+      </c>
+      <c r="L65" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" t="s">
+        <v>94</v>
+      </c>
+      <c r="N65" t="s">
+        <v>95</v>
+      </c>
+      <c r="O65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P65" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" t="s">
+        <v>94</v>
+      </c>
+      <c r="N71" t="s">
+        <v>95</v>
+      </c>
+      <c r="O71" t="s">
+        <v>96</v>
+      </c>
+      <c r="P71" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>96</v>
+      </c>
+      <c r="R71" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3854,7 +4137,7 @@
   </sheetPr>
   <dimension ref="A3:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:U3"/>
     </sheetView>
   </sheetViews>
@@ -3865,28 +4148,28 @@
   <sheetData>
     <row r="3" spans="1:21">
       <c r="B3" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="15" t="n"/>
       <c r="D3" s="15" t="n"/>
       <c r="E3" s="15" t="n"/>
       <c r="F3" s="16" t="n"/>
       <c r="G3" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H3" s="15" t="n"/>
       <c r="I3" s="15" t="n"/>
       <c r="J3" s="15" t="n"/>
       <c r="K3" s="16" t="n"/>
       <c r="L3" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M3" s="15" t="n"/>
       <c r="N3" s="15" t="n"/>
       <c r="O3" s="15" t="n"/>
       <c r="P3" s="16" t="n"/>
       <c r="Q3" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R3" s="13" t="n"/>
       <c r="S3" s="13" t="n"/>
@@ -3898,61 +4181,61 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>10</v>

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
-    <s:sheet name="BalançoEnergéticoDetalhado" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\Documents\Python\ETL_PDF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="11955" activeTab="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Tabela1" sheetId="1" r:id="rId1"/>
+    <sheet name="BalancoEnergeticoDetalhado" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="106">
   <si>
     <t>Programado</t>
   </si>
@@ -338,35 +343,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999755851924192"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,58 +510,66 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -845,52 +857,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="16.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="11.5703125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="14.140625"/>
-    <col customWidth="1" max="13" min="13" style="7" width="12.140625"/>
+    <col min="1" max="1" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18"/>
-    <row r="2" spans="1:18"/>
-    <row customHeight="1" ht="16.5" r="3" s="7" spans="1:18">
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="10" t="n"/>
-      <c r="F3" s="10" t="n"/>
-      <c r="G3" s="10" t="n"/>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="10" t="n"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="12" t="n"/>
-      <c r="L3" s="12" t="n"/>
-      <c r="M3" s="12" t="n"/>
-      <c r="N3" s="12" t="n"/>
-      <c r="O3" s="12" t="n"/>
-      <c r="P3" s="12" t="n"/>
-      <c r="Q3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="7" spans="1:18">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -943,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1208,26 +1214,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
-      <c r="J10" s="1" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
-      <c r="Q10" s="1" t="n"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1545,26 +1551,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
-      <c r="Q17" s="1" t="n"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1776,26 +1782,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
-      <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
-      <c r="Q22" s="1" t="n"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2166,26 +2172,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
-      <c r="G30" s="1" t="n"/>
-      <c r="I30" s="1" t="n"/>
-      <c r="J30" s="1" t="n"/>
-      <c r="K30" s="1" t="n"/>
-      <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
-      <c r="Q30" s="1" t="n"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3192,12 +3198,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3303,12 +3309,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3973,12 +3979,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -4117,127 +4123,450 @@
       <c r="Q71" t="s">
         <v>96</v>
       </c>
-      <c r="R71" t="s"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" t="s">
+        <v>92</v>
+      </c>
+      <c r="K73" t="s">
+        <v>93</v>
+      </c>
+      <c r="L73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" t="s">
+        <v>94</v>
+      </c>
+      <c r="N73" t="s">
+        <v>95</v>
+      </c>
+      <c r="O73" t="s">
+        <v>96</v>
+      </c>
+      <c r="P73" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" t="s">
+        <v>92</v>
+      </c>
+      <c r="K75" t="s">
+        <v>93</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N75" t="s">
+        <v>95</v>
+      </c>
+      <c r="O75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P75" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" t="s">
+        <v>92</v>
+      </c>
+      <c r="K76" t="s">
+        <v>93</v>
+      </c>
+      <c r="L76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" t="s">
+        <v>94</v>
+      </c>
+      <c r="N76" t="s">
+        <v>95</v>
+      </c>
+      <c r="O76" t="s">
+        <v>96</v>
+      </c>
+      <c r="P76" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" t="s">
+        <v>92</v>
+      </c>
+      <c r="K77" t="s">
+        <v>93</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" t="s">
+        <v>94</v>
+      </c>
+      <c r="N77" t="s">
+        <v>95</v>
+      </c>
+      <c r="O77" t="s">
+        <v>96</v>
+      </c>
+      <c r="P77" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>89</v>
+      </c>
+      <c r="F78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" t="s">
+        <v>92</v>
+      </c>
+      <c r="K78" t="s">
+        <v>93</v>
+      </c>
+      <c r="L78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" t="s">
+        <v>94</v>
+      </c>
+      <c r="N78" t="s">
+        <v>95</v>
+      </c>
+      <c r="O78" t="s">
+        <v>96</v>
+      </c>
+      <c r="P78" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L79" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" t="s">
+        <v>94</v>
+      </c>
+      <c r="N79" t="s">
+        <v>95</v>
+      </c>
+      <c r="O79" t="s">
+        <v>96</v>
+      </c>
+      <c r="P79" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="16.42578125"/>
+    <col min="1" max="1" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="15" t="n"/>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="15" t="n"/>
-      <c r="F3" s="16" t="n"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="16" t="n"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="15" t="n"/>
-      <c r="N3" s="15" t="n"/>
-      <c r="O3" s="15" t="n"/>
-      <c r="P3" s="16" t="n"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="13" t="n"/>
-      <c r="S3" s="13" t="n"/>
-      <c r="T3" s="13" t="n"/>
-      <c r="U3" s="13" t="n"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4248,6 +4577,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:K3"/>
   </mergeCells>
-  <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\Documents\Python\ETL_PDF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="11955" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Tabela1" sheetId="1" r:id="rId1"/>
-    <sheet name="BalancoEnergeticoDetalhado" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="1"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="BalancoEnergeticoDetalhado" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>Programado</t>
   </si>
@@ -334,43 +329,82 @@
     <t>Gtermo</t>
   </si>
   <si>
+    <t>Gnuclear</t>
+  </si>
+  <si>
     <t>Geólica</t>
   </si>
   <si>
     <t>Gsolar</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>hoje</t>
+  </si>
+  <si>
+    <t>14.528</t>
+  </si>
+  <si>
+    <t>3.746</t>
+  </si>
+  <si>
+    <t>20.289</t>
+  </si>
+  <si>
+    <t>30.185</t>
+  </si>
+  <si>
+    <t>13.657</t>
+  </si>
+  <si>
+    <t>4.651</t>
+  </si>
+  <si>
+    <t>20.323</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,8 +414,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -475,11 +521,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -487,89 +546,88 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -857,46 +915,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A3:Q79"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="7" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="12" width="16.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="12" width="14.140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="12" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="12" width="16.5703125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="12" width="14.140625"/>
+    <col customWidth="1" max="13" min="13" style="12" width="12.140625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row customHeight="1" ht="16.5" r="3" s="12" spans="1:17">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11" t="s">
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="14" t="n"/>
+      <c r="I3" s="14" t="n"/>
+      <c r="J3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="16" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="16" t="n"/>
+      <c r="P3" s="16" t="n"/>
+      <c r="Q3" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="12" spans="1:17">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -949,7 +1011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1108,7 +1170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1214,26 +1276,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1286,7 +1348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1392,7 +1454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1445,7 +1507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1498,7 +1560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1551,26 +1613,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1623,7 +1685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1676,7 +1738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1729,7 +1791,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1782,26 +1844,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1854,7 +1916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1907,7 +1969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1960,7 +2022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2013,7 +2075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2119,7 +2181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2172,26 +2234,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2244,7 +2306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2297,7 +2359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2350,7 +2412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2403,7 +2465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2456,7 +2518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2509,7 +2571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2562,7 +2624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2615,7 +2677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2721,7 +2783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2774,7 +2836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2880,7 +2942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2933,7 +2995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2986,7 +3048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3039,7 +3101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3145,7 +3207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3198,12 +3260,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3256,7 +3318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3309,12 +3371,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3420,7 +3482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -3473,7 +3535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3526,7 +3588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -3579,7 +3641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3632,7 +3694,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3685,7 +3747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3738,7 +3800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3791,7 +3853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -3844,7 +3906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -3897,7 +3959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -3950,7 +4012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3979,12 +4041,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -4013,7 +4075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -4042,7 +4104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -4071,7 +4133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -4124,12 +4186,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4182,12 +4244,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4240,7 +4302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4293,7 +4355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -4346,7 +4408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4399,7 +4461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -4457,126 +4519,362 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:U3"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B5" xSplit="1" ySplit="4"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+      <selection activeCell="A6" pane="bottomRight" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="12" width="16.42578125"/>
+    <col customWidth="1" max="4" min="4" style="12" width="11.42578125"/>
+    <col customWidth="1" max="14" min="7" style="12" width="11.42578125"/>
+    <col customWidth="1" max="18" min="18" style="12" width="11.42578125"/>
+    <col customWidth="1" max="21" min="21" style="12" width="11.42578125"/>
+    <col customWidth="1" max="27" min="27" style="12" width="11.42578125"/>
+    <col customWidth="1" max="33" min="33" style="12" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="1" spans="1:57">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="12" spans="1:57">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="3" s="12" spans="1:57">
+      <c r="B3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14" t="s">
+      <c r="C3" s="18" t="n"/>
+      <c r="D3" s="18" t="n"/>
+      <c r="E3" s="18" t="n"/>
+      <c r="F3" s="18" t="n"/>
+      <c r="G3" s="18" t="n"/>
+      <c r="H3" s="18" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="18" t="n"/>
+      <c r="N3" s="18" t="n"/>
+      <c r="O3" s="19" t="n"/>
+      <c r="P3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="14" t="s">
+      <c r="Q3" s="18" t="n"/>
+      <c r="R3" s="18" t="n"/>
+      <c r="S3" s="18" t="n"/>
+      <c r="T3" s="18" t="n"/>
+      <c r="U3" s="18" t="n"/>
+      <c r="V3" s="18" t="n"/>
+      <c r="W3" s="18" t="n"/>
+      <c r="X3" s="18" t="n"/>
+      <c r="Y3" s="18" t="n"/>
+      <c r="Z3" s="18" t="n"/>
+      <c r="AA3" s="18" t="n"/>
+      <c r="AB3" s="18" t="n"/>
+      <c r="AC3" s="19" t="n"/>
+      <c r="AD3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="13" t="s">
+      <c r="AE3" s="18" t="n"/>
+      <c r="AF3" s="18" t="n"/>
+      <c r="AG3" s="18" t="n"/>
+      <c r="AH3" s="18" t="n"/>
+      <c r="AI3" s="18" t="n"/>
+      <c r="AJ3" s="18" t="n"/>
+      <c r="AK3" s="18" t="n"/>
+      <c r="AL3" s="18" t="n"/>
+      <c r="AM3" s="18" t="n"/>
+      <c r="AN3" s="18" t="n"/>
+      <c r="AO3" s="18" t="n"/>
+      <c r="AP3" s="18" t="n"/>
+      <c r="AQ3" s="19" t="n"/>
+      <c r="AR3" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AS3" s="18" t="n"/>
+      <c r="AT3" s="18" t="n"/>
+      <c r="AU3" s="18" t="n"/>
+      <c r="AV3" s="18" t="n"/>
+      <c r="AW3" s="18" t="n"/>
+      <c r="AX3" s="18" t="n"/>
+      <c r="AY3" s="18" t="n"/>
+      <c r="AZ3" s="18" t="n"/>
+      <c r="BA3" s="18" t="n"/>
+      <c r="BB3" s="18" t="n"/>
+      <c r="BC3" s="18" t="n"/>
+      <c r="BD3" s="18" t="n"/>
+      <c r="BE3" s="19" t="n"/>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="L4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="M4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="P4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="Q4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="R4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="S4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="T4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="W4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="X4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="Y4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="Z4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="AA4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC4" s="10" t="s">
         <v>10</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="7" t="n"/>
+      <c r="Q5" s="7" t="n"/>
+      <c r="S5" s="7" t="n"/>
+      <c r="U5" s="7" t="n"/>
+      <c r="V5" s="7" t="n"/>
+      <c r="W5" s="7" t="n"/>
+      <c r="X5" s="7" t="n"/>
+      <c r="Z5" s="7" t="n"/>
+      <c r="AB5" s="7" t="n"/>
+      <c r="AC5" s="7" t="n"/>
+      <c r="AD5" s="7" t="n"/>
+      <c r="AE5" s="7" t="n"/>
+      <c r="AG5" s="7" t="n"/>
+      <c r="AK5" s="7" t="n"/>
+      <c r="AL5" s="7" t="n"/>
+      <c r="AN5" s="7" t="n"/>
+      <c r="AP5" s="7" t="n"/>
+      <c r="AQ5" s="7" t="n"/>
+      <c r="AR5" s="7" t="n"/>
+      <c r="AS5" s="7" t="n"/>
+      <c r="AW5" s="7" t="n"/>
+      <c r="AX5" s="7" t="n"/>
+      <c r="AY5" s="7" t="n"/>
+      <c r="AZ5" s="7" t="n"/>
+      <c r="BD5" s="7" t="n"/>
+      <c r="BE5" s="7" t="n"/>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="AR3:BE3"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="P3:AC3"/>
+    <mergeCell ref="AD3:AQ3"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="1"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
@@ -920,10 +920,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:Q79"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -936,7 +936,9 @@
     <col customWidth="1" max="13" min="13" style="12" width="12.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="3" s="12" spans="1:17">
+    <row r="1" spans="1:18"/>
+    <row r="2" spans="1:18"/>
+    <row customHeight="1" ht="16.5" r="3" s="12" spans="1:18">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
@@ -958,7 +960,7 @@
       <c r="P3" s="16" t="n"/>
       <c r="Q3" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4" s="12" spans="1:17">
+    <row customHeight="1" ht="15.75" r="4" s="12" spans="1:18">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1295,7 +1297,7 @@
       <c r="O10" s="1" t="n"/>
       <c r="Q10" s="1" t="n"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1348,7 +1350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1632,7 +1634,7 @@
       <c r="O17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1863,7 +1865,7 @@
       <c r="O22" s="1" t="n"/>
       <c r="Q22" s="1" t="n"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2253,7 +2255,7 @@
       <c r="O30" s="1" t="n"/>
       <c r="Q30" s="1" t="n"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2412,7 +2414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2783,7 +2785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2889,7 +2891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2942,7 +2944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2995,7 +2997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3260,12 +3262,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3371,12 +3373,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -3535,7 +3537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -3906,7 +3908,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -4041,12 +4043,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -4186,12 +4188,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4244,12 +4246,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -4513,6 +4515,176 @@
       <c r="Q79" t="s">
         <v>96</v>
       </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80" t="s">
+        <v>93</v>
+      </c>
+      <c r="L80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" t="s">
+        <v>94</v>
+      </c>
+      <c r="N80" t="s">
+        <v>95</v>
+      </c>
+      <c r="O80" t="s">
+        <v>96</v>
+      </c>
+      <c r="P80" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" t="s">
+        <v>93</v>
+      </c>
+      <c r="L83" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" t="s">
+        <v>94</v>
+      </c>
+      <c r="N83" t="s">
+        <v>95</v>
+      </c>
+      <c r="O83" t="s">
+        <v>96</v>
+      </c>
+      <c r="P83" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" t="s">
+        <v>92</v>
+      </c>
+      <c r="K84" t="s">
+        <v>93</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" t="s">
+        <v>94</v>
+      </c>
+      <c r="N84" t="s">
+        <v>95</v>
+      </c>
+      <c r="O84" t="s">
+        <v>96</v>
+      </c>
+      <c r="P84" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>96</v>
+      </c>
+      <c r="R84" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4532,7 +4704,7 @@
   </sheetPr>
   <dimension ref="A1:BE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B5" xSplit="1" ySplit="4"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -6,7 +6,7 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Tabela1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="BalancoResumido" sheetId="1" r:id="rId1"/>
     <s:sheet name="BalancoEnergeticoDetalhado" sheetId="2" r:id="rId2"/>
   </s:sheets>
   <s:definedNames/>
@@ -920,10 +920,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4684,7 +4684,60 @@
       <c r="Q84" t="s">
         <v>96</v>
       </c>
-      <c r="R84" t="s"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" t="s">
+        <v>93</v>
+      </c>
+      <c r="L85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" t="s">
+        <v>94</v>
+      </c>
+      <c r="N85" t="s">
+        <v>95</v>
+      </c>
+      <c r="O85" t="s">
+        <v>96</v>
+      </c>
+      <c r="P85" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>96</v>
+      </c>
+      <c r="R85" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -920,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E83" sqref="E83"/>
@@ -4737,7 +4737,113 @@
       <c r="Q85" t="s">
         <v>96</v>
       </c>
-      <c r="R85" t="s"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" t="s">
+        <v>92</v>
+      </c>
+      <c r="K86" t="s">
+        <v>93</v>
+      </c>
+      <c r="L86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" t="s">
+        <v>94</v>
+      </c>
+      <c r="N86" t="s">
+        <v>95</v>
+      </c>
+      <c r="O86" t="s">
+        <v>96</v>
+      </c>
+      <c r="P86" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" t="s">
+        <v>93</v>
+      </c>
+      <c r="L87" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" t="s">
+        <v>94</v>
+      </c>
+      <c r="N87" t="s">
+        <v>95</v>
+      </c>
+      <c r="O87" t="s">
+        <v>96</v>
+      </c>
+      <c r="P87" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>96</v>
+      </c>
+      <c r="R87" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -920,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E83" sqref="E83"/>
@@ -4843,7 +4843,1120 @@
       <c r="Q87" t="s">
         <v>96</v>
       </c>
-      <c r="R87" t="s"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>91</v>
+      </c>
+      <c r="J88" t="s">
+        <v>92</v>
+      </c>
+      <c r="K88" t="s">
+        <v>93</v>
+      </c>
+      <c r="L88" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" t="s">
+        <v>94</v>
+      </c>
+      <c r="N88" t="s">
+        <v>95</v>
+      </c>
+      <c r="O88" t="s">
+        <v>96</v>
+      </c>
+      <c r="P88" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>91</v>
+      </c>
+      <c r="J89" t="s">
+        <v>92</v>
+      </c>
+      <c r="K89" t="s">
+        <v>93</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" t="s">
+        <v>94</v>
+      </c>
+      <c r="N89" t="s">
+        <v>95</v>
+      </c>
+      <c r="O89" t="s">
+        <v>96</v>
+      </c>
+      <c r="P89" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>91</v>
+      </c>
+      <c r="J90" t="s">
+        <v>92</v>
+      </c>
+      <c r="K90" t="s">
+        <v>93</v>
+      </c>
+      <c r="L90" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" t="s">
+        <v>94</v>
+      </c>
+      <c r="N90" t="s">
+        <v>95</v>
+      </c>
+      <c r="O90" t="s">
+        <v>96</v>
+      </c>
+      <c r="P90" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>91</v>
+      </c>
+      <c r="J91" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" t="s">
+        <v>93</v>
+      </c>
+      <c r="L91" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91" t="s">
+        <v>94</v>
+      </c>
+      <c r="N91" t="s">
+        <v>95</v>
+      </c>
+      <c r="O91" t="s">
+        <v>96</v>
+      </c>
+      <c r="P91" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" t="s">
+        <v>91</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" t="s">
+        <v>93</v>
+      </c>
+      <c r="L92" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92" t="s">
+        <v>94</v>
+      </c>
+      <c r="N92" t="s">
+        <v>95</v>
+      </c>
+      <c r="O92" t="s">
+        <v>96</v>
+      </c>
+      <c r="P92" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" t="s">
+        <v>91</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>91</v>
+      </c>
+      <c r="J93" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" t="s">
+        <v>93</v>
+      </c>
+      <c r="L93" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" t="s">
+        <v>94</v>
+      </c>
+      <c r="N93" t="s">
+        <v>95</v>
+      </c>
+      <c r="O93" t="s">
+        <v>96</v>
+      </c>
+      <c r="P93" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" t="s">
+        <v>90</v>
+      </c>
+      <c r="G94" t="s">
+        <v>91</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>91</v>
+      </c>
+      <c r="J94" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94" t="s">
+        <v>93</v>
+      </c>
+      <c r="L94" t="s">
+        <v>21</v>
+      </c>
+      <c r="M94" t="s">
+        <v>94</v>
+      </c>
+      <c r="N94" t="s">
+        <v>95</v>
+      </c>
+      <c r="O94" t="s">
+        <v>96</v>
+      </c>
+      <c r="P94" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>89</v>
+      </c>
+      <c r="F95" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" t="s">
+        <v>91</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>91</v>
+      </c>
+      <c r="J95" t="s">
+        <v>92</v>
+      </c>
+      <c r="K95" t="s">
+        <v>93</v>
+      </c>
+      <c r="L95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" t="s">
+        <v>94</v>
+      </c>
+      <c r="N95" t="s">
+        <v>95</v>
+      </c>
+      <c r="O95" t="s">
+        <v>96</v>
+      </c>
+      <c r="P95" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s">
+        <v>91</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>91</v>
+      </c>
+      <c r="J96" t="s">
+        <v>92</v>
+      </c>
+      <c r="K96" t="s">
+        <v>93</v>
+      </c>
+      <c r="L96" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" t="s">
+        <v>94</v>
+      </c>
+      <c r="N96" t="s">
+        <v>95</v>
+      </c>
+      <c r="O96" t="s">
+        <v>96</v>
+      </c>
+      <c r="P96" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>89</v>
+      </c>
+      <c r="F97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G97" t="s">
+        <v>91</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>91</v>
+      </c>
+      <c r="J97" t="s">
+        <v>92</v>
+      </c>
+      <c r="K97" t="s">
+        <v>93</v>
+      </c>
+      <c r="L97" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" t="s">
+        <v>94</v>
+      </c>
+      <c r="N97" t="s">
+        <v>95</v>
+      </c>
+      <c r="O97" t="s">
+        <v>96</v>
+      </c>
+      <c r="P97" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>91</v>
+      </c>
+      <c r="J98" t="s">
+        <v>92</v>
+      </c>
+      <c r="K98" t="s">
+        <v>93</v>
+      </c>
+      <c r="L98" t="s">
+        <v>21</v>
+      </c>
+      <c r="M98" t="s">
+        <v>94</v>
+      </c>
+      <c r="N98" t="s">
+        <v>95</v>
+      </c>
+      <c r="O98" t="s">
+        <v>96</v>
+      </c>
+      <c r="P98" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>91</v>
+      </c>
+      <c r="J99" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" t="s">
+        <v>93</v>
+      </c>
+      <c r="L99" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" t="s">
+        <v>94</v>
+      </c>
+      <c r="N99" t="s">
+        <v>95</v>
+      </c>
+      <c r="O99" t="s">
+        <v>96</v>
+      </c>
+      <c r="P99" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" t="s">
+        <v>91</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>91</v>
+      </c>
+      <c r="J100" t="s">
+        <v>92</v>
+      </c>
+      <c r="K100" t="s">
+        <v>93</v>
+      </c>
+      <c r="L100" t="s">
+        <v>21</v>
+      </c>
+      <c r="M100" t="s">
+        <v>94</v>
+      </c>
+      <c r="N100" t="s">
+        <v>95</v>
+      </c>
+      <c r="O100" t="s">
+        <v>96</v>
+      </c>
+      <c r="P100" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>91</v>
+      </c>
+      <c r="J101" t="s">
+        <v>92</v>
+      </c>
+      <c r="K101" t="s">
+        <v>93</v>
+      </c>
+      <c r="L101" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" t="s">
+        <v>94</v>
+      </c>
+      <c r="N101" t="s">
+        <v>95</v>
+      </c>
+      <c r="O101" t="s">
+        <v>96</v>
+      </c>
+      <c r="P101" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" t="s">
+        <v>90</v>
+      </c>
+      <c r="G102" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>91</v>
+      </c>
+      <c r="J102" t="s">
+        <v>92</v>
+      </c>
+      <c r="K102" t="s">
+        <v>93</v>
+      </c>
+      <c r="L102" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" t="s">
+        <v>94</v>
+      </c>
+      <c r="N102" t="s">
+        <v>95</v>
+      </c>
+      <c r="O102" t="s">
+        <v>96</v>
+      </c>
+      <c r="P102" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>89</v>
+      </c>
+      <c r="F103" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" t="s">
+        <v>91</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>91</v>
+      </c>
+      <c r="J103" t="s">
+        <v>92</v>
+      </c>
+      <c r="K103" t="s">
+        <v>93</v>
+      </c>
+      <c r="L103" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" t="s">
+        <v>94</v>
+      </c>
+      <c r="N103" t="s">
+        <v>95</v>
+      </c>
+      <c r="O103" t="s">
+        <v>96</v>
+      </c>
+      <c r="P103" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" t="s">
+        <v>91</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>91</v>
+      </c>
+      <c r="J104" t="s">
+        <v>92</v>
+      </c>
+      <c r="K104" t="s">
+        <v>93</v>
+      </c>
+      <c r="L104" t="s">
+        <v>21</v>
+      </c>
+      <c r="M104" t="s">
+        <v>94</v>
+      </c>
+      <c r="N104" t="s">
+        <v>95</v>
+      </c>
+      <c r="O104" t="s">
+        <v>96</v>
+      </c>
+      <c r="P104" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>89</v>
+      </c>
+      <c r="F105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G105" t="s">
+        <v>91</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>91</v>
+      </c>
+      <c r="J105" t="s">
+        <v>92</v>
+      </c>
+      <c r="K105" t="s">
+        <v>93</v>
+      </c>
+      <c r="L105" t="s">
+        <v>21</v>
+      </c>
+      <c r="M105" t="s">
+        <v>94</v>
+      </c>
+      <c r="N105" t="s">
+        <v>95</v>
+      </c>
+      <c r="O105" t="s">
+        <v>96</v>
+      </c>
+      <c r="P105" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>89</v>
+      </c>
+      <c r="F106" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106" t="s">
+        <v>91</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>91</v>
+      </c>
+      <c r="J106" t="s">
+        <v>92</v>
+      </c>
+      <c r="K106" t="s">
+        <v>93</v>
+      </c>
+      <c r="L106" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" t="s">
+        <v>94</v>
+      </c>
+      <c r="N106" t="s">
+        <v>95</v>
+      </c>
+      <c r="O106" t="s">
+        <v>96</v>
+      </c>
+      <c r="P106" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>89</v>
+      </c>
+      <c r="F107" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" t="s">
+        <v>91</v>
+      </c>
+      <c r="H107" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>91</v>
+      </c>
+      <c r="J107" t="s">
+        <v>92</v>
+      </c>
+      <c r="K107" t="s">
+        <v>93</v>
+      </c>
+      <c r="L107" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" t="s">
+        <v>94</v>
+      </c>
+      <c r="N107" t="s">
+        <v>95</v>
+      </c>
+      <c r="O107" t="s">
+        <v>96</v>
+      </c>
+      <c r="P107" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F108" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>91</v>
+      </c>
+      <c r="J108" t="s">
+        <v>92</v>
+      </c>
+      <c r="K108" t="s">
+        <v>93</v>
+      </c>
+      <c r="L108" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" t="s">
+        <v>94</v>
+      </c>
+      <c r="N108" t="s">
+        <v>95</v>
+      </c>
+      <c r="O108" t="s">
+        <v>96</v>
+      </c>
+      <c r="P108" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>96</v>
+      </c>
+      <c r="R108" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -920,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E83" sqref="E83"/>
@@ -5956,7 +5956,166 @@
       <c r="Q108" t="s">
         <v>96</v>
       </c>
-      <c r="R108" t="s"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>89</v>
+      </c>
+      <c r="F109" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>91</v>
+      </c>
+      <c r="J109" t="s">
+        <v>92</v>
+      </c>
+      <c r="K109" t="s">
+        <v>93</v>
+      </c>
+      <c r="L109" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" t="s">
+        <v>94</v>
+      </c>
+      <c r="N109" t="s">
+        <v>95</v>
+      </c>
+      <c r="O109" t="s">
+        <v>96</v>
+      </c>
+      <c r="P109" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>89</v>
+      </c>
+      <c r="F110" t="s">
+        <v>90</v>
+      </c>
+      <c r="G110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>91</v>
+      </c>
+      <c r="J110" t="s">
+        <v>92</v>
+      </c>
+      <c r="K110" t="s">
+        <v>93</v>
+      </c>
+      <c r="L110" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" t="s">
+        <v>94</v>
+      </c>
+      <c r="N110" t="s">
+        <v>95</v>
+      </c>
+      <c r="O110" t="s">
+        <v>96</v>
+      </c>
+      <c r="P110" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>89</v>
+      </c>
+      <c r="F111" t="s">
+        <v>90</v>
+      </c>
+      <c r="G111" t="s">
+        <v>91</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>91</v>
+      </c>
+      <c r="J111" t="s">
+        <v>92</v>
+      </c>
+      <c r="K111" t="s">
+        <v>93</v>
+      </c>
+      <c r="L111" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" t="s">
+        <v>94</v>
+      </c>
+      <c r="N111" t="s">
+        <v>95</v>
+      </c>
+      <c r="O111" t="s">
+        <v>96</v>
+      </c>
+      <c r="P111" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>96</v>
+      </c>
+      <c r="R111" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -3863,7 +3863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:R310"/>
   <sheetViews>
     <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
@@ -19181,7 +19181,431 @@
       <c r="Q302" t="s">
         <v>829</v>
       </c>
-      <c r="R302" t="s"/>
+    </row>
+    <row r="303" spans="1:18">
+      <c r="A303" t="s">
+        <v>368</v>
+      </c>
+      <c r="B303" t="s">
+        <v>369</v>
+      </c>
+      <c r="C303" t="s">
+        <v>370</v>
+      </c>
+      <c r="D303" t="s">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>371</v>
+      </c>
+      <c r="F303" t="s">
+        <v>372</v>
+      </c>
+      <c r="G303" t="s">
+        <v>373</v>
+      </c>
+      <c r="H303" t="s">
+        <v>374</v>
+      </c>
+      <c r="I303" t="s">
+        <v>375</v>
+      </c>
+      <c r="J303" t="s">
+        <v>376</v>
+      </c>
+      <c r="K303" t="s">
+        <v>377</v>
+      </c>
+      <c r="L303" t="s">
+        <v>44</v>
+      </c>
+      <c r="M303" t="s">
+        <v>378</v>
+      </c>
+      <c r="N303" t="s">
+        <v>379</v>
+      </c>
+      <c r="O303" t="s">
+        <v>380</v>
+      </c>
+      <c r="P303" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
+      <c r="A304" t="s">
+        <v>383</v>
+      </c>
+      <c r="B304" t="s">
+        <v>384</v>
+      </c>
+      <c r="C304" t="s">
+        <v>355</v>
+      </c>
+      <c r="D304" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" t="s">
+        <v>385</v>
+      </c>
+      <c r="F304" t="s">
+        <v>386</v>
+      </c>
+      <c r="G304" t="s">
+        <v>387</v>
+      </c>
+      <c r="H304" t="s">
+        <v>388</v>
+      </c>
+      <c r="I304" t="s">
+        <v>389</v>
+      </c>
+      <c r="J304" t="s">
+        <v>390</v>
+      </c>
+      <c r="K304" t="s">
+        <v>391</v>
+      </c>
+      <c r="L304" t="s">
+        <v>106</v>
+      </c>
+      <c r="M304" t="s">
+        <v>392</v>
+      </c>
+      <c r="N304" t="s">
+        <v>393</v>
+      </c>
+      <c r="O304" t="s">
+        <v>394</v>
+      </c>
+      <c r="P304" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
+      <c r="A305" t="s">
+        <v>397</v>
+      </c>
+      <c r="B305" t="s">
+        <v>398</v>
+      </c>
+      <c r="C305" t="s">
+        <v>399</v>
+      </c>
+      <c r="D305" t="s">
+        <v>14</v>
+      </c>
+      <c r="E305" t="s">
+        <v>400</v>
+      </c>
+      <c r="F305" t="s">
+        <v>401</v>
+      </c>
+      <c r="G305" t="s">
+        <v>402</v>
+      </c>
+      <c r="H305" t="s">
+        <v>18</v>
+      </c>
+      <c r="I305" t="s">
+        <v>402</v>
+      </c>
+      <c r="J305" t="s">
+        <v>403</v>
+      </c>
+      <c r="K305" t="s">
+        <v>404</v>
+      </c>
+      <c r="L305" t="s">
+        <v>106</v>
+      </c>
+      <c r="M305" t="s">
+        <v>405</v>
+      </c>
+      <c r="N305" t="s">
+        <v>406</v>
+      </c>
+      <c r="O305" t="s">
+        <v>407</v>
+      </c>
+      <c r="P305" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
+      <c r="A306" t="s">
+        <v>368</v>
+      </c>
+      <c r="B306" t="s">
+        <v>369</v>
+      </c>
+      <c r="C306" t="s">
+        <v>370</v>
+      </c>
+      <c r="D306" t="s">
+        <v>14</v>
+      </c>
+      <c r="E306" t="s">
+        <v>371</v>
+      </c>
+      <c r="F306" t="s">
+        <v>372</v>
+      </c>
+      <c r="G306" t="s">
+        <v>373</v>
+      </c>
+      <c r="H306" t="s">
+        <v>374</v>
+      </c>
+      <c r="I306" t="s">
+        <v>375</v>
+      </c>
+      <c r="J306" t="s">
+        <v>376</v>
+      </c>
+      <c r="K306" t="s">
+        <v>377</v>
+      </c>
+      <c r="L306" t="s">
+        <v>44</v>
+      </c>
+      <c r="M306" t="s">
+        <v>378</v>
+      </c>
+      <c r="N306" t="s">
+        <v>379</v>
+      </c>
+      <c r="O306" t="s">
+        <v>380</v>
+      </c>
+      <c r="P306" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18">
+      <c r="A307" t="s">
+        <v>383</v>
+      </c>
+      <c r="B307" t="s">
+        <v>384</v>
+      </c>
+      <c r="C307" t="s">
+        <v>355</v>
+      </c>
+      <c r="D307" t="s">
+        <v>14</v>
+      </c>
+      <c r="E307" t="s">
+        <v>385</v>
+      </c>
+      <c r="F307" t="s">
+        <v>386</v>
+      </c>
+      <c r="G307" t="s">
+        <v>387</v>
+      </c>
+      <c r="H307" t="s">
+        <v>388</v>
+      </c>
+      <c r="I307" t="s">
+        <v>389</v>
+      </c>
+      <c r="J307" t="s">
+        <v>390</v>
+      </c>
+      <c r="K307" t="s">
+        <v>391</v>
+      </c>
+      <c r="L307" t="s">
+        <v>106</v>
+      </c>
+      <c r="M307" t="s">
+        <v>392</v>
+      </c>
+      <c r="N307" t="s">
+        <v>393</v>
+      </c>
+      <c r="O307" t="s">
+        <v>394</v>
+      </c>
+      <c r="P307" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
+      <c r="A308" t="s">
+        <v>368</v>
+      </c>
+      <c r="B308" t="s">
+        <v>369</v>
+      </c>
+      <c r="C308" t="s">
+        <v>370</v>
+      </c>
+      <c r="D308" t="s">
+        <v>14</v>
+      </c>
+      <c r="E308" t="s">
+        <v>371</v>
+      </c>
+      <c r="F308" t="s">
+        <v>372</v>
+      </c>
+      <c r="G308" t="s">
+        <v>373</v>
+      </c>
+      <c r="H308" t="s">
+        <v>374</v>
+      </c>
+      <c r="I308" t="s">
+        <v>375</v>
+      </c>
+      <c r="J308" t="s">
+        <v>376</v>
+      </c>
+      <c r="K308" t="s">
+        <v>377</v>
+      </c>
+      <c r="L308" t="s">
+        <v>44</v>
+      </c>
+      <c r="M308" t="s">
+        <v>378</v>
+      </c>
+      <c r="N308" t="s">
+        <v>379</v>
+      </c>
+      <c r="O308" t="s">
+        <v>380</v>
+      </c>
+      <c r="P308" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18">
+      <c r="A309" t="s">
+        <v>383</v>
+      </c>
+      <c r="B309" t="s">
+        <v>384</v>
+      </c>
+      <c r="C309" t="s">
+        <v>355</v>
+      </c>
+      <c r="D309" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" t="s">
+        <v>385</v>
+      </c>
+      <c r="F309" t="s">
+        <v>386</v>
+      </c>
+      <c r="G309" t="s">
+        <v>387</v>
+      </c>
+      <c r="H309" t="s">
+        <v>388</v>
+      </c>
+      <c r="I309" t="s">
+        <v>389</v>
+      </c>
+      <c r="J309" t="s">
+        <v>390</v>
+      </c>
+      <c r="K309" t="s">
+        <v>391</v>
+      </c>
+      <c r="L309" t="s">
+        <v>106</v>
+      </c>
+      <c r="M309" t="s">
+        <v>392</v>
+      </c>
+      <c r="N309" t="s">
+        <v>393</v>
+      </c>
+      <c r="O309" t="s">
+        <v>394</v>
+      </c>
+      <c r="P309" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18">
+      <c r="A310" t="s">
+        <v>368</v>
+      </c>
+      <c r="B310" t="s">
+        <v>369</v>
+      </c>
+      <c r="C310" t="s">
+        <v>370</v>
+      </c>
+      <c r="D310" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" t="s">
+        <v>371</v>
+      </c>
+      <c r="F310" t="s">
+        <v>372</v>
+      </c>
+      <c r="G310" t="s">
+        <v>373</v>
+      </c>
+      <c r="H310" t="s">
+        <v>374</v>
+      </c>
+      <c r="I310" t="s">
+        <v>375</v>
+      </c>
+      <c r="J310" t="s">
+        <v>376</v>
+      </c>
+      <c r="K310" t="s">
+        <v>377</v>
+      </c>
+      <c r="L310" t="s">
+        <v>44</v>
+      </c>
+      <c r="M310" t="s">
+        <v>378</v>
+      </c>
+      <c r="N310" t="s">
+        <v>379</v>
+      </c>
+      <c r="O310" t="s">
+        <v>380</v>
+      </c>
+      <c r="P310" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>382</v>
+      </c>
+      <c r="R310" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="1"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="BalancoResumido" sheetId="1" r:id="rId1"/>
-    <s:sheet name="BalancoDetalhado" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\Documents\Python\ETL_PDF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="8115" activeTab="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="BalancoResumido" sheetId="1" r:id="rId1"/>
+    <sheet name="BalancoDetalhado" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5678" uniqueCount="1120">
   <si>
     <t>Programado</t>
   </si>
@@ -3299,6 +3304,9 @@
     <t>30.185</t>
   </si>
   <si>
+    <t>amanha</t>
+  </si>
+  <si>
     <t>13.657</t>
   </si>
   <si>
@@ -3306,48 +3314,113 @@
   </si>
   <si>
     <t>20.323</t>
+  </si>
+  <si>
+    <t>21.429</t>
+  </si>
+  <si>
+    <t>3.249</t>
+  </si>
+  <si>
+    <t>26.668</t>
+  </si>
+  <si>
+    <t>21.565</t>
+  </si>
+  <si>
+    <t>3.092</t>
+  </si>
+  <si>
+    <t>26.673</t>
+  </si>
+  <si>
+    <t>11.894</t>
+  </si>
+  <si>
+    <t>1.072</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>13.586</t>
+  </si>
+  <si>
+    <t>11.036</t>
+  </si>
+  <si>
+    <t>1.030</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>12.740</t>
+  </si>
+  <si>
+    <t>2.639</t>
+  </si>
+  <si>
+    <t>2.703</t>
+  </si>
+  <si>
+    <t>7.808</t>
+  </si>
+  <si>
+    <t>3.575</t>
+  </si>
+  <si>
+    <t>5.541</t>
+  </si>
+  <si>
+    <t>3.878</t>
+  </si>
+  <si>
+    <t>1.602</t>
+  </si>
+  <si>
+    <t>5.480</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999755851924192"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,7 +3432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3512,65 +3585,73 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3858,52 +3939,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R310"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q343"/>
   <sheetViews>
     <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="12" width="16.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="12" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="12" width="11.5703125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="12" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="12" width="14.140625"/>
-    <col customWidth="1" max="13" min="13" style="12" width="12.140625"/>
+    <col min="1" max="1" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18"/>
-    <row r="2" spans="1:18"/>
-    <row customHeight="1" ht="16.5" r="3" s="12" spans="1:18">
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="14" t="n"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="n"/>
-      <c r="L3" s="16" t="n"/>
-      <c r="M3" s="16" t="n"/>
-      <c r="N3" s="16" t="n"/>
-      <c r="O3" s="16" t="n"/>
-      <c r="P3" s="16" t="n"/>
-      <c r="Q3" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="12" spans="1:18">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3956,7 +4031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4009,7 +4084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4062,7 +4137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4115,7 +4190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4168,7 +4243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -4221,26 +4296,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
-      <c r="J10" s="1" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
-      <c r="Q10" s="1" t="n"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4293,7 +4368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4346,7 +4421,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -4399,7 +4474,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4452,7 +4527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -4505,7 +4580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -4558,26 +4633,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
-      <c r="Q17" s="1" t="n"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -4630,7 +4705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -4683,7 +4758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4736,7 +4811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -4789,26 +4864,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
-      <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
-      <c r="Q22" s="1" t="n"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -4861,7 +4936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -4914,7 +4989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4967,7 +5042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -5020,7 +5095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5073,7 +5148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -5126,7 +5201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -5179,26 +5254,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
-      <c r="G30" s="1" t="n"/>
-      <c r="I30" s="1" t="n"/>
-      <c r="J30" s="1" t="n"/>
-      <c r="K30" s="1" t="n"/>
-      <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
-      <c r="Q30" s="1" t="n"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -5251,7 +5326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5304,7 +5379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5410,7 +5485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5463,7 +5538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -5516,7 +5591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -5569,7 +5644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5622,7 +5697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -5675,7 +5750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -5728,7 +5803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -5781,7 +5856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -5834,7 +5909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -5887,7 +5962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -5940,7 +6015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -5993,7 +6068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -6046,7 +6121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6099,7 +6174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -6152,7 +6227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -6205,12 +6280,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -6263,7 +6338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -6316,12 +6391,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -6374,7 +6449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -6427,7 +6502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -6480,7 +6555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -6533,7 +6608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -6586,7 +6661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -6639,7 +6714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -6692,7 +6767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6745,7 +6820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -6798,7 +6873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -6851,7 +6926,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -6904,7 +6979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -6957,7 +7032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -6986,12 +7061,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -7020,7 +7095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -7049,7 +7124,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -7078,7 +7153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -7131,12 +7206,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7189,12 +7264,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -7247,7 +7322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -7300,7 +7375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -7353,7 +7428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -7406,7 +7481,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -7459,7 +7534,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -7512,17 +7587,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
-      <c r="A81" t="n">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
-      <c r="A82" t="n">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -7575,7 +7650,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -7628,7 +7703,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -7681,7 +7756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -7734,7 +7809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -7787,7 +7862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -7840,7 +7915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -7893,7 +7968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -7946,7 +8021,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -7999,7 +8074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -8052,7 +8127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -8105,7 +8180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -8158,7 +8233,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -8211,7 +8286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>86</v>
       </c>
@@ -8264,7 +8339,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -8317,7 +8392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -8370,7 +8445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>86</v>
       </c>
@@ -8423,7 +8498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>86</v>
       </c>
@@ -8476,7 +8551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -8529,7 +8604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -8582,7 +8657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>86</v>
       </c>
@@ -8635,7 +8710,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>86</v>
       </c>
@@ -8688,7 +8763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>86</v>
       </c>
@@ -8741,7 +8816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>86</v>
       </c>
@@ -8794,7 +8869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -8847,7 +8922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -8900,7 +8975,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -8953,7 +9028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -9006,7 +9081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -9059,7 +9134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>86</v>
       </c>
@@ -9112,7 +9187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -9165,7 +9240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -9218,7 +9293,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -9271,7 +9346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -9324,7 +9399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -9377,7 +9452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>75</v>
       </c>
@@ -9430,7 +9505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>86</v>
       </c>
@@ -9483,7 +9558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>98</v>
       </c>
@@ -9536,7 +9611,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -9589,7 +9664,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -9642,7 +9717,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -9695,7 +9770,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>144</v>
       </c>
@@ -9748,7 +9823,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -9801,7 +9876,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>166</v>
       </c>
@@ -9854,7 +9929,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>177</v>
       </c>
@@ -9907,7 +9982,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -9960,7 +10035,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>198</v>
       </c>
@@ -10013,7 +10088,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -10066,7 +10141,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -10119,7 +10194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -10172,7 +10247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -10225,7 +10300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -10278,7 +10353,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -10331,7 +10406,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -10384,7 +10459,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -10437,7 +10512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>218</v>
       </c>
@@ -10490,7 +10565,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -10543,7 +10618,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>98</v>
       </c>
@@ -10596,7 +10671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>110</v>
       </c>
@@ -10649,7 +10724,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>121</v>
       </c>
@@ -10702,7 +10777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>240</v>
       </c>
@@ -10755,7 +10830,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>251</v>
       </c>
@@ -10808,7 +10883,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>263</v>
       </c>
@@ -10861,7 +10936,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>177</v>
       </c>
@@ -10914,7 +10989,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>188</v>
       </c>
@@ -10967,7 +11042,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>198</v>
       </c>
@@ -11020,7 +11095,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -11073,7 +11148,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -11126,7 +11201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>25</v>
       </c>
@@ -11179,7 +11254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -11232,7 +11307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>209</v>
       </c>
@@ -11285,7 +11360,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>132</v>
       </c>
@@ -11338,7 +11413,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -11391,7 +11466,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11444,7 +11519,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>218</v>
       </c>
@@ -11497,7 +11572,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>229</v>
       </c>
@@ -11550,7 +11625,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>98</v>
       </c>
@@ -11603,7 +11678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>110</v>
       </c>
@@ -11656,7 +11731,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -11709,7 +11784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>240</v>
       </c>
@@ -11762,7 +11837,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>251</v>
       </c>
@@ -11815,7 +11890,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>263</v>
       </c>
@@ -11868,7 +11943,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -11921,7 +11996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>188</v>
       </c>
@@ -11974,7 +12049,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>198</v>
       </c>
@@ -12027,7 +12102,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -12080,7 +12155,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>63</v>
       </c>
@@ -12133,7 +12208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>75</v>
       </c>
@@ -12186,7 +12261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>86</v>
       </c>
@@ -12239,7 +12314,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>274</v>
       </c>
@@ -12292,7 +12367,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>286</v>
       </c>
@@ -12345,7 +12420,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>298</v>
       </c>
@@ -12398,7 +12473,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>309</v>
       </c>
@@ -12451,7 +12526,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>320</v>
       </c>
@@ -12504,7 +12579,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>331</v>
       </c>
@@ -12557,7 +12632,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>342</v>
       </c>
@@ -12610,7 +12685,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>353</v>
       </c>
@@ -12663,7 +12738,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -12716,7 +12791,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -12769,7 +12844,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>383</v>
       </c>
@@ -12822,7 +12897,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>397</v>
       </c>
@@ -12875,7 +12950,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -12928,7 +13003,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>419</v>
       </c>
@@ -12981,7 +13056,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>430</v>
       </c>
@@ -13034,7 +13109,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>443</v>
       </c>
@@ -13087,7 +13162,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>456</v>
       </c>
@@ -13140,7 +13215,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>368</v>
       </c>
@@ -13193,7 +13268,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>383</v>
       </c>
@@ -13246,7 +13321,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>397</v>
       </c>
@@ -13299,7 +13374,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -13352,7 +13427,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>419</v>
       </c>
@@ -13405,7 +13480,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>430</v>
       </c>
@@ -13458,7 +13533,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>443</v>
       </c>
@@ -13511,7 +13586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>456</v>
       </c>
@@ -13564,7 +13639,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>470</v>
       </c>
@@ -13617,7 +13692,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>482</v>
       </c>
@@ -13670,7 +13745,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>495</v>
       </c>
@@ -13723,7 +13798,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>509</v>
       </c>
@@ -13776,7 +13851,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>522</v>
       </c>
@@ -13829,7 +13904,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>535</v>
       </c>
@@ -13882,7 +13957,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>548</v>
       </c>
@@ -13935,7 +14010,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>560</v>
       </c>
@@ -13988,7 +14063,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>572</v>
       </c>
@@ -14041,7 +14116,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>584</v>
       </c>
@@ -14094,7 +14169,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>597</v>
       </c>
@@ -14147,7 +14222,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>609</v>
       </c>
@@ -14200,7 +14275,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>621</v>
       </c>
@@ -14253,7 +14328,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>632</v>
       </c>
@@ -14306,7 +14381,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>643</v>
       </c>
@@ -14359,7 +14434,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>654</v>
       </c>
@@ -14412,7 +14487,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>666</v>
       </c>
@@ -14465,7 +14540,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>678</v>
       </c>
@@ -14518,7 +14593,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>689</v>
       </c>
@@ -14571,7 +14646,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>700</v>
       </c>
@@ -14624,7 +14699,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>710</v>
       </c>
@@ -14677,7 +14752,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>721</v>
       </c>
@@ -14730,7 +14805,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>730</v>
       </c>
@@ -14783,7 +14858,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>730</v>
       </c>
@@ -14836,7 +14911,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>744</v>
       </c>
@@ -14889,7 +14964,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>758</v>
       </c>
@@ -14942,7 +15017,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>772</v>
       </c>
@@ -14995,7 +15070,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>786</v>
       </c>
@@ -15048,7 +15123,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>797</v>
       </c>
@@ -15101,7 +15176,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>808</v>
       </c>
@@ -15154,7 +15229,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>819</v>
       </c>
@@ -15207,7 +15282,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>730</v>
       </c>
@@ -15260,7 +15335,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>744</v>
       </c>
@@ -15313,7 +15388,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>758</v>
       </c>
@@ -15366,7 +15441,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>772</v>
       </c>
@@ -15419,7 +15494,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>786</v>
       </c>
@@ -15472,7 +15547,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>797</v>
       </c>
@@ -15525,7 +15600,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>808</v>
       </c>
@@ -15578,7 +15653,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>819</v>
       </c>
@@ -15631,7 +15706,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>830</v>
       </c>
@@ -15684,7 +15759,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>840</v>
       </c>
@@ -15737,7 +15812,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>851</v>
       </c>
@@ -15790,7 +15865,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>862</v>
       </c>
@@ -15843,7 +15918,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>873</v>
       </c>
@@ -15896,7 +15971,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>884</v>
       </c>
@@ -15949,7 +16024,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>895</v>
       </c>
@@ -16002,7 +16077,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>906</v>
       </c>
@@ -16055,7 +16130,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>919</v>
       </c>
@@ -16108,7 +16183,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>929</v>
       </c>
@@ -16161,7 +16236,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>940</v>
       </c>
@@ -16214,7 +16289,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>951</v>
       </c>
@@ -16267,7 +16342,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>962</v>
       </c>
@@ -16320,7 +16395,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>974</v>
       </c>
@@ -16373,7 +16448,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>985</v>
       </c>
@@ -16426,7 +16501,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>995</v>
       </c>
@@ -16479,7 +16554,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1006</v>
       </c>
@@ -16532,7 +16607,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1017</v>
       </c>
@@ -16585,7 +16660,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1028</v>
       </c>
@@ -16638,7 +16713,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1039</v>
       </c>
@@ -16691,7 +16766,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1049</v>
       </c>
@@ -16744,7 +16819,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1060</v>
       </c>
@@ -16797,7 +16872,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1070</v>
       </c>
@@ -16850,7 +16925,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>730</v>
       </c>
@@ -16903,7 +16978,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>730</v>
       </c>
@@ -16956,7 +17031,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>744</v>
       </c>
@@ -17009,7 +17084,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>758</v>
       </c>
@@ -17062,7 +17137,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>772</v>
       </c>
@@ -17115,7 +17190,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>730</v>
       </c>
@@ -17168,7 +17243,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>744</v>
       </c>
@@ -17221,7 +17296,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>758</v>
       </c>
@@ -17274,7 +17349,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>772</v>
       </c>
@@ -17327,7 +17402,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>786</v>
       </c>
@@ -17380,7 +17455,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>797</v>
       </c>
@@ -17433,7 +17508,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>808</v>
       </c>
@@ -17486,7 +17561,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>819</v>
       </c>
@@ -17539,7 +17614,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>830</v>
       </c>
@@ -17592,7 +17667,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>840</v>
       </c>
@@ -17645,7 +17720,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>851</v>
       </c>
@@ -17698,7 +17773,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>862</v>
       </c>
@@ -17751,7 +17826,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>873</v>
       </c>
@@ -17804,7 +17879,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>884</v>
       </c>
@@ -17857,7 +17932,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>895</v>
       </c>
@@ -17910,7 +17985,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>906</v>
       </c>
@@ -17963,7 +18038,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>919</v>
       </c>
@@ -18016,7 +18091,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>929</v>
       </c>
@@ -18069,7 +18144,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>940</v>
       </c>
@@ -18122,7 +18197,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>951</v>
       </c>
@@ -18175,7 +18250,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>962</v>
       </c>
@@ -18228,7 +18303,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>974</v>
       </c>
@@ -18281,7 +18356,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>985</v>
       </c>
@@ -18334,7 +18409,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>730</v>
       </c>
@@ -18387,7 +18462,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>744</v>
       </c>
@@ -18440,7 +18515,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>758</v>
       </c>
@@ -18493,7 +18568,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>772</v>
       </c>
@@ -18546,7 +18621,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>786</v>
       </c>
@@ -18599,7 +18674,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>797</v>
       </c>
@@ -18652,7 +18727,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>808</v>
       </c>
@@ -18705,7 +18780,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>819</v>
       </c>
@@ -18758,7 +18833,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>730</v>
       </c>
@@ -18811,7 +18886,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>744</v>
       </c>
@@ -18864,7 +18939,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="297" spans="1:18">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>758</v>
       </c>
@@ -18917,7 +18992,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>772</v>
       </c>
@@ -18970,7 +19045,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="299" spans="1:18">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>786</v>
       </c>
@@ -19023,7 +19098,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>797</v>
       </c>
@@ -19076,7 +19151,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>808</v>
       </c>
@@ -19129,7 +19204,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>819</v>
       </c>
@@ -19182,7 +19257,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>368</v>
       </c>
@@ -19235,7 +19310,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>383</v>
       </c>
@@ -19288,7 +19363,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="305" spans="1:18">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>397</v>
       </c>
@@ -19341,7 +19416,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="306" spans="1:18">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>368</v>
       </c>
@@ -19394,7 +19469,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="307" spans="1:18">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>383</v>
       </c>
@@ -19447,7 +19522,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="308" spans="1:18">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>368</v>
       </c>
@@ -19500,7 +19575,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="309" spans="1:18">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>383</v>
       </c>
@@ -19553,7 +19628,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="310" spans="1:18">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>368</v>
       </c>
@@ -19605,121 +19680,1865 @@
       <c r="Q310" t="s">
         <v>382</v>
       </c>
-      <c r="R310" t="s"/>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>368</v>
+      </c>
+      <c r="B311" t="s">
+        <v>369</v>
+      </c>
+      <c r="C311" t="s">
+        <v>370</v>
+      </c>
+      <c r="D311" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" t="s">
+        <v>371</v>
+      </c>
+      <c r="F311" t="s">
+        <v>372</v>
+      </c>
+      <c r="G311" t="s">
+        <v>373</v>
+      </c>
+      <c r="H311" t="s">
+        <v>374</v>
+      </c>
+      <c r="I311" t="s">
+        <v>375</v>
+      </c>
+      <c r="J311" t="s">
+        <v>376</v>
+      </c>
+      <c r="K311" t="s">
+        <v>377</v>
+      </c>
+      <c r="L311" t="s">
+        <v>44</v>
+      </c>
+      <c r="M311" t="s">
+        <v>378</v>
+      </c>
+      <c r="N311" t="s">
+        <v>379</v>
+      </c>
+      <c r="O311" t="s">
+        <v>380</v>
+      </c>
+      <c r="P311" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>368</v>
+      </c>
+      <c r="B312" t="s">
+        <v>369</v>
+      </c>
+      <c r="C312" t="s">
+        <v>370</v>
+      </c>
+      <c r="D312" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" t="s">
+        <v>371</v>
+      </c>
+      <c r="F312" t="s">
+        <v>372</v>
+      </c>
+      <c r="G312" t="s">
+        <v>373</v>
+      </c>
+      <c r="H312" t="s">
+        <v>374</v>
+      </c>
+      <c r="I312" t="s">
+        <v>375</v>
+      </c>
+      <c r="J312" t="s">
+        <v>376</v>
+      </c>
+      <c r="K312" t="s">
+        <v>377</v>
+      </c>
+      <c r="L312" t="s">
+        <v>44</v>
+      </c>
+      <c r="M312" t="s">
+        <v>378</v>
+      </c>
+      <c r="N312" t="s">
+        <v>379</v>
+      </c>
+      <c r="O312" t="s">
+        <v>380</v>
+      </c>
+      <c r="P312" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>368</v>
+      </c>
+      <c r="B313" t="s">
+        <v>369</v>
+      </c>
+      <c r="C313" t="s">
+        <v>370</v>
+      </c>
+      <c r="D313" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" t="s">
+        <v>371</v>
+      </c>
+      <c r="F313" t="s">
+        <v>372</v>
+      </c>
+      <c r="G313" t="s">
+        <v>373</v>
+      </c>
+      <c r="H313" t="s">
+        <v>374</v>
+      </c>
+      <c r="I313" t="s">
+        <v>375</v>
+      </c>
+      <c r="J313" t="s">
+        <v>376</v>
+      </c>
+      <c r="K313" t="s">
+        <v>377</v>
+      </c>
+      <c r="L313" t="s">
+        <v>44</v>
+      </c>
+      <c r="M313" t="s">
+        <v>378</v>
+      </c>
+      <c r="N313" t="s">
+        <v>379</v>
+      </c>
+      <c r="O313" t="s">
+        <v>380</v>
+      </c>
+      <c r="P313" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>368</v>
+      </c>
+      <c r="B314" t="s">
+        <v>369</v>
+      </c>
+      <c r="C314" t="s">
+        <v>370</v>
+      </c>
+      <c r="D314" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" t="s">
+        <v>371</v>
+      </c>
+      <c r="F314" t="s">
+        <v>372</v>
+      </c>
+      <c r="G314" t="s">
+        <v>373</v>
+      </c>
+      <c r="H314" t="s">
+        <v>374</v>
+      </c>
+      <c r="I314" t="s">
+        <v>375</v>
+      </c>
+      <c r="J314" t="s">
+        <v>376</v>
+      </c>
+      <c r="K314" t="s">
+        <v>377</v>
+      </c>
+      <c r="L314" t="s">
+        <v>44</v>
+      </c>
+      <c r="M314" t="s">
+        <v>378</v>
+      </c>
+      <c r="N314" t="s">
+        <v>379</v>
+      </c>
+      <c r="O314" t="s">
+        <v>380</v>
+      </c>
+      <c r="P314" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>368</v>
+      </c>
+      <c r="B315" t="s">
+        <v>369</v>
+      </c>
+      <c r="C315" t="s">
+        <v>370</v>
+      </c>
+      <c r="D315" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" t="s">
+        <v>371</v>
+      </c>
+      <c r="F315" t="s">
+        <v>372</v>
+      </c>
+      <c r="G315" t="s">
+        <v>373</v>
+      </c>
+      <c r="H315" t="s">
+        <v>374</v>
+      </c>
+      <c r="I315" t="s">
+        <v>375</v>
+      </c>
+      <c r="J315" t="s">
+        <v>376</v>
+      </c>
+      <c r="K315" t="s">
+        <v>377</v>
+      </c>
+      <c r="L315" t="s">
+        <v>44</v>
+      </c>
+      <c r="M315" t="s">
+        <v>378</v>
+      </c>
+      <c r="N315" t="s">
+        <v>379</v>
+      </c>
+      <c r="O315" t="s">
+        <v>380</v>
+      </c>
+      <c r="P315" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>368</v>
+      </c>
+      <c r="B316" t="s">
+        <v>369</v>
+      </c>
+      <c r="C316" t="s">
+        <v>370</v>
+      </c>
+      <c r="D316" t="s">
+        <v>14</v>
+      </c>
+      <c r="E316" t="s">
+        <v>371</v>
+      </c>
+      <c r="F316" t="s">
+        <v>372</v>
+      </c>
+      <c r="G316" t="s">
+        <v>373</v>
+      </c>
+      <c r="H316" t="s">
+        <v>374</v>
+      </c>
+      <c r="I316" t="s">
+        <v>375</v>
+      </c>
+      <c r="J316" t="s">
+        <v>376</v>
+      </c>
+      <c r="K316" t="s">
+        <v>377</v>
+      </c>
+      <c r="L316" t="s">
+        <v>44</v>
+      </c>
+      <c r="M316" t="s">
+        <v>378</v>
+      </c>
+      <c r="N316" t="s">
+        <v>379</v>
+      </c>
+      <c r="O316" t="s">
+        <v>380</v>
+      </c>
+      <c r="P316" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>368</v>
+      </c>
+      <c r="B317" t="s">
+        <v>369</v>
+      </c>
+      <c r="C317" t="s">
+        <v>370</v>
+      </c>
+      <c r="D317" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" t="s">
+        <v>371</v>
+      </c>
+      <c r="F317" t="s">
+        <v>372</v>
+      </c>
+      <c r="G317" t="s">
+        <v>373</v>
+      </c>
+      <c r="H317" t="s">
+        <v>374</v>
+      </c>
+      <c r="I317" t="s">
+        <v>375</v>
+      </c>
+      <c r="J317" t="s">
+        <v>376</v>
+      </c>
+      <c r="K317" t="s">
+        <v>377</v>
+      </c>
+      <c r="L317" t="s">
+        <v>44</v>
+      </c>
+      <c r="M317" t="s">
+        <v>378</v>
+      </c>
+      <c r="N317" t="s">
+        <v>379</v>
+      </c>
+      <c r="O317" t="s">
+        <v>380</v>
+      </c>
+      <c r="P317" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>368</v>
+      </c>
+      <c r="B318" t="s">
+        <v>369</v>
+      </c>
+      <c r="C318" t="s">
+        <v>370</v>
+      </c>
+      <c r="D318" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318" t="s">
+        <v>371</v>
+      </c>
+      <c r="F318" t="s">
+        <v>372</v>
+      </c>
+      <c r="G318" t="s">
+        <v>373</v>
+      </c>
+      <c r="H318" t="s">
+        <v>374</v>
+      </c>
+      <c r="I318" t="s">
+        <v>375</v>
+      </c>
+      <c r="J318" t="s">
+        <v>376</v>
+      </c>
+      <c r="K318" t="s">
+        <v>377</v>
+      </c>
+      <c r="L318" t="s">
+        <v>44</v>
+      </c>
+      <c r="M318" t="s">
+        <v>378</v>
+      </c>
+      <c r="N318" t="s">
+        <v>379</v>
+      </c>
+      <c r="O318" t="s">
+        <v>380</v>
+      </c>
+      <c r="P318" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>368</v>
+      </c>
+      <c r="B319" t="s">
+        <v>369</v>
+      </c>
+      <c r="C319" t="s">
+        <v>370</v>
+      </c>
+      <c r="D319" t="s">
+        <v>14</v>
+      </c>
+      <c r="E319" t="s">
+        <v>371</v>
+      </c>
+      <c r="F319" t="s">
+        <v>372</v>
+      </c>
+      <c r="G319" t="s">
+        <v>373</v>
+      </c>
+      <c r="H319" t="s">
+        <v>374</v>
+      </c>
+      <c r="I319" t="s">
+        <v>375</v>
+      </c>
+      <c r="J319" t="s">
+        <v>376</v>
+      </c>
+      <c r="K319" t="s">
+        <v>377</v>
+      </c>
+      <c r="L319" t="s">
+        <v>44</v>
+      </c>
+      <c r="M319" t="s">
+        <v>378</v>
+      </c>
+      <c r="N319" t="s">
+        <v>379</v>
+      </c>
+      <c r="O319" t="s">
+        <v>380</v>
+      </c>
+      <c r="P319" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>368</v>
+      </c>
+      <c r="B320" t="s">
+        <v>369</v>
+      </c>
+      <c r="C320" t="s">
+        <v>370</v>
+      </c>
+      <c r="D320" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" t="s">
+        <v>371</v>
+      </c>
+      <c r="F320" t="s">
+        <v>372</v>
+      </c>
+      <c r="G320" t="s">
+        <v>373</v>
+      </c>
+      <c r="H320" t="s">
+        <v>374</v>
+      </c>
+      <c r="I320" t="s">
+        <v>375</v>
+      </c>
+      <c r="J320" t="s">
+        <v>376</v>
+      </c>
+      <c r="K320" t="s">
+        <v>377</v>
+      </c>
+      <c r="L320" t="s">
+        <v>44</v>
+      </c>
+      <c r="M320" t="s">
+        <v>378</v>
+      </c>
+      <c r="N320" t="s">
+        <v>379</v>
+      </c>
+      <c r="O320" t="s">
+        <v>380</v>
+      </c>
+      <c r="P320" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>368</v>
+      </c>
+      <c r="B321" t="s">
+        <v>369</v>
+      </c>
+      <c r="C321" t="s">
+        <v>370</v>
+      </c>
+      <c r="D321" t="s">
+        <v>14</v>
+      </c>
+      <c r="E321" t="s">
+        <v>371</v>
+      </c>
+      <c r="F321" t="s">
+        <v>372</v>
+      </c>
+      <c r="G321" t="s">
+        <v>373</v>
+      </c>
+      <c r="H321" t="s">
+        <v>374</v>
+      </c>
+      <c r="I321" t="s">
+        <v>375</v>
+      </c>
+      <c r="J321" t="s">
+        <v>376</v>
+      </c>
+      <c r="K321" t="s">
+        <v>377</v>
+      </c>
+      <c r="L321" t="s">
+        <v>44</v>
+      </c>
+      <c r="M321" t="s">
+        <v>378</v>
+      </c>
+      <c r="N321" t="s">
+        <v>379</v>
+      </c>
+      <c r="O321" t="s">
+        <v>380</v>
+      </c>
+      <c r="P321" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>368</v>
+      </c>
+      <c r="B322" t="s">
+        <v>369</v>
+      </c>
+      <c r="C322" t="s">
+        <v>370</v>
+      </c>
+      <c r="D322" t="s">
+        <v>14</v>
+      </c>
+      <c r="E322" t="s">
+        <v>371</v>
+      </c>
+      <c r="F322" t="s">
+        <v>372</v>
+      </c>
+      <c r="G322" t="s">
+        <v>373</v>
+      </c>
+      <c r="H322" t="s">
+        <v>374</v>
+      </c>
+      <c r="I322" t="s">
+        <v>375</v>
+      </c>
+      <c r="J322" t="s">
+        <v>376</v>
+      </c>
+      <c r="K322" t="s">
+        <v>377</v>
+      </c>
+      <c r="L322" t="s">
+        <v>44</v>
+      </c>
+      <c r="M322" t="s">
+        <v>378</v>
+      </c>
+      <c r="N322" t="s">
+        <v>379</v>
+      </c>
+      <c r="O322" t="s">
+        <v>380</v>
+      </c>
+      <c r="P322" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>368</v>
+      </c>
+      <c r="B323" t="s">
+        <v>369</v>
+      </c>
+      <c r="C323" t="s">
+        <v>370</v>
+      </c>
+      <c r="D323" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323" t="s">
+        <v>371</v>
+      </c>
+      <c r="F323" t="s">
+        <v>372</v>
+      </c>
+      <c r="G323" t="s">
+        <v>373</v>
+      </c>
+      <c r="H323" t="s">
+        <v>374</v>
+      </c>
+      <c r="I323" t="s">
+        <v>375</v>
+      </c>
+      <c r="J323" t="s">
+        <v>376</v>
+      </c>
+      <c r="K323" t="s">
+        <v>377</v>
+      </c>
+      <c r="L323" t="s">
+        <v>44</v>
+      </c>
+      <c r="M323" t="s">
+        <v>378</v>
+      </c>
+      <c r="N323" t="s">
+        <v>379</v>
+      </c>
+      <c r="O323" t="s">
+        <v>380</v>
+      </c>
+      <c r="P323" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>368</v>
+      </c>
+      <c r="B324" t="s">
+        <v>369</v>
+      </c>
+      <c r="C324" t="s">
+        <v>370</v>
+      </c>
+      <c r="D324" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" t="s">
+        <v>371</v>
+      </c>
+      <c r="F324" t="s">
+        <v>372</v>
+      </c>
+      <c r="G324" t="s">
+        <v>373</v>
+      </c>
+      <c r="H324" t="s">
+        <v>374</v>
+      </c>
+      <c r="I324" t="s">
+        <v>375</v>
+      </c>
+      <c r="J324" t="s">
+        <v>376</v>
+      </c>
+      <c r="K324" t="s">
+        <v>377</v>
+      </c>
+      <c r="L324" t="s">
+        <v>44</v>
+      </c>
+      <c r="M324" t="s">
+        <v>378</v>
+      </c>
+      <c r="N324" t="s">
+        <v>379</v>
+      </c>
+      <c r="O324" t="s">
+        <v>380</v>
+      </c>
+      <c r="P324" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>368</v>
+      </c>
+      <c r="B325" t="s">
+        <v>369</v>
+      </c>
+      <c r="C325" t="s">
+        <v>370</v>
+      </c>
+      <c r="D325" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" t="s">
+        <v>371</v>
+      </c>
+      <c r="F325" t="s">
+        <v>372</v>
+      </c>
+      <c r="G325" t="s">
+        <v>373</v>
+      </c>
+      <c r="H325" t="s">
+        <v>374</v>
+      </c>
+      <c r="I325" t="s">
+        <v>375</v>
+      </c>
+      <c r="J325" t="s">
+        <v>376</v>
+      </c>
+      <c r="K325" t="s">
+        <v>377</v>
+      </c>
+      <c r="L325" t="s">
+        <v>44</v>
+      </c>
+      <c r="M325" t="s">
+        <v>378</v>
+      </c>
+      <c r="N325" t="s">
+        <v>379</v>
+      </c>
+      <c r="O325" t="s">
+        <v>380</v>
+      </c>
+      <c r="P325" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>368</v>
+      </c>
+      <c r="B326" t="s">
+        <v>369</v>
+      </c>
+      <c r="C326" t="s">
+        <v>370</v>
+      </c>
+      <c r="D326" t="s">
+        <v>14</v>
+      </c>
+      <c r="E326" t="s">
+        <v>371</v>
+      </c>
+      <c r="F326" t="s">
+        <v>372</v>
+      </c>
+      <c r="G326" t="s">
+        <v>373</v>
+      </c>
+      <c r="H326" t="s">
+        <v>374</v>
+      </c>
+      <c r="I326" t="s">
+        <v>375</v>
+      </c>
+      <c r="J326" t="s">
+        <v>376</v>
+      </c>
+      <c r="K326" t="s">
+        <v>377</v>
+      </c>
+      <c r="L326" t="s">
+        <v>44</v>
+      </c>
+      <c r="M326" t="s">
+        <v>378</v>
+      </c>
+      <c r="N326" t="s">
+        <v>379</v>
+      </c>
+      <c r="O326" t="s">
+        <v>380</v>
+      </c>
+      <c r="P326" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>368</v>
+      </c>
+      <c r="B327" t="s">
+        <v>369</v>
+      </c>
+      <c r="C327" t="s">
+        <v>370</v>
+      </c>
+      <c r="D327" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" t="s">
+        <v>371</v>
+      </c>
+      <c r="F327" t="s">
+        <v>372</v>
+      </c>
+      <c r="G327" t="s">
+        <v>373</v>
+      </c>
+      <c r="H327" t="s">
+        <v>374</v>
+      </c>
+      <c r="I327" t="s">
+        <v>375</v>
+      </c>
+      <c r="J327" t="s">
+        <v>376</v>
+      </c>
+      <c r="K327" t="s">
+        <v>377</v>
+      </c>
+      <c r="L327" t="s">
+        <v>44</v>
+      </c>
+      <c r="M327" t="s">
+        <v>378</v>
+      </c>
+      <c r="N327" t="s">
+        <v>379</v>
+      </c>
+      <c r="O327" t="s">
+        <v>380</v>
+      </c>
+      <c r="P327" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>368</v>
+      </c>
+      <c r="B328" t="s">
+        <v>369</v>
+      </c>
+      <c r="C328" t="s">
+        <v>370</v>
+      </c>
+      <c r="D328" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" t="s">
+        <v>371</v>
+      </c>
+      <c r="F328" t="s">
+        <v>372</v>
+      </c>
+      <c r="G328" t="s">
+        <v>373</v>
+      </c>
+      <c r="H328" t="s">
+        <v>374</v>
+      </c>
+      <c r="I328" t="s">
+        <v>375</v>
+      </c>
+      <c r="J328" t="s">
+        <v>376</v>
+      </c>
+      <c r="K328" t="s">
+        <v>377</v>
+      </c>
+      <c r="L328" t="s">
+        <v>44</v>
+      </c>
+      <c r="M328" t="s">
+        <v>378</v>
+      </c>
+      <c r="N328" t="s">
+        <v>379</v>
+      </c>
+      <c r="O328" t="s">
+        <v>380</v>
+      </c>
+      <c r="P328" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>368</v>
+      </c>
+      <c r="B329" t="s">
+        <v>369</v>
+      </c>
+      <c r="C329" t="s">
+        <v>370</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" t="s">
+        <v>371</v>
+      </c>
+      <c r="F329" t="s">
+        <v>372</v>
+      </c>
+      <c r="G329" t="s">
+        <v>373</v>
+      </c>
+      <c r="H329" t="s">
+        <v>374</v>
+      </c>
+      <c r="I329" t="s">
+        <v>375</v>
+      </c>
+      <c r="J329" t="s">
+        <v>376</v>
+      </c>
+      <c r="K329" t="s">
+        <v>377</v>
+      </c>
+      <c r="L329" t="s">
+        <v>44</v>
+      </c>
+      <c r="M329" t="s">
+        <v>378</v>
+      </c>
+      <c r="N329" t="s">
+        <v>379</v>
+      </c>
+      <c r="O329" t="s">
+        <v>380</v>
+      </c>
+      <c r="P329" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>368</v>
+      </c>
+      <c r="B330" t="s">
+        <v>369</v>
+      </c>
+      <c r="C330" t="s">
+        <v>370</v>
+      </c>
+      <c r="D330" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" t="s">
+        <v>371</v>
+      </c>
+      <c r="F330" t="s">
+        <v>372</v>
+      </c>
+      <c r="G330" t="s">
+        <v>373</v>
+      </c>
+      <c r="H330" t="s">
+        <v>374</v>
+      </c>
+      <c r="I330" t="s">
+        <v>375</v>
+      </c>
+      <c r="J330" t="s">
+        <v>376</v>
+      </c>
+      <c r="K330" t="s">
+        <v>377</v>
+      </c>
+      <c r="L330" t="s">
+        <v>44</v>
+      </c>
+      <c r="M330" t="s">
+        <v>378</v>
+      </c>
+      <c r="N330" t="s">
+        <v>379</v>
+      </c>
+      <c r="O330" t="s">
+        <v>380</v>
+      </c>
+      <c r="P330" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>368</v>
+      </c>
+      <c r="B331" t="s">
+        <v>369</v>
+      </c>
+      <c r="C331" t="s">
+        <v>370</v>
+      </c>
+      <c r="D331" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331" t="s">
+        <v>371</v>
+      </c>
+      <c r="F331" t="s">
+        <v>372</v>
+      </c>
+      <c r="G331" t="s">
+        <v>373</v>
+      </c>
+      <c r="H331" t="s">
+        <v>374</v>
+      </c>
+      <c r="I331" t="s">
+        <v>375</v>
+      </c>
+      <c r="J331" t="s">
+        <v>376</v>
+      </c>
+      <c r="K331" t="s">
+        <v>377</v>
+      </c>
+      <c r="L331" t="s">
+        <v>44</v>
+      </c>
+      <c r="M331" t="s">
+        <v>378</v>
+      </c>
+      <c r="N331" t="s">
+        <v>379</v>
+      </c>
+      <c r="O331" t="s">
+        <v>380</v>
+      </c>
+      <c r="P331" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>368</v>
+      </c>
+      <c r="B332" t="s">
+        <v>369</v>
+      </c>
+      <c r="C332" t="s">
+        <v>370</v>
+      </c>
+      <c r="D332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" t="s">
+        <v>371</v>
+      </c>
+      <c r="F332" t="s">
+        <v>372</v>
+      </c>
+      <c r="G332" t="s">
+        <v>373</v>
+      </c>
+      <c r="H332" t="s">
+        <v>374</v>
+      </c>
+      <c r="I332" t="s">
+        <v>375</v>
+      </c>
+      <c r="J332" t="s">
+        <v>376</v>
+      </c>
+      <c r="K332" t="s">
+        <v>377</v>
+      </c>
+      <c r="L332" t="s">
+        <v>44</v>
+      </c>
+      <c r="M332" t="s">
+        <v>378</v>
+      </c>
+      <c r="N332" t="s">
+        <v>379</v>
+      </c>
+      <c r="O332" t="s">
+        <v>380</v>
+      </c>
+      <c r="P332" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>368</v>
+      </c>
+      <c r="B333" t="s">
+        <v>369</v>
+      </c>
+      <c r="C333" t="s">
+        <v>370</v>
+      </c>
+      <c r="D333" t="s">
+        <v>14</v>
+      </c>
+      <c r="E333" t="s">
+        <v>371</v>
+      </c>
+      <c r="F333" t="s">
+        <v>372</v>
+      </c>
+      <c r="G333" t="s">
+        <v>373</v>
+      </c>
+      <c r="H333" t="s">
+        <v>374</v>
+      </c>
+      <c r="I333" t="s">
+        <v>375</v>
+      </c>
+      <c r="J333" t="s">
+        <v>376</v>
+      </c>
+      <c r="K333" t="s">
+        <v>377</v>
+      </c>
+      <c r="L333" t="s">
+        <v>44</v>
+      </c>
+      <c r="M333" t="s">
+        <v>378</v>
+      </c>
+      <c r="N333" t="s">
+        <v>379</v>
+      </c>
+      <c r="O333" t="s">
+        <v>380</v>
+      </c>
+      <c r="P333" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>368</v>
+      </c>
+      <c r="B334" t="s">
+        <v>369</v>
+      </c>
+      <c r="C334" t="s">
+        <v>370</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" t="s">
+        <v>371</v>
+      </c>
+      <c r="F334" t="s">
+        <v>372</v>
+      </c>
+      <c r="G334" t="s">
+        <v>373</v>
+      </c>
+      <c r="H334" t="s">
+        <v>374</v>
+      </c>
+      <c r="I334" t="s">
+        <v>375</v>
+      </c>
+      <c r="J334" t="s">
+        <v>376</v>
+      </c>
+      <c r="K334" t="s">
+        <v>377</v>
+      </c>
+      <c r="L334" t="s">
+        <v>44</v>
+      </c>
+      <c r="M334" t="s">
+        <v>378</v>
+      </c>
+      <c r="N334" t="s">
+        <v>379</v>
+      </c>
+      <c r="O334" t="s">
+        <v>380</v>
+      </c>
+      <c r="P334" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>368</v>
+      </c>
+      <c r="B335" t="s">
+        <v>369</v>
+      </c>
+      <c r="C335" t="s">
+        <v>370</v>
+      </c>
+      <c r="D335" t="s">
+        <v>14</v>
+      </c>
+      <c r="E335" t="s">
+        <v>371</v>
+      </c>
+      <c r="F335" t="s">
+        <v>372</v>
+      </c>
+      <c r="G335" t="s">
+        <v>373</v>
+      </c>
+      <c r="H335" t="s">
+        <v>374</v>
+      </c>
+      <c r="I335" t="s">
+        <v>375</v>
+      </c>
+      <c r="J335" t="s">
+        <v>376</v>
+      </c>
+      <c r="K335" t="s">
+        <v>377</v>
+      </c>
+      <c r="L335" t="s">
+        <v>44</v>
+      </c>
+      <c r="M335" t="s">
+        <v>378</v>
+      </c>
+      <c r="N335" t="s">
+        <v>379</v>
+      </c>
+      <c r="O335" t="s">
+        <v>380</v>
+      </c>
+      <c r="P335" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>368</v>
+      </c>
+      <c r="B336" t="s">
+        <v>369</v>
+      </c>
+      <c r="C336" t="s">
+        <v>370</v>
+      </c>
+      <c r="D336" t="s">
+        <v>14</v>
+      </c>
+      <c r="E336" t="s">
+        <v>371</v>
+      </c>
+      <c r="F336" t="s">
+        <v>372</v>
+      </c>
+      <c r="G336" t="s">
+        <v>373</v>
+      </c>
+      <c r="H336" t="s">
+        <v>374</v>
+      </c>
+      <c r="I336" t="s">
+        <v>375</v>
+      </c>
+      <c r="J336" t="s">
+        <v>376</v>
+      </c>
+      <c r="K336" t="s">
+        <v>377</v>
+      </c>
+      <c r="L336" t="s">
+        <v>44</v>
+      </c>
+      <c r="M336" t="s">
+        <v>378</v>
+      </c>
+      <c r="N336" t="s">
+        <v>379</v>
+      </c>
+      <c r="O336" t="s">
+        <v>380</v>
+      </c>
+      <c r="P336" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>368</v>
+      </c>
+      <c r="B337" t="s">
+        <v>369</v>
+      </c>
+      <c r="C337" t="s">
+        <v>370</v>
+      </c>
+      <c r="D337" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" t="s">
+        <v>371</v>
+      </c>
+      <c r="F337" t="s">
+        <v>372</v>
+      </c>
+      <c r="G337" t="s">
+        <v>373</v>
+      </c>
+      <c r="H337" t="s">
+        <v>374</v>
+      </c>
+      <c r="I337" t="s">
+        <v>375</v>
+      </c>
+      <c r="J337" t="s">
+        <v>376</v>
+      </c>
+      <c r="K337" t="s">
+        <v>377</v>
+      </c>
+      <c r="L337" t="s">
+        <v>44</v>
+      </c>
+      <c r="M337" t="s">
+        <v>378</v>
+      </c>
+      <c r="N337" t="s">
+        <v>379</v>
+      </c>
+      <c r="O337" t="s">
+        <v>380</v>
+      </c>
+      <c r="P337" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>368</v>
+      </c>
+      <c r="B338" t="s">
+        <v>369</v>
+      </c>
+      <c r="C338" t="s">
+        <v>370</v>
+      </c>
+      <c r="D338" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" t="s">
+        <v>371</v>
+      </c>
+      <c r="F338" t="s">
+        <v>372</v>
+      </c>
+      <c r="G338" t="s">
+        <v>373</v>
+      </c>
+      <c r="H338" t="s">
+        <v>374</v>
+      </c>
+      <c r="I338" t="s">
+        <v>375</v>
+      </c>
+      <c r="J338" t="s">
+        <v>376</v>
+      </c>
+      <c r="K338" t="s">
+        <v>377</v>
+      </c>
+      <c r="L338" t="s">
+        <v>44</v>
+      </c>
+      <c r="M338" t="s">
+        <v>378</v>
+      </c>
+      <c r="N338" t="s">
+        <v>379</v>
+      </c>
+      <c r="O338" t="s">
+        <v>380</v>
+      </c>
+      <c r="P338" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>368</v>
+      </c>
+      <c r="B339" t="s">
+        <v>369</v>
+      </c>
+      <c r="C339" t="s">
+        <v>370</v>
+      </c>
+      <c r="D339" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" t="s">
+        <v>371</v>
+      </c>
+      <c r="F339" t="s">
+        <v>372</v>
+      </c>
+      <c r="G339" t="s">
+        <v>373</v>
+      </c>
+      <c r="H339" t="s">
+        <v>374</v>
+      </c>
+      <c r="I339" t="s">
+        <v>375</v>
+      </c>
+      <c r="J339" t="s">
+        <v>376</v>
+      </c>
+      <c r="K339" t="s">
+        <v>377</v>
+      </c>
+      <c r="L339" t="s">
+        <v>44</v>
+      </c>
+      <c r="M339" t="s">
+        <v>378</v>
+      </c>
+      <c r="N339" t="s">
+        <v>379</v>
+      </c>
+      <c r="O339" t="s">
+        <v>380</v>
+      </c>
+      <c r="P339" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>368</v>
+      </c>
+      <c r="B340" t="s">
+        <v>369</v>
+      </c>
+      <c r="C340" t="s">
+        <v>370</v>
+      </c>
+      <c r="D340" t="s">
+        <v>14</v>
+      </c>
+      <c r="E340" t="s">
+        <v>371</v>
+      </c>
+      <c r="F340" t="s">
+        <v>372</v>
+      </c>
+      <c r="G340" t="s">
+        <v>373</v>
+      </c>
+      <c r="H340" t="s">
+        <v>374</v>
+      </c>
+      <c r="I340" t="s">
+        <v>375</v>
+      </c>
+      <c r="J340" t="s">
+        <v>376</v>
+      </c>
+      <c r="K340" t="s">
+        <v>377</v>
+      </c>
+      <c r="L340" t="s">
+        <v>44</v>
+      </c>
+      <c r="M340" t="s">
+        <v>378</v>
+      </c>
+      <c r="N340" t="s">
+        <v>379</v>
+      </c>
+      <c r="O340" t="s">
+        <v>380</v>
+      </c>
+      <c r="P340" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>368</v>
+      </c>
+      <c r="B341" t="s">
+        <v>369</v>
+      </c>
+      <c r="C341" t="s">
+        <v>370</v>
+      </c>
+      <c r="D341" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>371</v>
+      </c>
+      <c r="F341" t="s">
+        <v>372</v>
+      </c>
+      <c r="G341" t="s">
+        <v>373</v>
+      </c>
+      <c r="H341" t="s">
+        <v>374</v>
+      </c>
+      <c r="I341" t="s">
+        <v>375</v>
+      </c>
+      <c r="J341" t="s">
+        <v>376</v>
+      </c>
+      <c r="K341" t="s">
+        <v>377</v>
+      </c>
+      <c r="L341" t="s">
+        <v>44</v>
+      </c>
+      <c r="M341" t="s">
+        <v>378</v>
+      </c>
+      <c r="N341" t="s">
+        <v>379</v>
+      </c>
+      <c r="O341" t="s">
+        <v>380</v>
+      </c>
+      <c r="P341" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>368</v>
+      </c>
+      <c r="B342" t="s">
+        <v>369</v>
+      </c>
+      <c r="C342" t="s">
+        <v>370</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" t="s">
+        <v>371</v>
+      </c>
+      <c r="F342" t="s">
+        <v>372</v>
+      </c>
+      <c r="G342" t="s">
+        <v>373</v>
+      </c>
+      <c r="H342" t="s">
+        <v>374</v>
+      </c>
+      <c r="I342" t="s">
+        <v>375</v>
+      </c>
+      <c r="J342" t="s">
+        <v>376</v>
+      </c>
+      <c r="K342" t="s">
+        <v>377</v>
+      </c>
+      <c r="L342" t="s">
+        <v>44</v>
+      </c>
+      <c r="M342" t="s">
+        <v>378</v>
+      </c>
+      <c r="N342" t="s">
+        <v>379</v>
+      </c>
+      <c r="O342" t="s">
+        <v>380</v>
+      </c>
+      <c r="P342" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>368</v>
+      </c>
+      <c r="B343" t="s">
+        <v>369</v>
+      </c>
+      <c r="C343" t="s">
+        <v>370</v>
+      </c>
+      <c r="D343" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" t="s">
+        <v>371</v>
+      </c>
+      <c r="F343" t="s">
+        <v>372</v>
+      </c>
+      <c r="G343" t="s">
+        <v>373</v>
+      </c>
+      <c r="H343" t="s">
+        <v>374</v>
+      </c>
+      <c r="I343" t="s">
+        <v>375</v>
+      </c>
+      <c r="J343" t="s">
+        <v>376</v>
+      </c>
+      <c r="K343" t="s">
+        <v>377</v>
+      </c>
+      <c r="L343" t="s">
+        <v>44</v>
+      </c>
+      <c r="M343" t="s">
+        <v>378</v>
+      </c>
+      <c r="N343" t="s">
+        <v>379</v>
+      </c>
+      <c r="O343" t="s">
+        <v>380</v>
+      </c>
+      <c r="P343" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>382</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BE6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B5" xSplit="1" ySplit="4"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
-      <selection activeCell="BH4" pane="bottomRight" sqref="BH4"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="12" width="16.42578125"/>
-    <col customWidth="1" max="4" min="4" style="12" width="11.42578125"/>
-    <col customWidth="1" max="14" min="7" style="12" width="11.42578125"/>
-    <col customWidth="1" max="18" min="18" style="12" width="11.42578125"/>
-    <col customWidth="1" max="21" min="21" style="12" width="11.42578125"/>
-    <col customWidth="1" max="27" min="27" style="12" width="11.42578125"/>
-    <col customWidth="1" max="33" min="33" style="12" width="11.42578125"/>
+    <col min="1" max="1" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="12" customWidth="1"/>
+    <col min="7" max="14" width="11.42578125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="12" spans="1:57">
+    <row r="2" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="12" spans="1:57">
+    <row r="3" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>1081</v>
       </c>
-      <c r="C3" s="18" t="n"/>
-      <c r="D3" s="18" t="n"/>
-      <c r="E3" s="18" t="n"/>
-      <c r="F3" s="18" t="n"/>
-      <c r="G3" s="18" t="n"/>
-      <c r="H3" s="18" t="n"/>
-      <c r="I3" s="18" t="n"/>
-      <c r="J3" s="18" t="n"/>
-      <c r="K3" s="18" t="n"/>
-      <c r="L3" s="18" t="n"/>
-      <c r="M3" s="18" t="n"/>
-      <c r="N3" s="18" t="n"/>
-      <c r="O3" s="19" t="n"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="17" t="s">
         <v>1082</v>
       </c>
-      <c r="Q3" s="18" t="n"/>
-      <c r="R3" s="18" t="n"/>
-      <c r="S3" s="18" t="n"/>
-      <c r="T3" s="18" t="n"/>
-      <c r="U3" s="18" t="n"/>
-      <c r="V3" s="18" t="n"/>
-      <c r="W3" s="18" t="n"/>
-      <c r="X3" s="18" t="n"/>
-      <c r="Y3" s="18" t="n"/>
-      <c r="Z3" s="18" t="n"/>
-      <c r="AA3" s="18" t="n"/>
-      <c r="AB3" s="18" t="n"/>
-      <c r="AC3" s="19" t="n"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="19"/>
       <c r="AD3" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="AE3" s="18" t="n"/>
-      <c r="AF3" s="18" t="n"/>
-      <c r="AG3" s="18" t="n"/>
-      <c r="AH3" s="18" t="n"/>
-      <c r="AI3" s="18" t="n"/>
-      <c r="AJ3" s="18" t="n"/>
-      <c r="AK3" s="18" t="n"/>
-      <c r="AL3" s="18" t="n"/>
-      <c r="AM3" s="18" t="n"/>
-      <c r="AN3" s="18" t="n"/>
-      <c r="AO3" s="18" t="n"/>
-      <c r="AP3" s="18" t="n"/>
-      <c r="AQ3" s="19" t="n"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="19"/>
       <c r="AR3" s="17" t="s">
         <v>1084</v>
       </c>
-      <c r="AS3" s="18" t="n"/>
-      <c r="AT3" s="18" t="n"/>
-      <c r="AU3" s="18" t="n"/>
-      <c r="AV3" s="18" t="n"/>
-      <c r="AW3" s="18" t="n"/>
-      <c r="AX3" s="18" t="n"/>
-      <c r="AY3" s="18" t="n"/>
-      <c r="AZ3" s="18" t="n"/>
-      <c r="BA3" s="18" t="n"/>
-      <c r="BB3" s="18" t="n"/>
-      <c r="BC3" s="18" t="n"/>
-      <c r="BD3" s="18" t="n"/>
-      <c r="BE3" s="19" t="n"/>
-    </row>
-    <row r="4" spans="1:57">
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="19"/>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -19892,7 +21711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1089</v>
       </c>
@@ -19911,53 +21730,152 @@
       <c r="H5" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="7" t="n"/>
-      <c r="P5" s="7" t="n"/>
-      <c r="Q5" s="7" t="n"/>
-      <c r="S5" s="7" t="n"/>
-      <c r="U5" s="7" t="n"/>
-      <c r="V5" s="7" t="n"/>
-      <c r="W5" s="7" t="n"/>
-      <c r="X5" s="7" t="n"/>
-      <c r="Z5" s="7" t="n"/>
-      <c r="AB5" s="7" t="n"/>
-      <c r="AC5" s="7" t="n"/>
-      <c r="AD5" s="7" t="n"/>
-      <c r="AE5" s="7" t="n"/>
-      <c r="AG5" s="7" t="n"/>
-      <c r="AK5" s="7" t="n"/>
-      <c r="AL5" s="7" t="n"/>
-      <c r="AN5" s="7" t="n"/>
-      <c r="AP5" s="7" t="n"/>
-      <c r="AQ5" s="7" t="n"/>
-      <c r="AR5" s="7" t="n"/>
-      <c r="AS5" s="7" t="n"/>
-      <c r="AW5" s="7" t="n"/>
-      <c r="AX5" s="7" t="n"/>
-      <c r="AY5" s="7" t="n"/>
-      <c r="AZ5" s="7" t="n"/>
-      <c r="BD5" s="7" t="n"/>
-      <c r="BE5" s="7" t="n"/>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1094</v>
+      </c>
       <c r="B6" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C6" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H6" t="s">
-        <v>1094</v>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>581</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -19967,7 +21885,7 @@
     <mergeCell ref="P3:AC3"/>
     <mergeCell ref="AD3:AQ3"/>
   </mergeCells>
-  <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -1991,7 +1991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:R40"/>
+  <dimension ref="A3:R70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A355" sqref="A5:Q355"/>
@@ -3990,6 +3990,1596 @@
         <v>394</v>
       </c>
     </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>387</v>
+      </c>
+      <c r="F41" t="s">
+        <v>388</v>
+      </c>
+      <c r="G41" t="s">
+        <v>389</v>
+      </c>
+      <c r="H41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" t="s">
+        <v>389</v>
+      </c>
+      <c r="J41" t="s">
+        <v>390</v>
+      </c>
+      <c r="K41" t="s">
+        <v>391</v>
+      </c>
+      <c r="L41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" t="s">
+        <v>392</v>
+      </c>
+      <c r="N41" t="s">
+        <v>393</v>
+      </c>
+      <c r="O41" t="s">
+        <v>394</v>
+      </c>
+      <c r="P41" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
+        <v>389</v>
+      </c>
+      <c r="H42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42" t="s">
+        <v>390</v>
+      </c>
+      <c r="K42" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" t="s">
+        <v>392</v>
+      </c>
+      <c r="N42" t="s">
+        <v>393</v>
+      </c>
+      <c r="O42" t="s">
+        <v>394</v>
+      </c>
+      <c r="P42" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>387</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>389</v>
+      </c>
+      <c r="H43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" t="s">
+        <v>392</v>
+      </c>
+      <c r="N43" t="s">
+        <v>393</v>
+      </c>
+      <c r="O43" t="s">
+        <v>394</v>
+      </c>
+      <c r="P43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" t="s">
+        <v>392</v>
+      </c>
+      <c r="N44" t="s">
+        <v>393</v>
+      </c>
+      <c r="O44" t="s">
+        <v>394</v>
+      </c>
+      <c r="P44" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>384</v>
+      </c>
+      <c r="B45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" t="s">
+        <v>389</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>389</v>
+      </c>
+      <c r="J45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45" t="s">
+        <v>392</v>
+      </c>
+      <c r="N45" t="s">
+        <v>393</v>
+      </c>
+      <c r="O45" t="s">
+        <v>394</v>
+      </c>
+      <c r="P45" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>387</v>
+      </c>
+      <c r="F46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" t="s">
+        <v>389</v>
+      </c>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" t="s">
+        <v>390</v>
+      </c>
+      <c r="K46" t="s">
+        <v>391</v>
+      </c>
+      <c r="L46" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" t="s">
+        <v>392</v>
+      </c>
+      <c r="N46" t="s">
+        <v>393</v>
+      </c>
+      <c r="O46" t="s">
+        <v>394</v>
+      </c>
+      <c r="P46" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>387</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>389</v>
+      </c>
+      <c r="H47" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" t="s">
+        <v>392</v>
+      </c>
+      <c r="N47" t="s">
+        <v>393</v>
+      </c>
+      <c r="O47" t="s">
+        <v>394</v>
+      </c>
+      <c r="P47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48" t="s">
+        <v>386</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>389</v>
+      </c>
+      <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" t="s">
+        <v>392</v>
+      </c>
+      <c r="N48" t="s">
+        <v>393</v>
+      </c>
+      <c r="O48" t="s">
+        <v>394</v>
+      </c>
+      <c r="P48" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" t="s">
+        <v>389</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" t="s">
+        <v>392</v>
+      </c>
+      <c r="N49" t="s">
+        <v>393</v>
+      </c>
+      <c r="O49" t="s">
+        <v>394</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" t="s">
+        <v>386</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>387</v>
+      </c>
+      <c r="F50" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" t="s">
+        <v>389</v>
+      </c>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" t="s">
+        <v>392</v>
+      </c>
+      <c r="N50" t="s">
+        <v>393</v>
+      </c>
+      <c r="O50" t="s">
+        <v>394</v>
+      </c>
+      <c r="P50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>384</v>
+      </c>
+      <c r="B51" t="s">
+        <v>385</v>
+      </c>
+      <c r="C51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>387</v>
+      </c>
+      <c r="F51" t="s">
+        <v>388</v>
+      </c>
+      <c r="G51" t="s">
+        <v>389</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" t="s">
+        <v>389</v>
+      </c>
+      <c r="J51" t="s">
+        <v>390</v>
+      </c>
+      <c r="K51" t="s">
+        <v>391</v>
+      </c>
+      <c r="L51" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" t="s">
+        <v>392</v>
+      </c>
+      <c r="N51" t="s">
+        <v>393</v>
+      </c>
+      <c r="O51" t="s">
+        <v>394</v>
+      </c>
+      <c r="P51" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>384</v>
+      </c>
+      <c r="B52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>387</v>
+      </c>
+      <c r="F52" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" t="s">
+        <v>389</v>
+      </c>
+      <c r="H52" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" t="s">
+        <v>389</v>
+      </c>
+      <c r="J52" t="s">
+        <v>390</v>
+      </c>
+      <c r="K52" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M52" t="s">
+        <v>392</v>
+      </c>
+      <c r="N52" t="s">
+        <v>393</v>
+      </c>
+      <c r="O52" t="s">
+        <v>394</v>
+      </c>
+      <c r="P52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C53" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>389</v>
+      </c>
+      <c r="H53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" t="s">
+        <v>392</v>
+      </c>
+      <c r="N53" t="s">
+        <v>393</v>
+      </c>
+      <c r="O53" t="s">
+        <v>394</v>
+      </c>
+      <c r="P53" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54" t="s">
+        <v>385</v>
+      </c>
+      <c r="C54" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>387</v>
+      </c>
+      <c r="F54" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54" t="s">
+        <v>389</v>
+      </c>
+      <c r="H54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" t="s">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s">
+        <v>391</v>
+      </c>
+      <c r="L54" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" t="s">
+        <v>392</v>
+      </c>
+      <c r="N54" t="s">
+        <v>393</v>
+      </c>
+      <c r="O54" t="s">
+        <v>394</v>
+      </c>
+      <c r="P54" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C55" t="s">
+        <v>386</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" t="s">
+        <v>388</v>
+      </c>
+      <c r="G55" t="s">
+        <v>389</v>
+      </c>
+      <c r="H55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" t="s">
+        <v>389</v>
+      </c>
+      <c r="J55" t="s">
+        <v>390</v>
+      </c>
+      <c r="K55" t="s">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" t="s">
+        <v>392</v>
+      </c>
+      <c r="N55" t="s">
+        <v>393</v>
+      </c>
+      <c r="O55" t="s">
+        <v>394</v>
+      </c>
+      <c r="P55" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" t="s">
+        <v>385</v>
+      </c>
+      <c r="C56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>389</v>
+      </c>
+      <c r="H56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56" t="s">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" t="s">
+        <v>392</v>
+      </c>
+      <c r="N56" t="s">
+        <v>393</v>
+      </c>
+      <c r="O56" t="s">
+        <v>394</v>
+      </c>
+      <c r="P56" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>384</v>
+      </c>
+      <c r="B57" t="s">
+        <v>385</v>
+      </c>
+      <c r="C57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" t="s">
+        <v>389</v>
+      </c>
+      <c r="H57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" t="s">
+        <v>389</v>
+      </c>
+      <c r="J57" t="s">
+        <v>390</v>
+      </c>
+      <c r="K57" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" t="s">
+        <v>392</v>
+      </c>
+      <c r="N57" t="s">
+        <v>393</v>
+      </c>
+      <c r="O57" t="s">
+        <v>394</v>
+      </c>
+      <c r="P57" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" t="s">
+        <v>386</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>387</v>
+      </c>
+      <c r="F58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>389</v>
+      </c>
+      <c r="H58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" t="s">
+        <v>389</v>
+      </c>
+      <c r="J58" t="s">
+        <v>390</v>
+      </c>
+      <c r="K58" t="s">
+        <v>391</v>
+      </c>
+      <c r="L58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" t="s">
+        <v>392</v>
+      </c>
+      <c r="N58" t="s">
+        <v>393</v>
+      </c>
+      <c r="O58" t="s">
+        <v>394</v>
+      </c>
+      <c r="P58" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>384</v>
+      </c>
+      <c r="B59" t="s">
+        <v>385</v>
+      </c>
+      <c r="C59" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>387</v>
+      </c>
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>389</v>
+      </c>
+      <c r="H59" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" t="s">
+        <v>392</v>
+      </c>
+      <c r="N59" t="s">
+        <v>393</v>
+      </c>
+      <c r="O59" t="s">
+        <v>394</v>
+      </c>
+      <c r="P59" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>387</v>
+      </c>
+      <c r="F60" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>389</v>
+      </c>
+      <c r="J60" t="s">
+        <v>390</v>
+      </c>
+      <c r="K60" t="s">
+        <v>391</v>
+      </c>
+      <c r="L60" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" t="s">
+        <v>392</v>
+      </c>
+      <c r="N60" t="s">
+        <v>393</v>
+      </c>
+      <c r="O60" t="s">
+        <v>394</v>
+      </c>
+      <c r="P60" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" t="s">
+        <v>389</v>
+      </c>
+      <c r="J61" t="s">
+        <v>390</v>
+      </c>
+      <c r="K61" t="s">
+        <v>391</v>
+      </c>
+      <c r="L61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" t="s">
+        <v>392</v>
+      </c>
+      <c r="N61" t="s">
+        <v>393</v>
+      </c>
+      <c r="O61" t="s">
+        <v>394</v>
+      </c>
+      <c r="P61" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>384</v>
+      </c>
+      <c r="B62" t="s">
+        <v>385</v>
+      </c>
+      <c r="C62" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>387</v>
+      </c>
+      <c r="F62" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" t="s">
+        <v>389</v>
+      </c>
+      <c r="H62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" t="s">
+        <v>389</v>
+      </c>
+      <c r="J62" t="s">
+        <v>390</v>
+      </c>
+      <c r="K62" t="s">
+        <v>391</v>
+      </c>
+      <c r="L62" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" t="s">
+        <v>392</v>
+      </c>
+      <c r="N62" t="s">
+        <v>393</v>
+      </c>
+      <c r="O62" t="s">
+        <v>394</v>
+      </c>
+      <c r="P62" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>384</v>
+      </c>
+      <c r="B63" t="s">
+        <v>385</v>
+      </c>
+      <c r="C63" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F63" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" t="s">
+        <v>389</v>
+      </c>
+      <c r="H63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" t="s">
+        <v>389</v>
+      </c>
+      <c r="J63" t="s">
+        <v>390</v>
+      </c>
+      <c r="K63" t="s">
+        <v>391</v>
+      </c>
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" t="s">
+        <v>392</v>
+      </c>
+      <c r="N63" t="s">
+        <v>393</v>
+      </c>
+      <c r="O63" t="s">
+        <v>394</v>
+      </c>
+      <c r="P63" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>387</v>
+      </c>
+      <c r="F64" t="s">
+        <v>388</v>
+      </c>
+      <c r="G64" t="s">
+        <v>389</v>
+      </c>
+      <c r="H64" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" t="s">
+        <v>389</v>
+      </c>
+      <c r="J64" t="s">
+        <v>390</v>
+      </c>
+      <c r="K64" t="s">
+        <v>391</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" t="s">
+        <v>392</v>
+      </c>
+      <c r="N64" t="s">
+        <v>393</v>
+      </c>
+      <c r="O64" t="s">
+        <v>394</v>
+      </c>
+      <c r="P64" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>384</v>
+      </c>
+      <c r="B65" t="s">
+        <v>385</v>
+      </c>
+      <c r="C65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" t="s">
+        <v>388</v>
+      </c>
+      <c r="G65" t="s">
+        <v>389</v>
+      </c>
+      <c r="H65" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" t="s">
+        <v>389</v>
+      </c>
+      <c r="J65" t="s">
+        <v>390</v>
+      </c>
+      <c r="K65" t="s">
+        <v>391</v>
+      </c>
+      <c r="L65" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" t="s">
+        <v>392</v>
+      </c>
+      <c r="N65" t="s">
+        <v>393</v>
+      </c>
+      <c r="O65" t="s">
+        <v>394</v>
+      </c>
+      <c r="P65" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" t="s">
+        <v>386</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>387</v>
+      </c>
+      <c r="F66" t="s">
+        <v>388</v>
+      </c>
+      <c r="G66" t="s">
+        <v>389</v>
+      </c>
+      <c r="H66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66" t="s">
+        <v>389</v>
+      </c>
+      <c r="J66" t="s">
+        <v>390</v>
+      </c>
+      <c r="K66" t="s">
+        <v>391</v>
+      </c>
+      <c r="L66" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" t="s">
+        <v>392</v>
+      </c>
+      <c r="N66" t="s">
+        <v>393</v>
+      </c>
+      <c r="O66" t="s">
+        <v>394</v>
+      </c>
+      <c r="P66" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>384</v>
+      </c>
+      <c r="B67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>387</v>
+      </c>
+      <c r="F67" t="s">
+        <v>388</v>
+      </c>
+      <c r="G67" t="s">
+        <v>389</v>
+      </c>
+      <c r="H67" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" t="s">
+        <v>389</v>
+      </c>
+      <c r="J67" t="s">
+        <v>390</v>
+      </c>
+      <c r="K67" t="s">
+        <v>391</v>
+      </c>
+      <c r="L67" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" t="s">
+        <v>392</v>
+      </c>
+      <c r="N67" t="s">
+        <v>393</v>
+      </c>
+      <c r="O67" t="s">
+        <v>394</v>
+      </c>
+      <c r="P67" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>384</v>
+      </c>
+      <c r="B68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>387</v>
+      </c>
+      <c r="F68" t="s">
+        <v>388</v>
+      </c>
+      <c r="G68" t="s">
+        <v>389</v>
+      </c>
+      <c r="H68" t="s">
+        <v>50</v>
+      </c>
+      <c r="I68" t="s">
+        <v>389</v>
+      </c>
+      <c r="J68" t="s">
+        <v>390</v>
+      </c>
+      <c r="K68" t="s">
+        <v>391</v>
+      </c>
+      <c r="L68" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68" t="s">
+        <v>392</v>
+      </c>
+      <c r="N68" t="s">
+        <v>393</v>
+      </c>
+      <c r="O68" t="s">
+        <v>394</v>
+      </c>
+      <c r="P68" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>384</v>
+      </c>
+      <c r="B69" t="s">
+        <v>385</v>
+      </c>
+      <c r="C69" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>387</v>
+      </c>
+      <c r="F69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G69" t="s">
+        <v>389</v>
+      </c>
+      <c r="H69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s">
+        <v>389</v>
+      </c>
+      <c r="J69" t="s">
+        <v>390</v>
+      </c>
+      <c r="K69" t="s">
+        <v>391</v>
+      </c>
+      <c r="L69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" t="s">
+        <v>392</v>
+      </c>
+      <c r="N69" t="s">
+        <v>393</v>
+      </c>
+      <c r="O69" t="s">
+        <v>394</v>
+      </c>
+      <c r="P69" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>384</v>
+      </c>
+      <c r="B70" t="s">
+        <v>385</v>
+      </c>
+      <c r="C70" t="s">
+        <v>386</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>387</v>
+      </c>
+      <c r="F70" t="s">
+        <v>388</v>
+      </c>
+      <c r="G70" t="s">
+        <v>389</v>
+      </c>
+      <c r="H70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s">
+        <v>389</v>
+      </c>
+      <c r="J70" t="s">
+        <v>390</v>
+      </c>
+      <c r="K70" t="s">
+        <v>391</v>
+      </c>
+      <c r="L70" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" t="s">
+        <v>392</v>
+      </c>
+      <c r="N70" t="s">
+        <v>393</v>
+      </c>
+      <c r="O70" t="s">
+        <v>394</v>
+      </c>
+      <c r="P70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:I3"/>
@@ -4006,7 +5596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE40"/>
+  <dimension ref="A1:OC61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B20" xSplit="1" ySplit="4"/>
@@ -4022,17 +5612,17 @@
     <col customWidth="1" max="16384" min="35" style="27" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:393">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="27" spans="1:57">
+    <row customHeight="1" ht="15.75" r="2" s="27" spans="1:393">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="27" spans="1:57">
+    <row customHeight="1" ht="16.5" r="3" s="27" spans="1:393">
       <c r="B3" s="20" t="s">
         <v>395</v>
       </c>
@@ -4098,7 +5688,7 @@
       <c r="BD3" s="21" t="n"/>
       <c r="BE3" s="22" t="n"/>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:393">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4271,7 +5861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:393">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4408,7 +5998,7 @@
         <v>5.145</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:393">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4545,7 +6135,7 @@
         <v>5.145</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:393">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -4682,7 +6272,7 @@
         <v>5.307</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:393">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -4819,7 +6409,7 @@
         <v>5.275</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:393">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -4956,7 +6546,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:393">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -5093,7 +6683,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:393">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -5230,7 +6820,7 @@
         <v>5.242</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:393">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -5367,7 +6957,7 @@
         <v>5.278</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:393">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -5504,7 +7094,7 @@
         <v>5.295</v>
       </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:393">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5641,7 +7231,7 @@
         <v>5.268</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:393">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -5778,7 +7368,7 @@
         <v>5.191</v>
       </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:393">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -5915,7 +7505,7 @@
         <v>5.044</v>
       </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:393">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -6052,7 +7642,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:393">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -6189,7 +7779,7 @@
         <v>5.075</v>
       </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:393">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -6326,7 +7916,7 @@
         <v>5.205</v>
       </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:393">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -6463,7 +8053,7 @@
         <v>5.229</v>
       </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:393">
       <c r="A21" t="s">
         <v>213</v>
       </c>
@@ -6582,7 +8172,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:393">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -6701,7 +8291,7 @@
         <v>5.315</v>
       </c>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:393">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -6820,7 +8410,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:393">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -6939,7 +8529,7 @@
         <v>4.81</v>
       </c>
     </row>
-    <row r="25" spans="1:57">
+    <row r="25" spans="1:393">
       <c r="A25" t="s">
         <v>263</v>
       </c>
@@ -7058,7 +8648,7 @@
         <v>5.311</v>
       </c>
     </row>
-    <row r="26" spans="1:57">
+    <row r="26" spans="1:393">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -7177,7 +8767,7 @@
         <v>5.312</v>
       </c>
     </row>
-    <row r="27" spans="1:57">
+    <row r="27" spans="1:393">
       <c r="A27" t="s">
         <v>286</v>
       </c>
@@ -7296,7 +8886,7 @@
         <v>5.286</v>
       </c>
     </row>
-    <row r="28" spans="1:57">
+    <row r="28" spans="1:393">
       <c r="A28" t="s">
         <v>297</v>
       </c>
@@ -7415,7 +9005,7 @@
         <v>5.211</v>
       </c>
     </row>
-    <row r="29" spans="1:57">
+    <row r="29" spans="1:393">
       <c r="A29" t="s">
         <v>308</v>
       </c>
@@ -7534,7 +9124,7 @@
         <v>5.289</v>
       </c>
     </row>
-    <row r="30" spans="1:57">
+    <row r="30" spans="1:393">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -7653,7 +9243,7 @@
         <v>4.971</v>
       </c>
     </row>
-    <row r="31" spans="1:57">
+    <row r="31" spans="1:393">
       <c r="A31" t="s">
         <v>332</v>
       </c>
@@ -7772,7 +9362,7 @@
         <v>4.767</v>
       </c>
     </row>
-    <row r="32" spans="1:57">
+    <row r="32" spans="1:393">
       <c r="A32" t="s">
         <v>343</v>
       </c>
@@ -7891,7 +9481,7 @@
         <v>5.274</v>
       </c>
     </row>
-    <row r="33" spans="1:57">
+    <row r="33" spans="1:393">
       <c r="A33" t="s">
         <v>354</v>
       </c>
@@ -8010,7 +9600,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="34" spans="1:57">
+    <row r="34" spans="1:393">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -8129,7 +9719,7 @@
         <v>5.271</v>
       </c>
     </row>
-    <row r="35" spans="1:57">
+    <row r="35" spans="1:393">
       <c r="A35" t="s">
         <v>375</v>
       </c>
@@ -8248,7 +9838,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="36" spans="1:57">
+    <row r="36" spans="1:393">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -8367,7 +9957,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:57">
+    <row r="37" spans="1:393">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -8486,7 +10076,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:393">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -8605,7 +10195,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:393">
       <c r="A39" t="s">
         <v>384</v>
       </c>
@@ -8724,7 +10314,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:393">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -8840,6 +10430,2691 @@
         <v>462</v>
       </c>
       <c r="BE40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:393">
+      <c r="A41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41" t="s">
+        <v>434</v>
+      </c>
+      <c r="C41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>436</v>
+      </c>
+      <c r="H41" t="s">
+        <v>437</v>
+      </c>
+      <c r="I41" t="s">
+        <v>438</v>
+      </c>
+      <c r="J41" t="s">
+        <v>439</v>
+      </c>
+      <c r="K41" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" t="s">
+        <v>440</v>
+      </c>
+      <c r="O41" t="s">
+        <v>441</v>
+      </c>
+      <c r="P41" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>443</v>
+      </c>
+      <c r="S41" t="s">
+        <v>130</v>
+      </c>
+      <c r="U41" t="s">
+        <v>444</v>
+      </c>
+      <c r="V41" t="s">
+        <v>445</v>
+      </c>
+      <c r="W41" t="s">
+        <v>446</v>
+      </c>
+      <c r="X41" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:393">
+      <c r="A42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" t="s">
+        <v>435</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>436</v>
+      </c>
+      <c r="H42" t="s">
+        <v>437</v>
+      </c>
+      <c r="I42" t="s">
+        <v>438</v>
+      </c>
+      <c r="J42" t="s">
+        <v>439</v>
+      </c>
+      <c r="K42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42" t="s">
+        <v>440</v>
+      </c>
+      <c r="O42" t="s">
+        <v>441</v>
+      </c>
+      <c r="P42" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>443</v>
+      </c>
+      <c r="S42" t="s">
+        <v>130</v>
+      </c>
+      <c r="U42" t="s">
+        <v>444</v>
+      </c>
+      <c r="V42" t="s">
+        <v>445</v>
+      </c>
+      <c r="W42" t="s">
+        <v>446</v>
+      </c>
+      <c r="X42" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:393">
+      <c r="A43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>436</v>
+      </c>
+      <c r="H43" t="s">
+        <v>437</v>
+      </c>
+      <c r="I43" t="s">
+        <v>438</v>
+      </c>
+      <c r="J43" t="s">
+        <v>439</v>
+      </c>
+      <c r="K43" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" t="s">
+        <v>440</v>
+      </c>
+      <c r="O43" t="s">
+        <v>441</v>
+      </c>
+      <c r="P43" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>443</v>
+      </c>
+      <c r="S43" t="s">
+        <v>130</v>
+      </c>
+      <c r="U43" t="s">
+        <v>444</v>
+      </c>
+      <c r="V43" t="s">
+        <v>445</v>
+      </c>
+      <c r="W43" t="s">
+        <v>446</v>
+      </c>
+      <c r="X43" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:393">
+      <c r="A44" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" t="s">
+        <v>435</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>436</v>
+      </c>
+      <c r="H44" t="s">
+        <v>437</v>
+      </c>
+      <c r="I44" t="s">
+        <v>438</v>
+      </c>
+      <c r="J44" t="s">
+        <v>439</v>
+      </c>
+      <c r="K44" t="s">
+        <v>75</v>
+      </c>
+      <c r="N44" t="s">
+        <v>440</v>
+      </c>
+      <c r="O44" t="s">
+        <v>441</v>
+      </c>
+      <c r="P44" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>443</v>
+      </c>
+      <c r="S44" t="s">
+        <v>130</v>
+      </c>
+      <c r="U44" t="s">
+        <v>444</v>
+      </c>
+      <c r="V44" t="s">
+        <v>445</v>
+      </c>
+      <c r="W44" t="s">
+        <v>446</v>
+      </c>
+      <c r="X44" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:393">
+      <c r="A45" t="s">
+        <v>384</v>
+      </c>
+      <c r="B45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C45" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>436</v>
+      </c>
+      <c r="H45" t="s">
+        <v>437</v>
+      </c>
+      <c r="I45" t="s">
+        <v>438</v>
+      </c>
+      <c r="J45" t="s">
+        <v>439</v>
+      </c>
+      <c r="K45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N45" t="s">
+        <v>440</v>
+      </c>
+      <c r="O45" t="s">
+        <v>441</v>
+      </c>
+      <c r="P45" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>443</v>
+      </c>
+      <c r="S45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U45" t="s">
+        <v>444</v>
+      </c>
+      <c r="V45" t="s">
+        <v>445</v>
+      </c>
+      <c r="W45" t="s">
+        <v>446</v>
+      </c>
+      <c r="X45" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:393">
+      <c r="A46" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" t="s">
+        <v>434</v>
+      </c>
+      <c r="C46" t="s">
+        <v>435</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>436</v>
+      </c>
+      <c r="H46" t="s">
+        <v>437</v>
+      </c>
+      <c r="I46" t="s">
+        <v>438</v>
+      </c>
+      <c r="J46" t="s">
+        <v>439</v>
+      </c>
+      <c r="K46" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46" t="s">
+        <v>440</v>
+      </c>
+      <c r="O46" t="s">
+        <v>441</v>
+      </c>
+      <c r="P46" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>443</v>
+      </c>
+      <c r="S46" t="s">
+        <v>130</v>
+      </c>
+      <c r="U46" t="s">
+        <v>444</v>
+      </c>
+      <c r="V46" t="s">
+        <v>445</v>
+      </c>
+      <c r="W46" t="s">
+        <v>446</v>
+      </c>
+      <c r="X46" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:393">
+      <c r="A47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>434</v>
+      </c>
+      <c r="C47" t="s">
+        <v>435</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>436</v>
+      </c>
+      <c r="H47" t="s">
+        <v>437</v>
+      </c>
+      <c r="I47" t="s">
+        <v>438</v>
+      </c>
+      <c r="J47" t="s">
+        <v>439</v>
+      </c>
+      <c r="K47" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" t="s">
+        <v>440</v>
+      </c>
+      <c r="O47" t="s">
+        <v>441</v>
+      </c>
+      <c r="P47" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>443</v>
+      </c>
+      <c r="S47" t="s">
+        <v>130</v>
+      </c>
+      <c r="U47" t="s">
+        <v>444</v>
+      </c>
+      <c r="V47" t="s">
+        <v>445</v>
+      </c>
+      <c r="W47" t="s">
+        <v>446</v>
+      </c>
+      <c r="X47" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:393">
+      <c r="A48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" t="s">
+        <v>434</v>
+      </c>
+      <c r="C48" t="s">
+        <v>435</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>436</v>
+      </c>
+      <c r="H48" t="s">
+        <v>437</v>
+      </c>
+      <c r="I48" t="s">
+        <v>438</v>
+      </c>
+      <c r="J48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K48" t="s">
+        <v>75</v>
+      </c>
+      <c r="N48" t="s">
+        <v>440</v>
+      </c>
+      <c r="O48" t="s">
+        <v>441</v>
+      </c>
+      <c r="P48" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>443</v>
+      </c>
+      <c r="S48" t="s">
+        <v>130</v>
+      </c>
+      <c r="U48" t="s">
+        <v>444</v>
+      </c>
+      <c r="V48" t="s">
+        <v>445</v>
+      </c>
+      <c r="W48" t="s">
+        <v>446</v>
+      </c>
+      <c r="X48" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:393">
+      <c r="A49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" t="s">
+        <v>434</v>
+      </c>
+      <c r="C49" t="s">
+        <v>435</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>436</v>
+      </c>
+      <c r="H49" t="s">
+        <v>437</v>
+      </c>
+      <c r="I49" t="s">
+        <v>438</v>
+      </c>
+      <c r="J49" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+      <c r="O49" t="s">
+        <v>441</v>
+      </c>
+      <c r="P49" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>443</v>
+      </c>
+      <c r="S49" t="s">
+        <v>130</v>
+      </c>
+      <c r="U49" t="s">
+        <v>444</v>
+      </c>
+      <c r="V49" t="s">
+        <v>445</v>
+      </c>
+      <c r="W49" t="s">
+        <v>446</v>
+      </c>
+      <c r="X49" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:393">
+      <c r="A50" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>436</v>
+      </c>
+      <c r="H50" t="s">
+        <v>437</v>
+      </c>
+      <c r="I50" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" t="s">
+        <v>439</v>
+      </c>
+      <c r="K50" t="s">
+        <v>75</v>
+      </c>
+      <c r="N50" t="s">
+        <v>440</v>
+      </c>
+      <c r="O50" t="s">
+        <v>441</v>
+      </c>
+      <c r="P50" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>443</v>
+      </c>
+      <c r="S50" t="s">
+        <v>130</v>
+      </c>
+      <c r="U50" t="s">
+        <v>444</v>
+      </c>
+      <c r="V50" t="s">
+        <v>445</v>
+      </c>
+      <c r="W50" t="s">
+        <v>446</v>
+      </c>
+      <c r="X50" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:393">
+      <c r="A51" t="s">
+        <v>384</v>
+      </c>
+      <c r="B51" t="s">
+        <v>434</v>
+      </c>
+      <c r="C51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>436</v>
+      </c>
+      <c r="H51" t="s">
+        <v>437</v>
+      </c>
+      <c r="I51" t="s">
+        <v>438</v>
+      </c>
+      <c r="J51" t="s">
+        <v>439</v>
+      </c>
+      <c r="K51" t="s">
+        <v>75</v>
+      </c>
+      <c r="N51" t="s">
+        <v>440</v>
+      </c>
+      <c r="O51" t="s">
+        <v>441</v>
+      </c>
+      <c r="P51" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>443</v>
+      </c>
+      <c r="S51" t="s">
+        <v>130</v>
+      </c>
+      <c r="U51" t="s">
+        <v>444</v>
+      </c>
+      <c r="V51" t="s">
+        <v>445</v>
+      </c>
+      <c r="W51" t="s">
+        <v>446</v>
+      </c>
+      <c r="X51" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:393">
+      <c r="A52" t="s">
+        <v>384</v>
+      </c>
+      <c r="B52" t="s">
+        <v>434</v>
+      </c>
+      <c r="C52" t="s">
+        <v>435</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>436</v>
+      </c>
+      <c r="H52" t="s">
+        <v>437</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N52" t="s">
+        <v>440</v>
+      </c>
+      <c r="O52" t="s">
+        <v>441</v>
+      </c>
+      <c r="P52" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>443</v>
+      </c>
+      <c r="S52" t="s">
+        <v>130</v>
+      </c>
+      <c r="U52" t="s">
+        <v>444</v>
+      </c>
+      <c r="V52" t="s">
+        <v>445</v>
+      </c>
+      <c r="W52" t="s">
+        <v>446</v>
+      </c>
+      <c r="X52" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:393">
+      <c r="A53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" t="s">
+        <v>435</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>436</v>
+      </c>
+      <c r="H53" t="s">
+        <v>437</v>
+      </c>
+      <c r="I53" t="s">
+        <v>438</v>
+      </c>
+      <c r="J53" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" t="s">
+        <v>75</v>
+      </c>
+      <c r="N53" t="s">
+        <v>440</v>
+      </c>
+      <c r="O53" t="s">
+        <v>441</v>
+      </c>
+      <c r="P53" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>443</v>
+      </c>
+      <c r="S53" t="s">
+        <v>130</v>
+      </c>
+      <c r="U53" t="s">
+        <v>444</v>
+      </c>
+      <c r="V53" t="s">
+        <v>445</v>
+      </c>
+      <c r="W53" t="s">
+        <v>446</v>
+      </c>
+      <c r="X53" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:393">
+      <c r="A54" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54" t="s">
+        <v>434</v>
+      </c>
+      <c r="C54" t="s">
+        <v>435</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>436</v>
+      </c>
+      <c r="H54" t="s">
+        <v>437</v>
+      </c>
+      <c r="I54" t="s">
+        <v>438</v>
+      </c>
+      <c r="J54" t="s">
+        <v>439</v>
+      </c>
+      <c r="K54" t="s">
+        <v>75</v>
+      </c>
+      <c r="N54" t="s">
+        <v>440</v>
+      </c>
+      <c r="O54" t="s">
+        <v>441</v>
+      </c>
+      <c r="P54" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>443</v>
+      </c>
+      <c r="S54" t="s">
+        <v>130</v>
+      </c>
+      <c r="U54" t="s">
+        <v>444</v>
+      </c>
+      <c r="V54" t="s">
+        <v>445</v>
+      </c>
+      <c r="W54" t="s">
+        <v>446</v>
+      </c>
+      <c r="X54" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:393">
+      <c r="A55" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" t="s">
+        <v>434</v>
+      </c>
+      <c r="C55" t="s">
+        <v>435</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>436</v>
+      </c>
+      <c r="H55" t="s">
+        <v>437</v>
+      </c>
+      <c r="I55" t="s">
+        <v>438</v>
+      </c>
+      <c r="J55" t="s">
+        <v>439</v>
+      </c>
+      <c r="K55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N55" t="s">
+        <v>440</v>
+      </c>
+      <c r="O55" t="s">
+        <v>441</v>
+      </c>
+      <c r="P55" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>443</v>
+      </c>
+      <c r="S55" t="s">
+        <v>130</v>
+      </c>
+      <c r="U55" t="s">
+        <v>444</v>
+      </c>
+      <c r="V55" t="s">
+        <v>445</v>
+      </c>
+      <c r="W55" t="s">
+        <v>446</v>
+      </c>
+      <c r="X55" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:393">
+      <c r="A56" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" t="s">
+        <v>434</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>436</v>
+      </c>
+      <c r="H56" t="s">
+        <v>437</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>75</v>
+      </c>
+      <c r="N56" t="s">
+        <v>440</v>
+      </c>
+      <c r="O56" t="s">
+        <v>441</v>
+      </c>
+      <c r="P56" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>443</v>
+      </c>
+      <c r="S56" t="s">
+        <v>130</v>
+      </c>
+      <c r="U56" t="s">
+        <v>444</v>
+      </c>
+      <c r="V56" t="s">
+        <v>445</v>
+      </c>
+      <c r="W56" t="s">
+        <v>446</v>
+      </c>
+      <c r="X56" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:393">
+      <c r="A57" t="s">
+        <v>384</v>
+      </c>
+      <c r="B57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>436</v>
+      </c>
+      <c r="H57" t="s">
+        <v>437</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" t="s">
+        <v>440</v>
+      </c>
+      <c r="O57" t="s">
+        <v>441</v>
+      </c>
+      <c r="P57" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>443</v>
+      </c>
+      <c r="S57" t="s">
+        <v>130</v>
+      </c>
+      <c r="U57" t="s">
+        <v>444</v>
+      </c>
+      <c r="V57" t="s">
+        <v>445</v>
+      </c>
+      <c r="W57" t="s">
+        <v>446</v>
+      </c>
+      <c r="X57" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:393">
+      <c r="A58" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" t="s">
+        <v>434</v>
+      </c>
+      <c r="I58" t="s">
+        <v>438</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>442</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>446</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN58" t="s">
+        <v>437</v>
+      </c>
+      <c r="CS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU58" t="s">
+        <v>441</v>
+      </c>
+      <c r="DA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ58" t="s">
+        <v>451</v>
+      </c>
+      <c r="DQ58" t="s">
+        <v>451</v>
+      </c>
+      <c r="DR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN58" t="s">
+        <v>456</v>
+      </c>
+      <c r="FU58" t="s">
+        <v>460</v>
+      </c>
+      <c r="FV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH58" t="s">
+        <v>445</v>
+      </c>
+      <c r="GK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO58" t="s">
+        <v>450</v>
+      </c>
+      <c r="GS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB58" t="s">
+        <v>454</v>
+      </c>
+      <c r="KI58" t="s">
+        <v>455</v>
+      </c>
+      <c r="NV58" t="s">
+        <v>459</v>
+      </c>
+      <c r="OC58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:393">
+      <c r="A59" t="s">
+        <v>384</v>
+      </c>
+      <c r="B59" t="s">
+        <v>434</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>437</v>
+      </c>
+      <c r="I59" t="s">
+        <v>438</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>441</v>
+      </c>
+      <c r="P59" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="s">
+        <v>445</v>
+      </c>
+      <c r="W59" t="s">
+        <v>446</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:393">
+      <c r="A60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:393">
+      <c r="A61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61" t="s">
+        <v>435</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>436</v>
+      </c>
+      <c r="H61" t="s">
+        <v>437</v>
+      </c>
+      <c r="I61" t="s">
+        <v>438</v>
+      </c>
+      <c r="J61" t="s">
+        <v>439</v>
+      </c>
+      <c r="K61" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+      <c r="O61" t="s">
+        <v>441</v>
+      </c>
+      <c r="P61" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>443</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>130</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>444</v>
+      </c>
+      <c r="V61" t="s">
+        <v>445</v>
+      </c>
+      <c r="W61" t="s">
+        <v>446</v>
+      </c>
+      <c r="X61" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>452</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>453</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>457</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE61" t="s">
         <v>463</v>
       </c>
     </row>

--- a/IPDO.xlsx
+++ b/IPDO.xlsx
@@ -3,13 +3,13 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="3"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="BalancoResumido" sheetId="1" r:id="rId1"/>
     <s:sheet name="BalancoDetalhado" sheetId="2" r:id="rId2"/>
     <s:sheet name="Intercambios" sheetId="3" r:id="rId3"/>
-    <s:sheet name="DadosComunsSIN" sheetId="4" r:id="rId4"/>
+    <s:sheet name="EnergiaPotencialArmazenada" sheetId="4" r:id="rId4"/>
     <s:sheet name="DemandaMaxima" sheetId="5" r:id="rId5"/>
   </s:sheets>
   <s:definedNames/>
@@ -1097,7 +1097,7 @@
   </sheetPr>
   <dimension ref="A3:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1293,84 +1293,269 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="B7" s="25" t="n"/>
-      <c r="C7" s="25" t="n"/>
-      <c r="D7" s="25" t="n"/>
-      <c r="E7" s="25" t="n"/>
-      <c r="F7" s="25" t="n"/>
-      <c r="G7" s="25" t="n"/>
-      <c r="I7" s="25" t="n"/>
-      <c r="J7" s="25" t="n"/>
-      <c r="K7" s="25" t="n"/>
-      <c r="L7" s="25" t="n"/>
-      <c r="M7" s="25" t="n"/>
-      <c r="N7" s="25" t="n"/>
-      <c r="O7" s="25" t="n"/>
-      <c r="Q7" s="25" t="n"/>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="25" t="n">
+        <v>27.136</v>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D7" s="25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E7" s="25" t="n">
+        <v>9.112</v>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="25" t="n"/>
-      <c r="C8" s="25" t="n"/>
-      <c r="D8" s="25" t="n"/>
-      <c r="E8" s="25" t="n"/>
-      <c r="F8" s="25" t="n"/>
-      <c r="G8" s="25" t="n"/>
-      <c r="I8" s="25" t="n"/>
-      <c r="J8" s="25" t="n"/>
-      <c r="K8" s="25" t="n"/>
-      <c r="L8" s="25" t="n"/>
-      <c r="M8" s="25" t="n"/>
-      <c r="N8" s="25" t="n"/>
-      <c r="O8" s="25" t="n"/>
-      <c r="Q8" s="25" t="n"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="25" t="n">
+        <v>27.136</v>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E8" s="25" t="n">
+        <v>9.112</v>
+      </c>
+      <c r="F8" s="25" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="B9" s="25" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="25" t="n"/>
-      <c r="E9" s="25" t="n"/>
-      <c r="F9" s="25" t="n"/>
-      <c r="G9" s="25" t="n"/>
-      <c r="I9" s="25" t="n"/>
-      <c r="J9" s="25" t="n"/>
-      <c r="K9" s="25" t="n"/>
-      <c r="L9" s="25" t="n"/>
-      <c r="M9" s="25" t="n"/>
-      <c r="N9" s="25" t="n"/>
-      <c r="O9" s="25" t="n"/>
-      <c r="Q9" s="25" t="n"/>
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="25" t="n">
+        <v>27.136</v>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D9" s="25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>9.112</v>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="25" t="n"/>
-      <c r="C10" s="25" t="n"/>
-      <c r="D10" s="25" t="n"/>
-      <c r="E10" s="25" t="n"/>
-      <c r="F10" s="25" t="n"/>
-      <c r="G10" s="25" t="n"/>
-      <c r="I10" s="25" t="n"/>
-      <c r="J10" s="25" t="n"/>
-      <c r="K10" s="25" t="n"/>
-      <c r="L10" s="25" t="n"/>
-      <c r="M10" s="25" t="n"/>
-      <c r="N10" s="25" t="n"/>
-      <c r="O10" s="25" t="n"/>
-      <c r="Q10" s="25" t="n"/>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="25" t="n">
+        <v>27.136</v>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>9.112</v>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="B11" s="25" t="n"/>
-      <c r="C11" s="25" t="n"/>
-      <c r="D11" s="25" t="n"/>
-      <c r="E11" s="25" t="n"/>
-      <c r="F11" s="25" t="n"/>
-      <c r="G11" s="25" t="n"/>
-      <c r="I11" s="25" t="n"/>
-      <c r="J11" s="25" t="n"/>
-      <c r="K11" s="25" t="n"/>
-      <c r="L11" s="25" t="n"/>
-      <c r="M11" s="25" t="n"/>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="25" t="n"/>
-      <c r="Q11" s="25" t="n"/>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="25" t="n">
+        <v>27.136</v>
+      </c>
+      <c r="C11" s="25" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D11" s="25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E11" s="25" t="n">
+        <v>9.112</v>
+      </c>
+      <c r="F11" s="25" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="25" t="n"/>
@@ -1785,8 +1970,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="14" width="16.42578125"/>
-    <col customWidth="1" max="44" min="2" style="14" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="45" style="14" width="11.42578125"/>
+    <col customWidth="1" max="45" min="2" style="14" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="46" style="14" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:393">
@@ -7571,6 +7756,871 @@
         <v>6059</v>
       </c>
       <c r="BE36" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:393">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14161</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4628</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>20779</v>
+      </c>
+      <c r="H37" t="n">
+        <v>28447</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13657</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4651</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>20323</v>
+      </c>
+      <c r="O37" t="n">
+        <v>27085</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6467</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>444</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>580</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7491</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7792</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5781</v>
+      </c>
+      <c r="X37" t="n">
+        <v>567</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>6598</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7486</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>9285</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>9184</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>4057</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1965</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>6022</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>4852</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>4108</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>6059</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:393">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14161</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4628</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20779</v>
+      </c>
+      <c r="H38" t="n">
+        <v>28447</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13657</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4651</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20323</v>
+      </c>
+      <c r="O38" t="n">
+        <v>27085</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6467</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>444</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>580</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7491</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7792</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5781</v>
+      </c>
+      <c r="X38" t="n">
+        <v>567</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>6598</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7486</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>9285</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>9184</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>4057</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1965</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>6022</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>4852</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>4108</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>6059</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:393">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14161</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4628</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20779</v>
+      </c>
+      <c r="H39" t="n">
+        <v>28447</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13657</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4651</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>20323</v>
+      </c>
+      <c r="O39" t="n">
+        <v>27085</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6467</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>444</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>580</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>7491</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7792</v>
+      </c>
+      <c r="W39" t="n">
+        <v>5781</v>
+      </c>
+      <c r="X39" t="n">
+        <v>567</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>6598</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7486</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9285</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>9184</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>4057</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1965</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>6022</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>4852</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>4108</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>6059</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:393">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>14161</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4628</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20779</v>
+      </c>
+      <c r="H40" t="n">
+        <v>28447</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13657</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4651</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>20323</v>
+      </c>
+      <c r="O40" t="n">
+        <v>27085</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6467</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>444</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>580</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>7491</v>
+      </c>
+      <c r="V40" t="n">
+        <v>7792</v>
+      </c>
+      <c r="W40" t="n">
+        <v>5781</v>
+      </c>
+      <c r="X40" t="n">
+        <v>567</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>6598</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7486</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>9285</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>9184</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>4057</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1965</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>6022</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>4852</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>4108</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>6059</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:393">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14161</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4628</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20779</v>
+      </c>
+      <c r="H41" t="n">
+        <v>28447</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13657</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4651</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>20323</v>
+      </c>
+      <c r="O41" t="n">
+        <v>27085</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6467</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>444</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>580</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>7491</v>
+      </c>
+      <c r="V41" t="n">
+        <v>7792</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5781</v>
+      </c>
+      <c r="X41" t="n">
+        <v>567</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>6598</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7486</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9285</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1936</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>6174</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>9184</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>4057</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1965</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>6022</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>4852</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>4108</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>6059</v>
+      </c>
+      <c r="BE41" t="n">
         <v>4823</v>
       </c>
     </row>
@@ -7805,8 +8855,8 @@
     <col bestFit="1" customWidth="1" max="342" min="342" style="14" width="5.5703125"/>
     <col customWidth="1" max="348" min="343" style="14" width="11.42578125"/>
     <col bestFit="1" customWidth="1" max="349" min="349" style="14" width="5.5703125"/>
-    <col customWidth="1" max="357" min="350" style="14" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="358" style="14" width="11.42578125"/>
+    <col customWidth="1" max="358" min="350" style="14" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="359" style="14" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:349">
@@ -7959,74 +9009,209 @@
       </c>
     </row>
     <row r="7" spans="1:349">
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="n"/>
-      <c r="H7" s="11" t="n"/>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="11" t="n"/>
-      <c r="L7" s="11" t="n"/>
-      <c r="M7" s="11" t="n"/>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>9424</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>-888</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>2780</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>9579</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>-301</v>
+      </c>
+      <c r="M7" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:349">
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
-      <c r="J8" s="11" t="n"/>
-      <c r="K8" s="11" t="n"/>
-      <c r="L8" s="11" t="n"/>
-      <c r="M8" s="11" t="n"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>9424</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>-888</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>2780</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>9579</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L8" s="11" t="n">
+        <v>-301</v>
+      </c>
+      <c r="M8" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:349">
-      <c r="B9" s="10" t="n"/>
-      <c r="C9" s="10" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="10" t="n"/>
-      <c r="F9" s="10" t="n"/>
-      <c r="G9" s="10" t="n"/>
-      <c r="H9" s="11" t="n"/>
-      <c r="I9" s="11" t="n"/>
-      <c r="J9" s="11" t="n"/>
-      <c r="K9" s="11" t="n"/>
-      <c r="L9" s="11" t="n"/>
-      <c r="M9" s="11" t="n"/>
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>9424</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>-888</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>2780</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>9579</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>-301</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:349">
-      <c r="B10" s="10" t="n"/>
-      <c r="C10" s="10" t="n"/>
-      <c r="D10" s="10" t="n"/>
-      <c r="E10" s="10" t="n"/>
-      <c r="F10" s="10" t="n"/>
-      <c r="G10" s="10" t="n"/>
-      <c r="H10" s="11" t="n"/>
-      <c r="I10" s="11" t="n"/>
-      <c r="J10" s="11" t="n"/>
-      <c r="K10" s="11" t="n"/>
-      <c r="L10" s="11" t="n"/>
-      <c r="M10" s="11" t="n"/>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>9424</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>-888</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I10" s="11" t="n">
+        <v>2780</v>
+      </c>
+      <c r="J10" s="11" t="n">
+        <v>9579</v>
+      </c>
+      <c r="K10" s="11" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L10" s="11" t="n">
+        <v>-301</v>
+      </c>
+      <c r="M10" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:349">
-      <c r="B11" s="10" t="n"/>
-      <c r="C11" s="10" t="n"/>
-      <c r="D11" s="10" t="n"/>
-      <c r="E11" s="10" t="n"/>
-      <c r="F11" s="10" t="n"/>
-      <c r="G11" s="10" t="n"/>
-      <c r="H11" s="11" t="n"/>
-      <c r="I11" s="11" t="n"/>
-      <c r="J11" s="11" t="n"/>
-      <c r="K11" s="11" t="n"/>
-      <c r="L11" s="11" t="n"/>
-      <c r="M11" s="11" t="n"/>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>9424</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>-888</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>2780</v>
+      </c>
+      <c r="J11" s="11" t="n">
+        <v>9579</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>-301</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:349">
       <c r="B12" s="10" t="n"/>
@@ -8154,43 +9339,6 @@
       <c r="L20" s="13" t="n"/>
       <c r="M20" s="13" t="n"/>
     </row>
-    <row r="21" spans="1:349"/>
-    <row r="22" spans="1:349"/>
-    <row r="23" spans="1:349"/>
-    <row r="24" spans="1:349"/>
-    <row r="25" spans="1:349"/>
-    <row r="26" spans="1:349"/>
-    <row r="27" spans="1:349"/>
-    <row r="28" spans="1:349"/>
-    <row r="29" spans="1:349"/>
-    <row r="30" spans="1:349"/>
-    <row r="31" spans="1:349"/>
-    <row r="32" spans="1:349"/>
-    <row r="33" spans="1:349"/>
-    <row r="34" spans="1:349"/>
-    <row r="35" spans="1:349"/>
-    <row r="36" spans="1:349"/>
-    <row r="37" spans="1:349"/>
-    <row r="38" spans="1:349"/>
-    <row r="39" spans="1:349"/>
-    <row r="40" spans="1:349"/>
-    <row r="41" spans="1:349"/>
-    <row r="42" spans="1:349"/>
-    <row r="43" spans="1:349"/>
-    <row r="44" spans="1:349"/>
-    <row r="45" spans="1:349"/>
-    <row r="46" spans="1:349"/>
-    <row r="47" spans="1:349"/>
-    <row r="48" spans="1:349"/>
-    <row r="49" spans="1:349"/>
-    <row r="50" spans="1:349"/>
-    <row r="51" spans="1:349"/>
-    <row r="52" spans="1:349"/>
-    <row r="53" spans="1:349"/>
-    <row r="54" spans="1:349"/>
-    <row r="55" spans="1:349"/>
-    <row r="56" spans="1:349"/>
-    <row r="57" spans="1:349"/>
     <row r="58" spans="1:349">
       <c r="U58" t="s">
         <v>28</v>
@@ -8337,10 +9485,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8422,7 +9570,9 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="15" t="n"/>
+      <c r="A5" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" s="25" t="n"/>
       <c r="C5" s="25" t="n"/>
       <c r="D5" s="25" t="n"/>
@@ -8435,6 +9585,11 @@
       <c r="K5" s="25" t="n"/>
       <c r="L5" s="25" t="n"/>
       <c r="M5" s="25" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
